--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,71 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,43 +737,49 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>13020100</v>
+        <v>13129500</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>12911400</v>
+        <v>13133900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3">
+        <v>13024300</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>11989100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>12963500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>13604100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>14341600</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +992,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,8 +1042,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1013,43 +1057,49 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>-796100</v>
+        <v>-844000</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>-567700</v>
+        <v>-803000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="3">
+        <v>-572600</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>-534700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>-589000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>-539700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-567000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,52 +1113,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>361200</v>
+        <v>908200</v>
       </c>
       <c r="E17" s="3">
-        <v>6343100</v>
+        <v>6570300</v>
       </c>
       <c r="F17" s="3">
-        <v>289900</v>
+        <v>364400</v>
       </c>
       <c r="G17" s="3">
-        <v>6365100</v>
+        <v>6398600</v>
       </c>
       <c r="H17" s="3">
-        <v>289900</v>
+        <v>292400</v>
       </c>
       <c r="I17" s="3">
+        <v>6420800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>292400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5419700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>228400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8273600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>574500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8121000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>736000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10070100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,43 +1174,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>6676900</v>
+        <v>6559200</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>6546300</v>
+        <v>6735300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="3">
+        <v>6603500</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>6569300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>4689900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>5483200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>4271500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,8 +1233,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1178,43 +1244,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-3688200</v>
+        <v>-3803500</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>-3372000</v>
+        <v>-3720400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3">
+        <v>-3401400</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,43 +1294,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>5852300</v>
+        <v>5605600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>5744700</v>
+        <v>5903500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="3">
+        <v>5795000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>6010500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>5141000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>5429300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>5489900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1567900</v>
+        <v>-270300</v>
       </c>
       <c r="E23" s="3">
-        <v>2988800</v>
+        <v>2755700</v>
       </c>
       <c r="F23" s="3">
-        <v>1204500</v>
+        <v>1581700</v>
       </c>
       <c r="G23" s="3">
-        <v>3174300</v>
+        <v>3014900</v>
       </c>
       <c r="H23" s="3">
-        <v>2131200</v>
+        <v>1215000</v>
       </c>
       <c r="I23" s="3">
+        <v>3202100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2149900</v>
+      </c>
+      <c r="K23" s="3">
         <v>3542100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1508700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2636700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1742500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3128100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1500100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3149300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>427100</v>
+        <v>-50900</v>
       </c>
       <c r="E24" s="3">
-        <v>708200</v>
+        <v>685600</v>
       </c>
       <c r="F24" s="3">
-        <v>340400</v>
+        <v>430900</v>
       </c>
       <c r="G24" s="3">
-        <v>591800</v>
+        <v>714400</v>
       </c>
       <c r="H24" s="3">
-        <v>591800</v>
+        <v>282400</v>
       </c>
       <c r="I24" s="3">
+        <v>597000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>597000</v>
+      </c>
+      <c r="K24" s="3">
         <v>840000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>406300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1141100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>515000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>775300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>456600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1124500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1140800</v>
+        <v>-219300</v>
       </c>
       <c r="E26" s="3">
-        <v>2280500</v>
+        <v>2070100</v>
       </c>
       <c r="F26" s="3">
-        <v>864100</v>
+        <v>1150800</v>
       </c>
       <c r="G26" s="3">
-        <v>2582500</v>
+        <v>2300500</v>
       </c>
       <c r="H26" s="3">
-        <v>1539400</v>
+        <v>932600</v>
       </c>
       <c r="I26" s="3">
+        <v>2605100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1552900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2702200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1102400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1495600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1227500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2352800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1043500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2024800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>740100</v>
+        <v>-537200</v>
       </c>
       <c r="E27" s="3">
-        <v>1518500</v>
+        <v>1277100</v>
       </c>
       <c r="F27" s="3">
-        <v>572100</v>
+        <v>746500</v>
       </c>
       <c r="G27" s="3">
-        <v>1777700</v>
+        <v>1531800</v>
       </c>
       <c r="H27" s="3">
-        <v>1228700</v>
+        <v>577100</v>
       </c>
       <c r="I27" s="3">
+        <v>1793200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1239400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1957700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>821300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>885300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>939100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1740200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>727800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1452000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,8 +1829,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1706,87 +1844,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>3688200</v>
+        <v>3803500</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>3372000</v>
+        <v>3720400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3">
+        <v>3401400</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>3027200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>2053200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>2355100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1122200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>740100</v>
+        <v>-537200</v>
       </c>
       <c r="E33" s="3">
-        <v>1518500</v>
+        <v>1277100</v>
       </c>
       <c r="F33" s="3">
-        <v>572100</v>
+        <v>746500</v>
       </c>
       <c r="G33" s="3">
-        <v>1777700</v>
+        <v>1531800</v>
       </c>
       <c r="H33" s="3">
-        <v>1228700</v>
+        <v>577100</v>
       </c>
       <c r="I33" s="3">
+        <v>1793200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1239400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1957700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>821300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>885300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>939100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1740200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>727800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1452000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>740100</v>
+        <v>-537200</v>
       </c>
       <c r="E35" s="3">
-        <v>1518500</v>
+        <v>1277100</v>
       </c>
       <c r="F35" s="3">
-        <v>572100</v>
+        <v>746500</v>
       </c>
       <c r="G35" s="3">
-        <v>1777700</v>
+        <v>1531800</v>
       </c>
       <c r="H35" s="3">
-        <v>1228700</v>
+        <v>577100</v>
       </c>
       <c r="I35" s="3">
+        <v>1793200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1239400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1957700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>821300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>885300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>939100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1740200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>727800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1452000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,96 +2128,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>173982500</v>
+        <v>216685300</v>
       </c>
       <c r="E41" s="3">
-        <v>159930300</v>
+        <v>155594500</v>
       </c>
       <c r="F41" s="3">
-        <v>180982200</v>
+        <v>175503700</v>
       </c>
       <c r="G41" s="3">
-        <v>152791100</v>
+        <v>161328600</v>
       </c>
       <c r="H41" s="3">
-        <v>176506800</v>
+        <v>182564600</v>
       </c>
       <c r="I41" s="3">
+        <v>154127000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>178050000</v>
+      </c>
+      <c r="K41" s="3">
         <v>144180600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>171178200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>170037600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>183782000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>179666500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>204477700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>167576600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37698700</v>
+        <v>36600600</v>
       </c>
       <c r="E42" s="3">
-        <v>540696900</v>
+        <v>501951000</v>
       </c>
       <c r="F42" s="3">
-        <v>28933400</v>
+        <v>38028300</v>
       </c>
       <c r="G42" s="3">
-        <v>476432100</v>
+        <v>545424300</v>
       </c>
       <c r="H42" s="3">
-        <v>25020100</v>
+        <v>29186400</v>
       </c>
       <c r="I42" s="3">
+        <v>480597600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>25238900</v>
+      </c>
+      <c r="K42" s="3">
         <v>488778000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>25473600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>484036600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>16268900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>595802500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>19015700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>651761500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2274,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>284400</v>
+        <v>127400</v>
       </c>
       <c r="E47" s="3">
-        <v>266800</v>
+        <v>124100</v>
       </c>
       <c r="F47" s="3">
-        <v>285500</v>
+        <v>286900</v>
       </c>
       <c r="G47" s="3">
-        <v>273400</v>
+        <v>269100</v>
       </c>
       <c r="H47" s="3">
-        <v>731300</v>
+        <v>288000</v>
       </c>
       <c r="I47" s="3">
+        <v>275800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>737700</v>
+      </c>
+      <c r="K47" s="3">
         <v>719200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>768600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>785400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>897600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>817900</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1408600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1286500</v>
       </c>
       <c r="P47" s="3">
         <v>1408600</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>1286500</v>
+      </c>
+      <c r="R47" s="3">
+        <v>1408600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32916900</v>
+        <v>33450600</v>
       </c>
       <c r="E48" s="3">
-        <v>29382500</v>
+        <v>31332900</v>
       </c>
       <c r="F48" s="3">
-        <v>32060500</v>
+        <v>33204700</v>
       </c>
       <c r="G48" s="3">
-        <v>29372600</v>
+        <v>29639400</v>
       </c>
       <c r="H48" s="3">
-        <v>28613900</v>
+        <v>32340800</v>
       </c>
       <c r="I48" s="3">
+        <v>29629400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>28864100</v>
+      </c>
+      <c r="K48" s="3">
         <v>28039600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>27120600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>52821000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>26030200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>25510700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>26176000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>23553700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5151800</v>
+        <v>5235600</v>
       </c>
       <c r="E49" s="3">
-        <v>7548800</v>
+        <v>7742100</v>
       </c>
       <c r="F49" s="3">
-        <v>5009100</v>
+        <v>5196900</v>
       </c>
       <c r="G49" s="3">
-        <v>5107900</v>
+        <v>7614800</v>
       </c>
       <c r="H49" s="3">
-        <v>5338500</v>
+        <v>5052900</v>
       </c>
       <c r="I49" s="3">
+        <v>5152600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5385200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5351700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5490000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7786600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5497800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5452900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5282100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>7338700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11607000</v>
+        <v>10237500</v>
       </c>
       <c r="E52" s="3">
-        <v>15059100</v>
+        <v>10243100</v>
       </c>
       <c r="F52" s="3">
-        <v>18491400</v>
+        <v>11708400</v>
       </c>
       <c r="G52" s="3">
-        <v>21214500</v>
+        <v>15190700</v>
       </c>
       <c r="H52" s="3">
-        <v>11609200</v>
+        <v>18653100</v>
       </c>
       <c r="I52" s="3">
+        <v>21399900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>11710700</v>
+      </c>
+      <c r="K52" s="3">
         <v>10751600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6807600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7068500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6956300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7286200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>12677100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>12528100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1549424000</v>
+        <v>1669935200</v>
       </c>
       <c r="E54" s="3">
-        <v>1524692700</v>
+        <v>1502241200</v>
       </c>
       <c r="F54" s="3">
-        <v>1497281100</v>
+        <v>1562970900</v>
       </c>
       <c r="G54" s="3">
-        <v>1437751900</v>
+        <v>1538023300</v>
       </c>
       <c r="H54" s="3">
-        <v>1431652600</v>
+        <v>1510372100</v>
       </c>
       <c r="I54" s="3">
+        <v>1450322500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1444169700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2619,43 +2879,49 @@
         <v>4</v>
       </c>
       <c r="E57" s="3">
-        <v>29122300</v>
+        <v>27259100</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="3">
-        <v>25898500</v>
+        <v>28489700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I57" s="3">
+        <v>24661800</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>24286700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>22786500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>37729200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>25001000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,8 +2964,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2707,43 +2979,49 @@
         <v>4</v>
       </c>
       <c r="E59" s="3">
-        <v>2420000</v>
+        <v>2618400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G59" s="3">
-        <v>2630800</v>
+        <v>2441200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3">
+        <v>2653800</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>2290400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>2852100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>2472900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3005000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>159065100</v>
+        <v>183883800</v>
       </c>
       <c r="E61" s="3">
-        <v>41033400</v>
+        <v>56197400</v>
       </c>
       <c r="F61" s="3">
-        <v>155033200</v>
+        <v>160455800</v>
       </c>
       <c r="G61" s="3">
-        <v>41909600</v>
+        <v>41392100</v>
       </c>
       <c r="H61" s="3">
-        <v>139649100</v>
+        <v>156388700</v>
       </c>
       <c r="I61" s="3">
+        <v>50653900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>140870100</v>
+      </c>
+      <c r="K61" s="3">
         <v>41046500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>129673800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>41008700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>126560500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>41101900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>138392200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>41775900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11045900</v>
+        <v>6835000</v>
       </c>
       <c r="E62" s="3">
-        <v>14144400</v>
+        <v>7896100</v>
       </c>
       <c r="F62" s="3">
-        <v>15614700</v>
+        <v>11142500</v>
       </c>
       <c r="G62" s="3">
-        <v>17805200</v>
+        <v>14268100</v>
       </c>
       <c r="H62" s="3">
-        <v>12725800</v>
+        <v>15751200</v>
       </c>
       <c r="I62" s="3">
+        <v>17960800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>12837100</v>
+      </c>
+      <c r="K62" s="3">
         <v>11585000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9003600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8863700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8078300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7775400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>13029300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>12610200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1479465000</v>
+        <v>1600620500</v>
       </c>
       <c r="E66" s="3">
-        <v>1456076500</v>
+        <v>1431878700</v>
       </c>
       <c r="F66" s="3">
-        <v>1429391800</v>
+        <v>1492400200</v>
       </c>
       <c r="G66" s="3">
-        <v>1370745400</v>
+        <v>1468807200</v>
       </c>
       <c r="H66" s="3">
-        <v>1365609000</v>
+        <v>1441889200</v>
       </c>
       <c r="I66" s="3">
+        <v>1382730100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1377548700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35590600</v>
+        <v>35737800</v>
       </c>
       <c r="E72" s="3">
-        <v>34896600</v>
+        <v>36335900</v>
       </c>
       <c r="F72" s="3">
-        <v>35864000</v>
+        <v>35901700</v>
       </c>
       <c r="G72" s="3">
-        <v>35362200</v>
+        <v>35201700</v>
       </c>
       <c r="H72" s="3">
-        <v>34752800</v>
+        <v>36177500</v>
       </c>
       <c r="I72" s="3">
+        <v>35671400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>35056600</v>
+      </c>
+      <c r="K72" s="3">
         <v>33541700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>34225200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>33549700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>34846900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69959100</v>
+        <v>69314700</v>
       </c>
       <c r="E76" s="3">
-        <v>68616200</v>
+        <v>70362500</v>
       </c>
       <c r="F76" s="3">
-        <v>67889300</v>
+        <v>70570700</v>
       </c>
       <c r="G76" s="3">
-        <v>67006500</v>
+        <v>69216100</v>
       </c>
       <c r="H76" s="3">
-        <v>66043600</v>
+        <v>68482900</v>
       </c>
       <c r="I76" s="3">
+        <v>67592400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>66621000</v>
+      </c>
+      <c r="K76" s="3">
         <v>64737000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>64672200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>65555600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>67656000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>67443900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>73011000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>72721100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>740100</v>
+        <v>-537200</v>
       </c>
       <c r="E81" s="3">
-        <v>1518500</v>
+        <v>1277100</v>
       </c>
       <c r="F81" s="3">
-        <v>572100</v>
+        <v>746500</v>
       </c>
       <c r="G81" s="3">
-        <v>1777700</v>
+        <v>1531800</v>
       </c>
       <c r="H81" s="3">
-        <v>1228700</v>
+        <v>577100</v>
       </c>
       <c r="I81" s="3">
+        <v>1793200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1239400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1957700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>821300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>885300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>939100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1740200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>727800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1452000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,8 +4013,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3628,43 +4024,49 @@
         <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>2863600</v>
+        <v>2849900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>2570400</v>
+        <v>2888600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I83" s="3">
+        <v>2592900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>2468300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>2504300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>2301200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2340600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,8 +4309,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3892,43 +4324,49 @@
         <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>3166600</v>
+        <v>8329200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>19683800</v>
+        <v>3194300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I89" s="3">
+        <v>19855900</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>9214900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>22647400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,8 +4383,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3954,43 +4394,49 @@
         <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>-3566300</v>
+        <v>-4388300</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G91" s="3">
-        <v>-4474400</v>
+        <v>-3597500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I91" s="3">
+        <v>-4513500</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,8 +4529,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4086,43 +4544,49 @@
         <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>-2877900</v>
+        <v>-4823600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>-5375800</v>
+        <v>-2903000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I94" s="3">
+        <v>-5422800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4603,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4148,43 +4614,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-967300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-975800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,8 +4799,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4324,43 +4814,49 @@
         <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>2039000</v>
+        <v>169500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>-835600</v>
+        <v>2056800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I100" s="3">
+        <v>-842900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-953700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2384000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4368,28 +4864,28 @@
         <v>4</v>
       </c>
       <c r="E101" s="3">
-        <v>789500</v>
+        <v>738800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>879500</v>
+        <v>796400</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I101" s="3">
+        <v>887200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>1513000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4403,8 +4899,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4412,39 +4914,45 @@
         <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>3117200</v>
+        <v>4413800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>13412100</v>
+        <v>3144500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I102" s="3">
+        <v>13529300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>3766500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>16455100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>13129500</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>13133900</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>13024300</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>12814400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14022100</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14026800</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13909700</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>11989100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>12963500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>13604100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>14341600</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,58 +1067,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-844000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-803000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-572600</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>-883600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-901400</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-857600</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-611600</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>-534700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>-589000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>-539700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>-567000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>908200</v>
+        <v>8830300</v>
       </c>
       <c r="E17" s="3">
-        <v>6570300</v>
+        <v>970000</v>
       </c>
       <c r="F17" s="3">
-        <v>364400</v>
+        <v>8208100</v>
       </c>
       <c r="G17" s="3">
-        <v>6398600</v>
+        <v>389200</v>
       </c>
       <c r="H17" s="3">
+        <v>8121800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>312300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8066200</v>
+      </c>
+      <c r="K17" s="3">
         <v>292400</v>
       </c>
-      <c r="I17" s="3">
-        <v>6420800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>292400</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5419700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>228400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8273600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>574500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8121000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>736000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10070100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6559200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6735300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6603500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>3984000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5814000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5905000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5843500</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>6569300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>4689900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>5483200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>4271500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-3803500</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-3720400</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3401400</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-4890100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2870900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2685200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2423800</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5605600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5903500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5795000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>2216800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5986700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6304900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6188900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>6010500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>5141000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>5429300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>5489900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-270300</v>
+        <v>-906100</v>
       </c>
       <c r="E23" s="3">
-        <v>2755700</v>
+        <v>-288600</v>
       </c>
       <c r="F23" s="3">
-        <v>1581700</v>
+        <v>2943100</v>
       </c>
       <c r="G23" s="3">
-        <v>3014900</v>
+        <v>1689200</v>
       </c>
       <c r="H23" s="3">
-        <v>1215000</v>
+        <v>3219900</v>
       </c>
       <c r="I23" s="3">
-        <v>3202100</v>
+        <v>1297600</v>
       </c>
       <c r="J23" s="3">
+        <v>3419800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2149900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3542100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1508700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2636700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1742500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3128100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3149300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-50900</v>
+        <v>723900</v>
       </c>
       <c r="E24" s="3">
-        <v>685600</v>
+        <v>-54400</v>
       </c>
       <c r="F24" s="3">
-        <v>430900</v>
+        <v>732200</v>
       </c>
       <c r="G24" s="3">
-        <v>714400</v>
+        <v>460100</v>
       </c>
       <c r="H24" s="3">
-        <v>282400</v>
+        <v>763000</v>
       </c>
       <c r="I24" s="3">
+        <v>301600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>637600</v>
+      </c>
+      <c r="K24" s="3">
         <v>597000</v>
       </c>
-      <c r="J24" s="3">
-        <v>597000</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>840000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>406300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1141100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>515000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>775300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>456600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1124500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-219300</v>
+        <v>-1630000</v>
       </c>
       <c r="E26" s="3">
-        <v>2070100</v>
+        <v>-234200</v>
       </c>
       <c r="F26" s="3">
-        <v>1150800</v>
+        <v>2210800</v>
       </c>
       <c r="G26" s="3">
-        <v>2300500</v>
+        <v>1229000</v>
       </c>
       <c r="H26" s="3">
-        <v>932600</v>
+        <v>2456900</v>
       </c>
       <c r="I26" s="3">
-        <v>2605100</v>
+        <v>996000</v>
       </c>
       <c r="J26" s="3">
+        <v>2782200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1552900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2702200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1102400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1495600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1227500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2352800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1043500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2024800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-537200</v>
+        <v>-2259300</v>
       </c>
       <c r="E27" s="3">
-        <v>1277100</v>
+        <v>-573700</v>
       </c>
       <c r="F27" s="3">
-        <v>746500</v>
+        <v>1363900</v>
       </c>
       <c r="G27" s="3">
-        <v>1531800</v>
+        <v>797300</v>
       </c>
       <c r="H27" s="3">
-        <v>577100</v>
+        <v>1636000</v>
       </c>
       <c r="I27" s="3">
-        <v>1793200</v>
+        <v>616300</v>
       </c>
       <c r="J27" s="3">
+        <v>1915100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1239400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1957700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>821300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>885300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>939100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1740200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>727800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1452000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3803500</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3720400</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3401400</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>4890100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2870900</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2685200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2423800</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>3027200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>2053200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>2355100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>1122200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-537200</v>
+        <v>-2259300</v>
       </c>
       <c r="E33" s="3">
-        <v>1277100</v>
+        <v>-573700</v>
       </c>
       <c r="F33" s="3">
-        <v>746500</v>
+        <v>1363900</v>
       </c>
       <c r="G33" s="3">
-        <v>1531800</v>
+        <v>797300</v>
       </c>
       <c r="H33" s="3">
-        <v>577100</v>
+        <v>1636000</v>
       </c>
       <c r="I33" s="3">
-        <v>1793200</v>
+        <v>616300</v>
       </c>
       <c r="J33" s="3">
+        <v>1915100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1239400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1957700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>821300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>885300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>939100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1740200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>727800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1452000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-537200</v>
+        <v>-2259300</v>
       </c>
       <c r="E35" s="3">
-        <v>1277100</v>
+        <v>-573700</v>
       </c>
       <c r="F35" s="3">
-        <v>746500</v>
+        <v>1363900</v>
       </c>
       <c r="G35" s="3">
-        <v>1531800</v>
+        <v>797300</v>
       </c>
       <c r="H35" s="3">
-        <v>577100</v>
+        <v>1636000</v>
       </c>
       <c r="I35" s="3">
-        <v>1793200</v>
+        <v>616300</v>
       </c>
       <c r="J35" s="3">
+        <v>1915100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1239400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1957700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>821300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>885300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>939100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1740200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>727800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1452000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,108 +2215,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>216685300</v>
+        <v>220030000</v>
       </c>
       <c r="E41" s="3">
-        <v>155594500</v>
+        <v>231416600</v>
       </c>
       <c r="F41" s="3">
-        <v>175503700</v>
+        <v>166172600</v>
       </c>
       <c r="G41" s="3">
-        <v>161328600</v>
+        <v>187435200</v>
       </c>
       <c r="H41" s="3">
-        <v>182564600</v>
+        <v>172296500</v>
       </c>
       <c r="I41" s="3">
-        <v>154127000</v>
+        <v>194976200</v>
       </c>
       <c r="J41" s="3">
+        <v>164605300</v>
+      </c>
+      <c r="K41" s="3">
         <v>178050000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144180600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171178200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170037600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>183782000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>179666500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>204477700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>167576600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36600600</v>
+        <v>569326200</v>
       </c>
       <c r="E42" s="3">
-        <v>501951000</v>
+        <v>39088900</v>
       </c>
       <c r="F42" s="3">
-        <v>38028300</v>
+        <v>536076100</v>
       </c>
       <c r="G42" s="3">
-        <v>545424300</v>
+        <v>40613700</v>
       </c>
       <c r="H42" s="3">
-        <v>29186400</v>
+        <v>582504900</v>
       </c>
       <c r="I42" s="3">
-        <v>480597600</v>
+        <v>31170600</v>
       </c>
       <c r="J42" s="3">
+        <v>513271000</v>
+      </c>
+      <c r="K42" s="3">
         <v>25238900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>488778000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25473600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>484036600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16268900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>595802500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19015700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>651761500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,8 +2372,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,158 +2531,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>127400</v>
+        <v>125400</v>
       </c>
       <c r="E47" s="3">
-        <v>124100</v>
+        <v>136000</v>
       </c>
       <c r="F47" s="3">
-        <v>286900</v>
+        <v>132500</v>
       </c>
       <c r="G47" s="3">
-        <v>269100</v>
+        <v>306400</v>
       </c>
       <c r="H47" s="3">
-        <v>288000</v>
+        <v>287400</v>
       </c>
       <c r="I47" s="3">
-        <v>275800</v>
+        <v>307600</v>
       </c>
       <c r="J47" s="3">
+        <v>294500</v>
+      </c>
+      <c r="K47" s="3">
         <v>737700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>719200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>768600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>785400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>897600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>817900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1408600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1286500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33450600</v>
+        <v>35264600</v>
       </c>
       <c r="E48" s="3">
-        <v>31332900</v>
+        <v>35724800</v>
       </c>
       <c r="F48" s="3">
-        <v>33204700</v>
+        <v>33463100</v>
       </c>
       <c r="G48" s="3">
-        <v>29639400</v>
+        <v>35462200</v>
       </c>
       <c r="H48" s="3">
-        <v>32340800</v>
+        <v>31654400</v>
       </c>
       <c r="I48" s="3">
-        <v>29629400</v>
+        <v>34539500</v>
       </c>
       <c r="J48" s="3">
+        <v>31643800</v>
+      </c>
+      <c r="K48" s="3">
         <v>28864100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28039600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27120600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52821000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26030200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25510700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26176000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23553700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5235600</v>
+        <v>4784800</v>
       </c>
       <c r="E49" s="3">
-        <v>7742100</v>
+        <v>5591600</v>
       </c>
       <c r="F49" s="3">
-        <v>5196900</v>
+        <v>8268500</v>
       </c>
       <c r="G49" s="3">
-        <v>7614800</v>
+        <v>5550200</v>
       </c>
       <c r="H49" s="3">
-        <v>5052900</v>
+        <v>8132400</v>
       </c>
       <c r="I49" s="3">
-        <v>5152600</v>
+        <v>5396400</v>
       </c>
       <c r="J49" s="3">
+        <v>5502900</v>
+      </c>
+      <c r="K49" s="3">
         <v>5385200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5351700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5490000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7786600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5497800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5452900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5282100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7338700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10237500</v>
+        <v>9674900</v>
       </c>
       <c r="E52" s="3">
-        <v>10243100</v>
+        <v>10933500</v>
       </c>
       <c r="F52" s="3">
-        <v>11708400</v>
+        <v>10939500</v>
       </c>
       <c r="G52" s="3">
-        <v>15190700</v>
+        <v>12504400</v>
       </c>
       <c r="H52" s="3">
-        <v>18653100</v>
+        <v>16223500</v>
       </c>
       <c r="I52" s="3">
-        <v>21399900</v>
+        <v>19921200</v>
       </c>
       <c r="J52" s="3">
+        <v>22854800</v>
+      </c>
+      <c r="K52" s="3">
         <v>11710700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10751600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6807600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7068500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6956300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7286200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12677100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12528100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1669935200</v>
+        <v>1719193700</v>
       </c>
       <c r="E54" s="3">
-        <v>1502241200</v>
+        <v>1783465400</v>
       </c>
       <c r="F54" s="3">
-        <v>1562970900</v>
+        <v>1604370800</v>
       </c>
       <c r="G54" s="3">
-        <v>1538023300</v>
+        <v>1669229200</v>
       </c>
       <c r="H54" s="3">
-        <v>1510372100</v>
+        <v>1642585600</v>
       </c>
       <c r="I54" s="3">
-        <v>1450322500</v>
+        <v>1613054500</v>
       </c>
       <c r="J54" s="3">
+        <v>1548922400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,58 +2999,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>27259100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>28489700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>24661800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>24958000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>29112400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>30426600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>26338500</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>24286700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>22786500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>37729200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>25001000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,58 +3103,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2618400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2441200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2653800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>1968300</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2796400</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2607100</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2834200</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>2290400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>2852100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>2472900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>3005000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>183883800</v>
+        <v>64754300</v>
       </c>
       <c r="E61" s="3">
-        <v>56197400</v>
+        <v>196385100</v>
       </c>
       <c r="F61" s="3">
-        <v>160455800</v>
+        <v>60018000</v>
       </c>
       <c r="G61" s="3">
-        <v>41392100</v>
+        <v>171364400</v>
       </c>
       <c r="H61" s="3">
-        <v>156388700</v>
+        <v>44206200</v>
       </c>
       <c r="I61" s="3">
-        <v>50653900</v>
+        <v>167020700</v>
       </c>
       <c r="J61" s="3">
+        <v>54097600</v>
+      </c>
+      <c r="K61" s="3">
         <v>140870100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41046500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>129673800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41008700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>126560500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41101900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>138392200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>41775900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6835000</v>
+        <v>7706600</v>
       </c>
       <c r="E62" s="3">
-        <v>7896100</v>
+        <v>7299700</v>
       </c>
       <c r="F62" s="3">
-        <v>11142500</v>
+        <v>8432900</v>
       </c>
       <c r="G62" s="3">
-        <v>14268100</v>
+        <v>11900000</v>
       </c>
       <c r="H62" s="3">
-        <v>15751200</v>
+        <v>15238100</v>
       </c>
       <c r="I62" s="3">
-        <v>17960800</v>
+        <v>16822000</v>
       </c>
       <c r="J62" s="3">
+        <v>19181900</v>
+      </c>
+      <c r="K62" s="3">
         <v>12837100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11585000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9003600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8863700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8078300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7775400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13029300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12610200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1600620500</v>
+        <v>1647440200</v>
       </c>
       <c r="E66" s="3">
-        <v>1431878700</v>
+        <v>1709438400</v>
       </c>
       <c r="F66" s="3">
-        <v>1492400200</v>
+        <v>1529224700</v>
       </c>
       <c r="G66" s="3">
-        <v>1468807200</v>
+        <v>1593860800</v>
       </c>
       <c r="H66" s="3">
-        <v>1441889200</v>
+        <v>1568663800</v>
       </c>
       <c r="I66" s="3">
-        <v>1382730100</v>
+        <v>1539915800</v>
       </c>
       <c r="J66" s="3">
+        <v>1476734700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35737800</v>
+        <v>36512600</v>
       </c>
       <c r="E72" s="3">
-        <v>36335900</v>
+        <v>38167500</v>
       </c>
       <c r="F72" s="3">
-        <v>35901700</v>
+        <v>38806200</v>
       </c>
       <c r="G72" s="3">
-        <v>35201700</v>
+        <v>38342500</v>
       </c>
       <c r="H72" s="3">
-        <v>36177500</v>
+        <v>37594900</v>
       </c>
       <c r="I72" s="3">
-        <v>35671400</v>
+        <v>38637100</v>
       </c>
       <c r="J72" s="3">
+        <v>38096500</v>
+      </c>
+      <c r="K72" s="3">
         <v>35056600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33541700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>34225200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>33549700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>34846900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69314700</v>
+        <v>71753500</v>
       </c>
       <c r="E76" s="3">
-        <v>70362500</v>
+        <v>74027100</v>
       </c>
       <c r="F76" s="3">
-        <v>70570700</v>
+        <v>75146100</v>
       </c>
       <c r="G76" s="3">
-        <v>69216100</v>
+        <v>75368500</v>
       </c>
       <c r="H76" s="3">
-        <v>68482900</v>
+        <v>73921800</v>
       </c>
       <c r="I76" s="3">
-        <v>67592400</v>
+        <v>73138700</v>
       </c>
       <c r="J76" s="3">
+        <v>72187700</v>
+      </c>
+      <c r="K76" s="3">
         <v>66621000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64737000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64672200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>65555600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67656000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67443900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>73011000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>72721100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-537200</v>
+        <v>-2259300</v>
       </c>
       <c r="E81" s="3">
-        <v>1277100</v>
+        <v>-573700</v>
       </c>
       <c r="F81" s="3">
-        <v>746500</v>
+        <v>1363900</v>
       </c>
       <c r="G81" s="3">
-        <v>1531800</v>
+        <v>797300</v>
       </c>
       <c r="H81" s="3">
-        <v>577100</v>
+        <v>1636000</v>
       </c>
       <c r="I81" s="3">
-        <v>1793200</v>
+        <v>616300</v>
       </c>
       <c r="J81" s="3">
+        <v>1915100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1239400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1957700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>821300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>885300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>939100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1740200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>727800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1452000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2849900</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2888600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2592900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>3122900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3043600</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3085000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2769200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>2468300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>2504300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>2301200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>2340600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>8329200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>3194300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>19855900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>64993300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>8895400</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>3411500</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>21205800</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>9214900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>22647400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-4388300</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3597500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4513500</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-2391800</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4686600</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3842100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4820300</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-4823600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2903000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-5422800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-5475600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-5151500</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3100400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5791500</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4620,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-975800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1042100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4632,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4644,19 +4877,22 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,90 +5047,96 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>169500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>2056800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-842900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-391500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>181000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2196600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-900200</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-953700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>2384000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>738800</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>796400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>887200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>262600</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>789000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>850500</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>947500</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>1513000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4905,54 +5153,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>4413800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>3144500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>13529300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>59388700</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>4713900</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3358300</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>14449100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>3766500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>16455100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>12814400</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>14022100</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>14026800</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12958400</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>14179800</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14184500</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>13909700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>11989100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>12963500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13604100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>14341600</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,61 +1089,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-883600</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-901400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-857600</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-893600</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-911500</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-867200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>-611600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>-534700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>-589000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-539700</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>-567000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8830300</v>
+        <v>619600</v>
       </c>
       <c r="E17" s="3">
-        <v>970000</v>
+        <v>8929600</v>
       </c>
       <c r="F17" s="3">
-        <v>8208100</v>
+        <v>980900</v>
       </c>
       <c r="G17" s="3">
-        <v>389200</v>
+        <v>8300400</v>
       </c>
       <c r="H17" s="3">
-        <v>8121800</v>
+        <v>393500</v>
       </c>
       <c r="I17" s="3">
-        <v>312300</v>
+        <v>8213100</v>
       </c>
       <c r="J17" s="3">
+        <v>315800</v>
+      </c>
+      <c r="K17" s="3">
         <v>8066200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>292400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5419700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>228400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8273600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>574500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8121000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>736000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10070100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>3984000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5814000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5905000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4028800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5879300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5971400</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>5843500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>6569300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>4689900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>5483200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>4271500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1300,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-4890100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2870900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2685200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4945100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2903200</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2715400</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2216800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5986700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>6304900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2241700</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6054000</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6375700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>6188900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>6010500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>5141000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>5429300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>5489900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-906100</v>
+        <v>1745300</v>
       </c>
       <c r="E23" s="3">
-        <v>-288600</v>
+        <v>-916300</v>
       </c>
       <c r="F23" s="3">
-        <v>2943100</v>
+        <v>-291900</v>
       </c>
       <c r="G23" s="3">
-        <v>1689200</v>
+        <v>2976100</v>
       </c>
       <c r="H23" s="3">
-        <v>3219900</v>
+        <v>1708200</v>
       </c>
       <c r="I23" s="3">
-        <v>1297600</v>
+        <v>3256100</v>
       </c>
       <c r="J23" s="3">
+        <v>1312200</v>
+      </c>
+      <c r="K23" s="3">
         <v>3419800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2149900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3542100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1508700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2636700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1742500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3128100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3149300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>723900</v>
+        <v>558600</v>
       </c>
       <c r="E24" s="3">
-        <v>-54400</v>
+        <v>732100</v>
       </c>
       <c r="F24" s="3">
-        <v>732200</v>
+        <v>-55000</v>
       </c>
       <c r="G24" s="3">
-        <v>460100</v>
+        <v>740400</v>
       </c>
       <c r="H24" s="3">
-        <v>763000</v>
+        <v>465300</v>
       </c>
       <c r="I24" s="3">
-        <v>301600</v>
+        <v>771500</v>
       </c>
       <c r="J24" s="3">
+        <v>305000</v>
+      </c>
+      <c r="K24" s="3">
         <v>637600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>597000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>840000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>406300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1141100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>515000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>775300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>456600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1124500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1630000</v>
+        <v>1186600</v>
       </c>
       <c r="E26" s="3">
-        <v>-234200</v>
+        <v>-1648400</v>
       </c>
       <c r="F26" s="3">
-        <v>2210800</v>
+        <v>-236800</v>
       </c>
       <c r="G26" s="3">
-        <v>1229000</v>
+        <v>2235700</v>
       </c>
       <c r="H26" s="3">
-        <v>2456900</v>
+        <v>1242900</v>
       </c>
       <c r="I26" s="3">
-        <v>996000</v>
+        <v>2484500</v>
       </c>
       <c r="J26" s="3">
+        <v>1007200</v>
+      </c>
+      <c r="K26" s="3">
         <v>2782200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1552900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2702200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1102400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1495600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1227500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2352800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1043500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2024800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2259300</v>
+        <v>879200</v>
       </c>
       <c r="E27" s="3">
-        <v>-573700</v>
+        <v>-2284700</v>
       </c>
       <c r="F27" s="3">
-        <v>1363900</v>
+        <v>-580200</v>
       </c>
       <c r="G27" s="3">
-        <v>797300</v>
+        <v>1379200</v>
       </c>
       <c r="H27" s="3">
-        <v>1636000</v>
+        <v>806200</v>
       </c>
       <c r="I27" s="3">
-        <v>616300</v>
+        <v>1654300</v>
       </c>
       <c r="J27" s="3">
+        <v>623200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1915100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1239400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1957700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>821300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>885300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>939100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1740200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>727800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1452000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>4890100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2870900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2685200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4945100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2903200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2715400</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>2423800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>3027200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>2053200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2355100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>1122200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2259300</v>
+        <v>879200</v>
       </c>
       <c r="E33" s="3">
-        <v>-573700</v>
+        <v>-2284700</v>
       </c>
       <c r="F33" s="3">
-        <v>1363900</v>
+        <v>-580200</v>
       </c>
       <c r="G33" s="3">
-        <v>797300</v>
+        <v>1379200</v>
       </c>
       <c r="H33" s="3">
-        <v>1636000</v>
+        <v>806200</v>
       </c>
       <c r="I33" s="3">
-        <v>616300</v>
+        <v>1654300</v>
       </c>
       <c r="J33" s="3">
+        <v>623200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1915100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1239400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1957700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>821300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>885300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>939100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1740200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>727800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1452000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2259300</v>
+        <v>879200</v>
       </c>
       <c r="E35" s="3">
-        <v>-573700</v>
+        <v>-2284700</v>
       </c>
       <c r="F35" s="3">
-        <v>1363900</v>
+        <v>-580200</v>
       </c>
       <c r="G35" s="3">
-        <v>797300</v>
+        <v>1379200</v>
       </c>
       <c r="H35" s="3">
-        <v>1636000</v>
+        <v>806200</v>
       </c>
       <c r="I35" s="3">
-        <v>616300</v>
+        <v>1654300</v>
       </c>
       <c r="J35" s="3">
+        <v>623200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1915100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1239400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1957700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>821300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>885300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>939100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1740200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>727800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1452000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,114 +2301,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>220030000</v>
+        <v>259974900</v>
       </c>
       <c r="E41" s="3">
-        <v>231416600</v>
+        <v>222504000</v>
       </c>
       <c r="F41" s="3">
-        <v>166172600</v>
+        <v>234018600</v>
       </c>
       <c r="G41" s="3">
-        <v>187435200</v>
+        <v>168041000</v>
       </c>
       <c r="H41" s="3">
-        <v>172296500</v>
+        <v>189542700</v>
       </c>
       <c r="I41" s="3">
-        <v>194976200</v>
+        <v>174233700</v>
       </c>
       <c r="J41" s="3">
+        <v>197168400</v>
+      </c>
+      <c r="K41" s="3">
         <v>164605300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>178050000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144180600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171178200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170037600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>183782000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>179666500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>204477700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>167576600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>569326200</v>
+        <v>43961500</v>
       </c>
       <c r="E42" s="3">
-        <v>39088900</v>
+        <v>575727500</v>
       </c>
       <c r="F42" s="3">
-        <v>536076100</v>
+        <v>39528400</v>
       </c>
       <c r="G42" s="3">
-        <v>40613700</v>
+        <v>542103500</v>
       </c>
       <c r="H42" s="3">
-        <v>582504900</v>
+        <v>41070300</v>
       </c>
       <c r="I42" s="3">
-        <v>31170600</v>
+        <v>589054300</v>
       </c>
       <c r="J42" s="3">
+        <v>31521100</v>
+      </c>
+      <c r="K42" s="3">
         <v>513271000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25238900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>488778000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25473600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>484036600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16268900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>595802500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19015700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>651761500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2467,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2635,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125400</v>
+        <v>119600</v>
       </c>
       <c r="E47" s="3">
-        <v>136000</v>
+        <v>126800</v>
       </c>
       <c r="F47" s="3">
-        <v>132500</v>
+        <v>137600</v>
       </c>
       <c r="G47" s="3">
-        <v>306400</v>
+        <v>134000</v>
       </c>
       <c r="H47" s="3">
-        <v>287400</v>
+        <v>309800</v>
       </c>
       <c r="I47" s="3">
-        <v>307600</v>
+        <v>290700</v>
       </c>
       <c r="J47" s="3">
+        <v>311000</v>
+      </c>
+      <c r="K47" s="3">
         <v>294500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>737700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>719200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>768600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>785400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>897600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>817900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1408600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1286500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35264600</v>
+        <v>35395600</v>
       </c>
       <c r="E48" s="3">
-        <v>35724800</v>
+        <v>35661100</v>
       </c>
       <c r="F48" s="3">
-        <v>33463100</v>
+        <v>36126400</v>
       </c>
       <c r="G48" s="3">
-        <v>35462200</v>
+        <v>33839300</v>
       </c>
       <c r="H48" s="3">
-        <v>31654400</v>
+        <v>35860900</v>
       </c>
       <c r="I48" s="3">
-        <v>34539500</v>
+        <v>32010300</v>
       </c>
       <c r="J48" s="3">
+        <v>34927800</v>
+      </c>
+      <c r="K48" s="3">
         <v>31643800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28864100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28039600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27120600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52821000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26030200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25510700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26176000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23553700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4784800</v>
+        <v>4839800</v>
       </c>
       <c r="E49" s="3">
-        <v>5591600</v>
+        <v>4838600</v>
       </c>
       <c r="F49" s="3">
-        <v>8268500</v>
+        <v>5654400</v>
       </c>
       <c r="G49" s="3">
-        <v>5550200</v>
+        <v>8361400</v>
       </c>
       <c r="H49" s="3">
-        <v>8132400</v>
+        <v>5612600</v>
       </c>
       <c r="I49" s="3">
-        <v>5396400</v>
+        <v>8223900</v>
       </c>
       <c r="J49" s="3">
+        <v>5457100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5502900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5385200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5351700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5490000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7786600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5497800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5452900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5282100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7338700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9674900</v>
+        <v>10331600</v>
       </c>
       <c r="E52" s="3">
-        <v>10933500</v>
+        <v>9783700</v>
       </c>
       <c r="F52" s="3">
-        <v>10939500</v>
+        <v>11056500</v>
       </c>
       <c r="G52" s="3">
-        <v>12504400</v>
+        <v>11062500</v>
       </c>
       <c r="H52" s="3">
-        <v>16223500</v>
+        <v>12645000</v>
       </c>
       <c r="I52" s="3">
-        <v>19921200</v>
+        <v>16405900</v>
       </c>
       <c r="J52" s="3">
+        <v>20145200</v>
+      </c>
+      <c r="K52" s="3">
         <v>22854800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11710700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10751600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6807600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7068500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6956300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7286200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12677100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12528100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1719193700</v>
+        <v>1761209500</v>
       </c>
       <c r="E54" s="3">
-        <v>1783465400</v>
+        <v>1738523600</v>
       </c>
       <c r="F54" s="3">
-        <v>1604370800</v>
+        <v>1803517900</v>
       </c>
       <c r="G54" s="3">
-        <v>1669229200</v>
+        <v>1622409600</v>
       </c>
       <c r="H54" s="3">
-        <v>1642585600</v>
+        <v>1687997300</v>
       </c>
       <c r="I54" s="3">
-        <v>1613054500</v>
+        <v>1661054100</v>
       </c>
       <c r="J54" s="3">
+        <v>1631191000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,61 +3129,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>24958000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>29112400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>30426600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25238600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>29439700</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>30768700</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>26338500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>24286700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>22786500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>37729200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>25001000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,61 +3239,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>1968300</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2796400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2607100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1990500</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2827800</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2636400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>2834200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>2290400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>2852100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2472900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>3005000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3351,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64754300</v>
+        <v>191704200</v>
       </c>
       <c r="E61" s="3">
-        <v>196385100</v>
+        <v>65482400</v>
       </c>
       <c r="F61" s="3">
-        <v>60018000</v>
+        <v>198593100</v>
       </c>
       <c r="G61" s="3">
-        <v>171364400</v>
+        <v>60692800</v>
       </c>
       <c r="H61" s="3">
-        <v>44206200</v>
+        <v>173291100</v>
       </c>
       <c r="I61" s="3">
-        <v>167020700</v>
+        <v>44703200</v>
       </c>
       <c r="J61" s="3">
+        <v>168898700</v>
+      </c>
+      <c r="K61" s="3">
         <v>54097600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>140870100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41046500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>129673800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41008700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>126560500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>41101900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>138392200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>41775900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7706600</v>
+        <v>7818400</v>
       </c>
       <c r="E62" s="3">
-        <v>7299700</v>
+        <v>7793200</v>
       </c>
       <c r="F62" s="3">
-        <v>8432900</v>
+        <v>7381800</v>
       </c>
       <c r="G62" s="3">
-        <v>11900000</v>
+        <v>8527700</v>
       </c>
       <c r="H62" s="3">
-        <v>15238100</v>
+        <v>12033800</v>
       </c>
       <c r="I62" s="3">
-        <v>16822000</v>
+        <v>15409400</v>
       </c>
       <c r="J62" s="3">
+        <v>17011200</v>
+      </c>
+      <c r="K62" s="3">
         <v>19181900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12837100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11585000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9003600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8863700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8078300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7775400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13029300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12610200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1647440200</v>
+        <v>1688728200</v>
       </c>
       <c r="E66" s="3">
-        <v>1709438400</v>
+        <v>1665963300</v>
       </c>
       <c r="F66" s="3">
-        <v>1529224700</v>
+        <v>1728658500</v>
       </c>
       <c r="G66" s="3">
-        <v>1593860800</v>
+        <v>1546418700</v>
       </c>
       <c r="H66" s="3">
-        <v>1568663800</v>
+        <v>1611781400</v>
       </c>
       <c r="I66" s="3">
-        <v>1539915800</v>
+        <v>1586301200</v>
       </c>
       <c r="J66" s="3">
+        <v>1557229900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36512600</v>
+        <v>37840600</v>
       </c>
       <c r="E72" s="3">
-        <v>38167500</v>
+        <v>36923100</v>
       </c>
       <c r="F72" s="3">
-        <v>38806200</v>
+        <v>38596600</v>
       </c>
       <c r="G72" s="3">
-        <v>38342500</v>
+        <v>39242500</v>
       </c>
       <c r="H72" s="3">
-        <v>37594900</v>
+        <v>38773600</v>
       </c>
       <c r="I72" s="3">
-        <v>38637100</v>
+        <v>38017600</v>
       </c>
       <c r="J72" s="3">
+        <v>39071500</v>
+      </c>
+      <c r="K72" s="3">
         <v>38096500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35056600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33541700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>34225200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>33549700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>34846900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71753500</v>
+        <v>72481300</v>
       </c>
       <c r="E76" s="3">
-        <v>74027100</v>
+        <v>72560300</v>
       </c>
       <c r="F76" s="3">
-        <v>75146100</v>
+        <v>74859400</v>
       </c>
       <c r="G76" s="3">
-        <v>75368500</v>
+        <v>75991000</v>
       </c>
       <c r="H76" s="3">
-        <v>73921800</v>
+        <v>76215900</v>
       </c>
       <c r="I76" s="3">
-        <v>73138700</v>
+        <v>74752900</v>
       </c>
       <c r="J76" s="3">
+        <v>73961000</v>
+      </c>
+      <c r="K76" s="3">
         <v>72187700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66621000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64737000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64672200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>65555600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67656000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>67443900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>73011000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>72721100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2259300</v>
+        <v>879200</v>
       </c>
       <c r="E81" s="3">
-        <v>-573700</v>
+        <v>-2284700</v>
       </c>
       <c r="F81" s="3">
-        <v>1363900</v>
+        <v>-580200</v>
       </c>
       <c r="G81" s="3">
-        <v>797300</v>
+        <v>1379200</v>
       </c>
       <c r="H81" s="3">
-        <v>1636000</v>
+        <v>806200</v>
       </c>
       <c r="I81" s="3">
-        <v>616300</v>
+        <v>1654300</v>
       </c>
       <c r="J81" s="3">
+        <v>623200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1915100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1239400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1957700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>821300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>885300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>939100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1740200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>727800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1452000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3122900</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3043600</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3085000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3158000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3077800</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3119700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>2769200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>2468300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>2504300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2301200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>2340600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>64993300</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3">
-        <v>8895400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3">
-        <v>3411500</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>65724000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>8995400</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3449800</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>21205800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>9214900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>22647400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-2391800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4686600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3842100</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2418700</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4739300</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3885300</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-5475600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-5151500</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-3100400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5537200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-5209500</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3135200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4856,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1042100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1053900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4868,11 +5101,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4880,19 +5113,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,96 +5292,102 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-391500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3">
-        <v>181000</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>2196600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>183000</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2221300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-900200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-953700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>2384000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>262600</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3">
-        <v>789000</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3">
-        <v>850500</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
+        <v>265600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
+        <v>797900</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3">
+        <v>860100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>947500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>1513000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5156,57 +5404,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>59388700</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3">
-        <v>4713900</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3">
-        <v>3358300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>60056400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>4766900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3">
+        <v>3396000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>14449100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>3766500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>16455100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>12958400</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>14179800</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>14184500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>11632200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12743900</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>13945000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13949800</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>13909700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>11989100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>12963500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>13604100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>14341600</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,64 +1111,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-893600</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-911500</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-867200</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>-1008200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-878800</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-896400</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-852900</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>-611600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>-534700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>-589000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>-539700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>-567000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>619600</v>
+        <v>7163100</v>
       </c>
       <c r="E17" s="3">
-        <v>8929600</v>
+        <v>609400</v>
       </c>
       <c r="F17" s="3">
-        <v>980900</v>
+        <v>8781800</v>
       </c>
       <c r="G17" s="3">
-        <v>8300400</v>
+        <v>964600</v>
       </c>
       <c r="H17" s="3">
-        <v>393500</v>
+        <v>8163000</v>
       </c>
       <c r="I17" s="3">
-        <v>8213100</v>
+        <v>387000</v>
       </c>
       <c r="J17" s="3">
+        <v>8077200</v>
+      </c>
+      <c r="K17" s="3">
         <v>315800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8066200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>292400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5419700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>228400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8273600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>574500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8121000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>736000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10070100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4028800</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5879300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5971400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>4469100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3962100</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5782000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5872600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>5843500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>6569300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>4689900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>5483200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>4271500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,120 +1333,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-4945100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2903200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2715400</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-1921100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4863200</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2855100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2670400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2241700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>6054000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6375700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>5633800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2204600</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5953800</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6270200</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>6188900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>6010500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>5141000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>5429300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>5489900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1745300</v>
+        <v>2548100</v>
       </c>
       <c r="E23" s="3">
-        <v>-916300</v>
+        <v>1716400</v>
       </c>
       <c r="F23" s="3">
-        <v>-291900</v>
+        <v>-901100</v>
       </c>
       <c r="G23" s="3">
-        <v>2976100</v>
+        <v>-287000</v>
       </c>
       <c r="H23" s="3">
-        <v>1708200</v>
+        <v>2926900</v>
       </c>
       <c r="I23" s="3">
-        <v>3256100</v>
+        <v>1679900</v>
       </c>
       <c r="J23" s="3">
+        <v>3202200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1312200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3419800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2149900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3542100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1508700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2636700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1742500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3128100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3149300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>558600</v>
+        <v>696400</v>
       </c>
       <c r="E24" s="3">
-        <v>732100</v>
+        <v>549400</v>
       </c>
       <c r="F24" s="3">
-        <v>-55000</v>
+        <v>720000</v>
       </c>
       <c r="G24" s="3">
-        <v>740400</v>
+        <v>-54100</v>
       </c>
       <c r="H24" s="3">
-        <v>465300</v>
+        <v>728200</v>
       </c>
       <c r="I24" s="3">
-        <v>771500</v>
+        <v>457600</v>
       </c>
       <c r="J24" s="3">
+        <v>758800</v>
+      </c>
+      <c r="K24" s="3">
         <v>305000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>637600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>597000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>840000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>406300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1141100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>515000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>775300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>456600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1124500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1186600</v>
+        <v>1851700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1648400</v>
+        <v>1167000</v>
       </c>
       <c r="F26" s="3">
-        <v>-236800</v>
+        <v>-1621100</v>
       </c>
       <c r="G26" s="3">
-        <v>2235700</v>
+        <v>-232900</v>
       </c>
       <c r="H26" s="3">
-        <v>1242900</v>
+        <v>2198700</v>
       </c>
       <c r="I26" s="3">
-        <v>2484500</v>
+        <v>1222300</v>
       </c>
       <c r="J26" s="3">
+        <v>2443400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1007200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2782200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1552900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2702200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1102400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1495600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1227500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2352800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1043500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2024800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>879200</v>
+        <v>1224600</v>
       </c>
       <c r="E27" s="3">
-        <v>-2284700</v>
+        <v>864700</v>
       </c>
       <c r="F27" s="3">
-        <v>-580200</v>
+        <v>-2246900</v>
       </c>
       <c r="G27" s="3">
-        <v>1379200</v>
+        <v>-570600</v>
       </c>
       <c r="H27" s="3">
-        <v>806200</v>
+        <v>1356400</v>
       </c>
       <c r="I27" s="3">
-        <v>1654300</v>
+        <v>792900</v>
       </c>
       <c r="J27" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="K27" s="3">
         <v>623200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1915100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1239400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1957700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>821300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>885300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>939100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1740200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>727800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1452000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4945100</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2903200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2715400</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>1921100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4863200</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2855100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2670400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>2423800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>3027200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>2053200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>2355100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>1122200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>879200</v>
+        <v>1224600</v>
       </c>
       <c r="E33" s="3">
-        <v>-2284700</v>
+        <v>864700</v>
       </c>
       <c r="F33" s="3">
-        <v>-580200</v>
+        <v>-2246900</v>
       </c>
       <c r="G33" s="3">
-        <v>1379200</v>
+        <v>-570600</v>
       </c>
       <c r="H33" s="3">
-        <v>806200</v>
+        <v>1356400</v>
       </c>
       <c r="I33" s="3">
-        <v>1654300</v>
+        <v>792900</v>
       </c>
       <c r="J33" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="K33" s="3">
         <v>623200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1915100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1239400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1957700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>821300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>885300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>939100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1740200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>727800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1452000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>879200</v>
+        <v>1224600</v>
       </c>
       <c r="E35" s="3">
-        <v>-2284700</v>
+        <v>864700</v>
       </c>
       <c r="F35" s="3">
-        <v>-580200</v>
+        <v>-2246900</v>
       </c>
       <c r="G35" s="3">
-        <v>1379200</v>
+        <v>-570600</v>
       </c>
       <c r="H35" s="3">
-        <v>806200</v>
+        <v>1356400</v>
       </c>
       <c r="I35" s="3">
-        <v>1654300</v>
+        <v>792900</v>
       </c>
       <c r="J35" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="K35" s="3">
         <v>623200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1915100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1239400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1957700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>821300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>885300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>939100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1740200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>727800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1452000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,120 +2387,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>259974900</v>
+        <v>247342800</v>
       </c>
       <c r="E41" s="3">
-        <v>222504000</v>
+        <v>255671700</v>
       </c>
       <c r="F41" s="3">
-        <v>234018600</v>
+        <v>218821000</v>
       </c>
       <c r="G41" s="3">
-        <v>168041000</v>
+        <v>230145000</v>
       </c>
       <c r="H41" s="3">
-        <v>189542700</v>
+        <v>165259500</v>
       </c>
       <c r="I41" s="3">
-        <v>174233700</v>
+        <v>186405300</v>
       </c>
       <c r="J41" s="3">
+        <v>171349700</v>
+      </c>
+      <c r="K41" s="3">
         <v>197168400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>164605300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>178050000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144180600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>171178200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>170037600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>183782000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>179666500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>204477700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>167576600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43961500</v>
+        <v>571651600</v>
       </c>
       <c r="E42" s="3">
-        <v>575727500</v>
+        <v>43233900</v>
       </c>
       <c r="F42" s="3">
-        <v>39528400</v>
+        <v>566197800</v>
       </c>
       <c r="G42" s="3">
-        <v>542103500</v>
+        <v>38874100</v>
       </c>
       <c r="H42" s="3">
-        <v>41070300</v>
+        <v>533130400</v>
       </c>
       <c r="I42" s="3">
-        <v>589054300</v>
+        <v>40390500</v>
       </c>
       <c r="J42" s="3">
+        <v>579304100</v>
+      </c>
+      <c r="K42" s="3">
         <v>31521100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>513271000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25238900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>488778000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25473600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>484036600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16268900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>595802500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19015700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>651761500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,8 +2562,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,176 +2739,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>119600</v>
+        <v>117600</v>
       </c>
       <c r="E47" s="3">
-        <v>126800</v>
+        <v>117600</v>
       </c>
       <c r="F47" s="3">
-        <v>137600</v>
+        <v>124700</v>
       </c>
       <c r="G47" s="3">
-        <v>134000</v>
+        <v>135300</v>
       </c>
       <c r="H47" s="3">
-        <v>309800</v>
+        <v>131800</v>
       </c>
       <c r="I47" s="3">
-        <v>290700</v>
+        <v>304700</v>
       </c>
       <c r="J47" s="3">
+        <v>285900</v>
+      </c>
+      <c r="K47" s="3">
         <v>311000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>294500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>737700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>719200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>768600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>785400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>897600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>817900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1408600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1286500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35395600</v>
+        <v>35395500</v>
       </c>
       <c r="E48" s="3">
-        <v>35661100</v>
+        <v>34809700</v>
       </c>
       <c r="F48" s="3">
-        <v>36126400</v>
+        <v>35070800</v>
       </c>
       <c r="G48" s="3">
-        <v>33839300</v>
+        <v>35528500</v>
       </c>
       <c r="H48" s="3">
-        <v>35860900</v>
+        <v>33279200</v>
       </c>
       <c r="I48" s="3">
-        <v>32010300</v>
+        <v>35267300</v>
       </c>
       <c r="J48" s="3">
+        <v>31480500</v>
+      </c>
+      <c r="K48" s="3">
         <v>34927800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31643800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28864100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28039600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27120600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52821000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26030200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25510700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26176000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23553700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4839800</v>
+        <v>4757400</v>
       </c>
       <c r="E49" s="3">
-        <v>4838600</v>
+        <v>4759700</v>
       </c>
       <c r="F49" s="3">
-        <v>5654400</v>
+        <v>4758500</v>
       </c>
       <c r="G49" s="3">
-        <v>8361400</v>
+        <v>5560800</v>
       </c>
       <c r="H49" s="3">
-        <v>5612600</v>
+        <v>8223000</v>
       </c>
       <c r="I49" s="3">
-        <v>8223900</v>
+        <v>5519700</v>
       </c>
       <c r="J49" s="3">
+        <v>8087800</v>
+      </c>
+      <c r="K49" s="3">
         <v>5457100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5502900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5385200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5351700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5490000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7786600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5497800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5452900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5282100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7338700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10331600</v>
+        <v>4837400</v>
       </c>
       <c r="E52" s="3">
-        <v>9783700</v>
+        <v>10160600</v>
       </c>
       <c r="F52" s="3">
-        <v>11056500</v>
+        <v>9621800</v>
       </c>
       <c r="G52" s="3">
-        <v>11062500</v>
+        <v>10873500</v>
       </c>
       <c r="H52" s="3">
-        <v>12645000</v>
+        <v>10879300</v>
       </c>
       <c r="I52" s="3">
-        <v>16405900</v>
+        <v>12435700</v>
       </c>
       <c r="J52" s="3">
+        <v>16134300</v>
+      </c>
+      <c r="K52" s="3">
         <v>20145200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22854800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11710700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10751600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6807600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7068500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6956300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7286200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12677100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12528100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1761209500</v>
+        <v>1719840300</v>
       </c>
       <c r="E54" s="3">
-        <v>1738523600</v>
+        <v>1732057200</v>
       </c>
       <c r="F54" s="3">
-        <v>1803517900</v>
+        <v>1709746800</v>
       </c>
       <c r="G54" s="3">
-        <v>1622409600</v>
+        <v>1773665300</v>
       </c>
       <c r="H54" s="3">
-        <v>1687997300</v>
+        <v>1595554800</v>
       </c>
       <c r="I54" s="3">
-        <v>1661054100</v>
+        <v>1660056900</v>
       </c>
       <c r="J54" s="3">
+        <v>1633559600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,64 +3259,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>25238600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>29439700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>30768700</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>22748000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>24820900</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>28952400</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>30259400</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>26338500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>24286700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>22786500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>37729200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>25001000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3242,64 +3375,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1990500</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2827800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2636400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>2378700</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1957500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2781000</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2592800</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>2834200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>2290400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>2852100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>2472900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>3005000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>191704200</v>
+        <v>64444400</v>
       </c>
       <c r="E61" s="3">
-        <v>65482400</v>
+        <v>188531000</v>
       </c>
       <c r="F61" s="3">
-        <v>198593100</v>
+        <v>64398500</v>
       </c>
       <c r="G61" s="3">
-        <v>60692800</v>
+        <v>195305900</v>
       </c>
       <c r="H61" s="3">
-        <v>173291100</v>
+        <v>59688200</v>
       </c>
       <c r="I61" s="3">
-        <v>44703200</v>
+        <v>170422700</v>
       </c>
       <c r="J61" s="3">
+        <v>43963200</v>
+      </c>
+      <c r="K61" s="3">
         <v>168898700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54097600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>140870100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41046500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>129673800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41008700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>126560500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>41101900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>138392200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>41775900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7818400</v>
+        <v>7056000</v>
       </c>
       <c r="E62" s="3">
-        <v>7793200</v>
+        <v>7689000</v>
       </c>
       <c r="F62" s="3">
-        <v>7381800</v>
+        <v>7664200</v>
       </c>
       <c r="G62" s="3">
-        <v>8527700</v>
+        <v>7259600</v>
       </c>
       <c r="H62" s="3">
-        <v>12033800</v>
+        <v>8386600</v>
       </c>
       <c r="I62" s="3">
-        <v>15409400</v>
+        <v>11834600</v>
       </c>
       <c r="J62" s="3">
+        <v>15154400</v>
+      </c>
+      <c r="K62" s="3">
         <v>17011200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19181900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12837100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11585000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9003600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8863700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8078300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7775400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13029300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12610200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1688728200</v>
+        <v>1647275300</v>
       </c>
       <c r="E66" s="3">
-        <v>1665963300</v>
+        <v>1660775600</v>
       </c>
       <c r="F66" s="3">
-        <v>1728658500</v>
+        <v>1638387600</v>
       </c>
       <c r="G66" s="3">
-        <v>1546418700</v>
+        <v>1700045100</v>
       </c>
       <c r="H66" s="3">
-        <v>1611781400</v>
+        <v>1520821700</v>
       </c>
       <c r="I66" s="3">
-        <v>1586301200</v>
+        <v>1585102500</v>
       </c>
       <c r="J66" s="3">
+        <v>1560044000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37840600</v>
+        <v>37430700</v>
       </c>
       <c r="E72" s="3">
-        <v>36923100</v>
+        <v>37214200</v>
       </c>
       <c r="F72" s="3">
-        <v>38596600</v>
+        <v>36311900</v>
       </c>
       <c r="G72" s="3">
-        <v>39242500</v>
+        <v>37957700</v>
       </c>
       <c r="H72" s="3">
-        <v>38773600</v>
+        <v>38593000</v>
       </c>
       <c r="I72" s="3">
-        <v>38017600</v>
+        <v>38131800</v>
       </c>
       <c r="J72" s="3">
+        <v>37388300</v>
+      </c>
+      <c r="K72" s="3">
         <v>39071500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38096500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35056600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33541700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>34225200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>33549700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>34846900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72481300</v>
+        <v>72565100</v>
       </c>
       <c r="E76" s="3">
-        <v>72560300</v>
+        <v>71281600</v>
       </c>
       <c r="F76" s="3">
-        <v>74859400</v>
+        <v>71359200</v>
       </c>
       <c r="G76" s="3">
-        <v>75991000</v>
+        <v>73620300</v>
       </c>
       <c r="H76" s="3">
-        <v>76215900</v>
+        <v>74733200</v>
       </c>
       <c r="I76" s="3">
-        <v>74752900</v>
+        <v>74954300</v>
       </c>
       <c r="J76" s="3">
+        <v>73515600</v>
+      </c>
+      <c r="K76" s="3">
         <v>73961000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72187700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66621000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64737000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64672200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>65555600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>67656000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67443900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>73011000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>72721100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>879200</v>
+        <v>1224600</v>
       </c>
       <c r="E81" s="3">
-        <v>-2284700</v>
+        <v>864700</v>
       </c>
       <c r="F81" s="3">
-        <v>-580200</v>
+        <v>-2246900</v>
       </c>
       <c r="G81" s="3">
-        <v>1379200</v>
+        <v>-570600</v>
       </c>
       <c r="H81" s="3">
-        <v>806200</v>
+        <v>1356400</v>
       </c>
       <c r="I81" s="3">
-        <v>1654300</v>
+        <v>792900</v>
       </c>
       <c r="J81" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="K81" s="3">
         <v>623200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1915100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1239400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1957700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>821300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>885300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>939100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1740200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>727800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1452000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3158000</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3077800</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3119700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>3085700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3105700</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3026900</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3068100</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>2769200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>2468300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>2504300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>2301200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>2340600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>65724000</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>8995400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>3449800</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>30406400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>64636100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>8846500</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3392700</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>21205800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>9214900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>22647400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-2418700</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4739300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3885300</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-4195000</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2378700</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4660900</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3820900</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-5537200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-5209500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-3135200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-2628100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-5445600</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-5123200</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3083300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1053900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1036400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5104,11 +5337,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5116,19 +5349,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,102 +5537,108 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-395900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>183000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2221300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>2898600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-389400</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>180000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2184600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>-900200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-953700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>2384000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>265600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>797900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>860100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-3315100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>261200</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>784700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>845800</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>947500</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>1513000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5407,60 +5655,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>60056400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>4766900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>3396000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>27361900</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>59062300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>4688000</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3339800</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>14449100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>3766500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>16455100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>11632200</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12743900</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>13945000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12112700</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>13270300</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14521000</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>13949800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>13909700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>11989100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>12963500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>13604100</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>14341600</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,67 +1133,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1008200</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-878800</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-896400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1049800</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-915100</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-933400</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>-852900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>-611600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>-534700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-589000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>-539700</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>-567000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7163100</v>
+        <v>338100</v>
       </c>
       <c r="E17" s="3">
-        <v>609400</v>
+        <v>7459000</v>
       </c>
       <c r="F17" s="3">
-        <v>8781800</v>
+        <v>634500</v>
       </c>
       <c r="G17" s="3">
-        <v>964600</v>
+        <v>9144600</v>
       </c>
       <c r="H17" s="3">
-        <v>8163000</v>
+        <v>1004500</v>
       </c>
       <c r="I17" s="3">
-        <v>387000</v>
+        <v>8500200</v>
       </c>
       <c r="J17" s="3">
+        <v>403000</v>
+      </c>
+      <c r="K17" s="3">
         <v>8077200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>315800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8066200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>292400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5419700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>228400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8273600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>574500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8121000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>736000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10070100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>4469100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3962100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5782000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4653700</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4125800</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6020800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>5872600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>5843500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>6569300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>4689900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>5483200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>4271500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1921100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4863200</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2855100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2000400</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-5064100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2973100</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>5633800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2204600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5953800</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5866500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2295600</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6199700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>6270200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>6188900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>6010500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>5141000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>5429300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>5489900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2548100</v>
+        <v>1506700</v>
       </c>
       <c r="E23" s="3">
-        <v>1716400</v>
+        <v>2653300</v>
       </c>
       <c r="F23" s="3">
-        <v>-901100</v>
+        <v>1787300</v>
       </c>
       <c r="G23" s="3">
-        <v>-287000</v>
+        <v>-938300</v>
       </c>
       <c r="H23" s="3">
-        <v>2926900</v>
+        <v>-298900</v>
       </c>
       <c r="I23" s="3">
-        <v>1679900</v>
+        <v>3047800</v>
       </c>
       <c r="J23" s="3">
+        <v>1749300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3202200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1312200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3419800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2149900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3542100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1508700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2636700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1742500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3128100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3149300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>696400</v>
+        <v>346700</v>
       </c>
       <c r="E24" s="3">
-        <v>549400</v>
+        <v>725200</v>
       </c>
       <c r="F24" s="3">
-        <v>720000</v>
+        <v>572100</v>
       </c>
       <c r="G24" s="3">
-        <v>-54100</v>
+        <v>749700</v>
       </c>
       <c r="H24" s="3">
-        <v>728200</v>
+        <v>-56300</v>
       </c>
       <c r="I24" s="3">
-        <v>457600</v>
+        <v>758300</v>
       </c>
       <c r="J24" s="3">
+        <v>476500</v>
+      </c>
+      <c r="K24" s="3">
         <v>758800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>305000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>637600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>597000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>840000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>406300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1141100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>515000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>775300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>456600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1124500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1851700</v>
+        <v>1160100</v>
       </c>
       <c r="E26" s="3">
-        <v>1167000</v>
+        <v>1928100</v>
       </c>
       <c r="F26" s="3">
-        <v>-1621100</v>
+        <v>1215200</v>
       </c>
       <c r="G26" s="3">
-        <v>-232900</v>
+        <v>-1688000</v>
       </c>
       <c r="H26" s="3">
-        <v>2198700</v>
+        <v>-242500</v>
       </c>
       <c r="I26" s="3">
-        <v>1222300</v>
+        <v>2289500</v>
       </c>
       <c r="J26" s="3">
+        <v>1272800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2443400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1007200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2782200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1552900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2702200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1102400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1495600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1227500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2352800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1043500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2024800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1224600</v>
+        <v>820700</v>
       </c>
       <c r="E27" s="3">
-        <v>864700</v>
+        <v>1275200</v>
       </c>
       <c r="F27" s="3">
-        <v>-2246900</v>
+        <v>900400</v>
       </c>
       <c r="G27" s="3">
-        <v>-570600</v>
+        <v>-2339700</v>
       </c>
       <c r="H27" s="3">
-        <v>1356400</v>
+        <v>-594100</v>
       </c>
       <c r="I27" s="3">
-        <v>792900</v>
+        <v>1412400</v>
       </c>
       <c r="J27" s="3">
+        <v>825600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1627000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>623200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1915100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1239400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1957700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>821300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>885300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>939100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1740200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>727800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1452000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>1921100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4863200</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2855100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2000400</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5064100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2973100</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>2670400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>2423800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>3027200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2053200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>2355100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>1122200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1224600</v>
+        <v>820700</v>
       </c>
       <c r="E33" s="3">
-        <v>864700</v>
+        <v>1275200</v>
       </c>
       <c r="F33" s="3">
-        <v>-2246900</v>
+        <v>900400</v>
       </c>
       <c r="G33" s="3">
-        <v>-570600</v>
+        <v>-2339700</v>
       </c>
       <c r="H33" s="3">
-        <v>1356400</v>
+        <v>-594100</v>
       </c>
       <c r="I33" s="3">
-        <v>792900</v>
+        <v>1412400</v>
       </c>
       <c r="J33" s="3">
+        <v>825600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1627000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>623200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1915100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1239400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1957700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>821300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>885300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>939100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1740200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>727800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1452000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1224600</v>
+        <v>820700</v>
       </c>
       <c r="E35" s="3">
-        <v>864700</v>
+        <v>1275200</v>
       </c>
       <c r="F35" s="3">
-        <v>-2246900</v>
+        <v>900400</v>
       </c>
       <c r="G35" s="3">
-        <v>-570600</v>
+        <v>-2339700</v>
       </c>
       <c r="H35" s="3">
-        <v>1356400</v>
+        <v>-594100</v>
       </c>
       <c r="I35" s="3">
-        <v>792900</v>
+        <v>1412400</v>
       </c>
       <c r="J35" s="3">
+        <v>825600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1627000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>623200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1915100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1239400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1957700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>821300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>885300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>939100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1740200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>727800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1452000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,126 +2473,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>247342800</v>
+        <v>295008200</v>
       </c>
       <c r="E41" s="3">
-        <v>255671700</v>
+        <v>257559000</v>
       </c>
       <c r="F41" s="3">
-        <v>218821000</v>
+        <v>266232000</v>
       </c>
       <c r="G41" s="3">
-        <v>230145000</v>
+        <v>227859200</v>
       </c>
       <c r="H41" s="3">
-        <v>165259500</v>
+        <v>239650900</v>
       </c>
       <c r="I41" s="3">
-        <v>186405300</v>
+        <v>172085400</v>
       </c>
       <c r="J41" s="3">
+        <v>194104600</v>
+      </c>
+      <c r="K41" s="3">
         <v>171349700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>197168400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>164605300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>178050000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144180600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>171178200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>170037600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>183782000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>179666500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>204477700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>167576600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>571651600</v>
+        <v>40112300</v>
       </c>
       <c r="E42" s="3">
-        <v>43233900</v>
+        <v>595263100</v>
       </c>
       <c r="F42" s="3">
-        <v>566197800</v>
+        <v>45019600</v>
       </c>
       <c r="G42" s="3">
-        <v>38874100</v>
+        <v>589584000</v>
       </c>
       <c r="H42" s="3">
-        <v>533130400</v>
+        <v>40479800</v>
       </c>
       <c r="I42" s="3">
-        <v>40390500</v>
+        <v>555150800</v>
       </c>
       <c r="J42" s="3">
+        <v>42058800</v>
+      </c>
+      <c r="K42" s="3">
         <v>579304100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31521100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>513271000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25238900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>488778000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25473600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>484036600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16268900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>595802500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19015700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>651761500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,185 +2843,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>117600</v>
+        <v>126200</v>
       </c>
       <c r="E47" s="3">
-        <v>117600</v>
+        <v>122500</v>
       </c>
       <c r="F47" s="3">
-        <v>124700</v>
+        <v>122500</v>
       </c>
       <c r="G47" s="3">
-        <v>135300</v>
+        <v>129800</v>
       </c>
       <c r="H47" s="3">
-        <v>131800</v>
+        <v>140900</v>
       </c>
       <c r="I47" s="3">
-        <v>304700</v>
+        <v>137200</v>
       </c>
       <c r="J47" s="3">
+        <v>317300</v>
+      </c>
+      <c r="K47" s="3">
         <v>285900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>311000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>294500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>737700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>719200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>768600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>785400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>897600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>817900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1408600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1286500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35395500</v>
+        <v>37199300</v>
       </c>
       <c r="E48" s="3">
-        <v>34809700</v>
+        <v>36857500</v>
       </c>
       <c r="F48" s="3">
-        <v>35070800</v>
+        <v>36247500</v>
       </c>
       <c r="G48" s="3">
-        <v>35528500</v>
+        <v>36519400</v>
       </c>
       <c r="H48" s="3">
-        <v>33279200</v>
+        <v>36995900</v>
       </c>
       <c r="I48" s="3">
-        <v>35267300</v>
+        <v>34653700</v>
       </c>
       <c r="J48" s="3">
+        <v>36724000</v>
+      </c>
+      <c r="K48" s="3">
         <v>31480500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34927800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31643800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28864100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28039600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27120600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52821000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26030200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25510700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26176000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23553700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4757400</v>
+        <v>4680700</v>
       </c>
       <c r="E49" s="3">
-        <v>4759700</v>
+        <v>4953900</v>
       </c>
       <c r="F49" s="3">
-        <v>4758500</v>
+        <v>4956300</v>
       </c>
       <c r="G49" s="3">
-        <v>5560800</v>
+        <v>4955100</v>
       </c>
       <c r="H49" s="3">
-        <v>8223000</v>
+        <v>5790500</v>
       </c>
       <c r="I49" s="3">
-        <v>5519700</v>
+        <v>8562700</v>
       </c>
       <c r="J49" s="3">
+        <v>5747700</v>
+      </c>
+      <c r="K49" s="3">
         <v>8087800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5457100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5502900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5385200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5351700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5490000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7786600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5497800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5452900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5282100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7338700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4837400</v>
+        <v>6829300</v>
       </c>
       <c r="E52" s="3">
-        <v>10160600</v>
+        <v>5037200</v>
       </c>
       <c r="F52" s="3">
-        <v>9621800</v>
+        <v>10580200</v>
       </c>
       <c r="G52" s="3">
-        <v>10873500</v>
+        <v>10019200</v>
       </c>
       <c r="H52" s="3">
-        <v>10879300</v>
+        <v>11322600</v>
       </c>
       <c r="I52" s="3">
-        <v>12435700</v>
+        <v>11328700</v>
       </c>
       <c r="J52" s="3">
+        <v>12949400</v>
+      </c>
+      <c r="K52" s="3">
         <v>16134300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20145200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22854800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11710700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10751600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6807600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7068500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6956300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7286200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12677100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12528100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1719840300</v>
+        <v>1841137900</v>
       </c>
       <c r="E54" s="3">
-        <v>1732057200</v>
+        <v>1790876600</v>
       </c>
       <c r="F54" s="3">
-        <v>1709746800</v>
+        <v>1803598100</v>
       </c>
       <c r="G54" s="3">
-        <v>1773665300</v>
+        <v>1780366200</v>
       </c>
       <c r="H54" s="3">
-        <v>1595554800</v>
+        <v>1846924800</v>
       </c>
       <c r="I54" s="3">
-        <v>1660056900</v>
+        <v>1661457600</v>
       </c>
       <c r="J54" s="3">
+        <v>1728623800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,67 +3389,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>22748000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>24820900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>28952400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23687600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>25846100</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>30148200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>30259400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>26338500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>24286700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>22786500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>37729200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>25001000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3378,67 +3511,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>2378700</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1957500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2781000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2476900</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2038400</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2895900</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>2592800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>2834200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>2290400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2852100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>2472900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>3005000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64444400</v>
+        <v>201151900</v>
       </c>
       <c r="E61" s="3">
-        <v>188531000</v>
+        <v>67106200</v>
       </c>
       <c r="F61" s="3">
-        <v>64398500</v>
+        <v>196318100</v>
       </c>
       <c r="G61" s="3">
-        <v>195305900</v>
+        <v>67058400</v>
       </c>
       <c r="H61" s="3">
-        <v>59688200</v>
+        <v>203372800</v>
       </c>
       <c r="I61" s="3">
-        <v>170422700</v>
+        <v>62153500</v>
       </c>
       <c r="J61" s="3">
+        <v>177461900</v>
+      </c>
+      <c r="K61" s="3">
         <v>43963200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>168898700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>54097600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>140870100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41046500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>129673800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>41008700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>126560500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>41101900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>138392200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>41775900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7056000</v>
+        <v>7532500</v>
       </c>
       <c r="E62" s="3">
-        <v>7689000</v>
+        <v>7347500</v>
       </c>
       <c r="F62" s="3">
-        <v>7664200</v>
+        <v>8006500</v>
       </c>
       <c r="G62" s="3">
-        <v>7259600</v>
+        <v>7980800</v>
       </c>
       <c r="H62" s="3">
-        <v>8386600</v>
+        <v>7559400</v>
       </c>
       <c r="I62" s="3">
-        <v>11834600</v>
+        <v>8733000</v>
       </c>
       <c r="J62" s="3">
+        <v>12323400</v>
+      </c>
+      <c r="K62" s="3">
         <v>15154400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17011200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19181900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12837100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11585000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9003600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8863700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8078300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7775400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13029300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12610200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1647275300</v>
+        <v>1764061500</v>
       </c>
       <c r="E66" s="3">
-        <v>1660775600</v>
+        <v>1715314300</v>
       </c>
       <c r="F66" s="3">
-        <v>1638387600</v>
+        <v>1729372300</v>
       </c>
       <c r="G66" s="3">
-        <v>1700045100</v>
+        <v>1706059500</v>
       </c>
       <c r="H66" s="3">
-        <v>1520821700</v>
+        <v>1770263700</v>
       </c>
       <c r="I66" s="3">
-        <v>1585102500</v>
+        <v>1583637700</v>
       </c>
       <c r="J66" s="3">
+        <v>1650573600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37430700</v>
+        <v>39763200</v>
       </c>
       <c r="E72" s="3">
-        <v>37214200</v>
+        <v>38976700</v>
       </c>
       <c r="F72" s="3">
-        <v>36311900</v>
+        <v>38751300</v>
       </c>
       <c r="G72" s="3">
-        <v>37957700</v>
+        <v>37811800</v>
       </c>
       <c r="H72" s="3">
-        <v>38593000</v>
+        <v>39525500</v>
       </c>
       <c r="I72" s="3">
-        <v>38131800</v>
+        <v>40187000</v>
       </c>
       <c r="J72" s="3">
+        <v>39706800</v>
+      </c>
+      <c r="K72" s="3">
         <v>37388300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39071500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38096500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35056600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33541700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>34225200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>33549700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>34846900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72565100</v>
+        <v>77076400</v>
       </c>
       <c r="E76" s="3">
-        <v>71281600</v>
+        <v>75562300</v>
       </c>
       <c r="F76" s="3">
-        <v>71359200</v>
+        <v>74225800</v>
       </c>
       <c r="G76" s="3">
-        <v>73620300</v>
+        <v>74306700</v>
       </c>
       <c r="H76" s="3">
-        <v>74733200</v>
+        <v>76661100</v>
       </c>
       <c r="I76" s="3">
-        <v>74954300</v>
+        <v>77819900</v>
       </c>
       <c r="J76" s="3">
+        <v>78050200</v>
+      </c>
+      <c r="K76" s="3">
         <v>73515600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73961000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72187700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66621000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64737000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64672200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>65555600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67656000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67443900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>73011000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>72721100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1224600</v>
+        <v>820700</v>
       </c>
       <c r="E81" s="3">
-        <v>864700</v>
+        <v>1275200</v>
       </c>
       <c r="F81" s="3">
-        <v>-2246900</v>
+        <v>900400</v>
       </c>
       <c r="G81" s="3">
-        <v>-570600</v>
+        <v>-2339700</v>
       </c>
       <c r="H81" s="3">
-        <v>1356400</v>
+        <v>-594100</v>
       </c>
       <c r="I81" s="3">
-        <v>792900</v>
+        <v>1412400</v>
       </c>
       <c r="J81" s="3">
+        <v>825600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1627000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>623200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1915100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1239400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1957700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>821300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>885300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>939100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1740200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>727800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1452000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3085700</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3105700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3026900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3213100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3234000</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3151900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>3068100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>2769200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>2468300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2504300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>2301200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>2340600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>30406400</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3">
-        <v>64636100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3">
-        <v>8846500</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>31662300</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>67305900</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
+        <v>9211900</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>3392700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>21205800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>9214900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>22647400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-4195000</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2378700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-4660900</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4368300</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2476900</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4853400</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2628100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-5445600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-5123200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2736600</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-5670500</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-5334800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5328,11 +5561,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5340,11 +5573,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5352,19 +5585,22 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,108 +5782,114 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>2898600</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-389400</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>180000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3018400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-405500</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>187400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>2184600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-900200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-953700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>2384000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-3315100</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3">
-        <v>261200</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3">
-        <v>784700</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3452000</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
+        <v>271900</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3">
+        <v>817100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>845800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>947500</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>1513000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5658,63 +5906,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>27361900</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3">
-        <v>59062300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3">
-        <v>4688000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>28492000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>61501800</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4881600</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>3339800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>14449100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>3766500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>16455100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>12112700</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>13270300</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>14521000</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>11377600</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11543400</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12646600</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13838500</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>13949800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>13909700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>11989100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>12963500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>13604100</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>14341600</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,70 +1155,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1049800</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-915100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-933400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>-928100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-1000500</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-872100</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-889600</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>-852900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>-611600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>-534700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>-589000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>-539700</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>-567000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>338100</v>
+        <v>6027300</v>
       </c>
       <c r="E17" s="3">
-        <v>7459000</v>
+        <v>322200</v>
       </c>
       <c r="F17" s="3">
-        <v>634500</v>
+        <v>7108400</v>
       </c>
       <c r="G17" s="3">
-        <v>9144600</v>
+        <v>604700</v>
       </c>
       <c r="H17" s="3">
-        <v>1004500</v>
+        <v>8714700</v>
       </c>
       <c r="I17" s="3">
-        <v>8500200</v>
+        <v>957300</v>
       </c>
       <c r="J17" s="3">
+        <v>8100700</v>
+      </c>
+      <c r="K17" s="3">
         <v>403000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8077200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>315800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8066200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>292400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5419700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>228400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8273600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>574500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8121000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>736000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10070100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4653700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4125800</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6020800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>5350200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4435000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3931800</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5737800</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>5872600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>5843500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>6569300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>4689900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>5483200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>4271500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,132 +1399,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2000400</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-5064100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2973100</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-1557300</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1906400</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-4826100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2833300</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5866500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2295600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6199700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>6888900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5590700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2187700</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5908300</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>6270200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>6188900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>6010500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>5141000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>5429300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>5489900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1506700</v>
+        <v>3792900</v>
       </c>
       <c r="E23" s="3">
-        <v>2653300</v>
+        <v>1435900</v>
       </c>
       <c r="F23" s="3">
-        <v>1787300</v>
+        <v>2528600</v>
       </c>
       <c r="G23" s="3">
-        <v>-938300</v>
+        <v>1703300</v>
       </c>
       <c r="H23" s="3">
-        <v>-298900</v>
+        <v>-894200</v>
       </c>
       <c r="I23" s="3">
-        <v>3047800</v>
+        <v>-284800</v>
       </c>
       <c r="J23" s="3">
+        <v>2904500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1749300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3202200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1312200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3419800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2149900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3542100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1508700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2636700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1742500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3128100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1500100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3149300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>346700</v>
+        <v>802000</v>
       </c>
       <c r="E24" s="3">
-        <v>725200</v>
+        <v>330400</v>
       </c>
       <c r="F24" s="3">
-        <v>572100</v>
+        <v>691100</v>
       </c>
       <c r="G24" s="3">
-        <v>749700</v>
+        <v>545200</v>
       </c>
       <c r="H24" s="3">
-        <v>-56300</v>
+        <v>714500</v>
       </c>
       <c r="I24" s="3">
-        <v>758300</v>
+        <v>-53700</v>
       </c>
       <c r="J24" s="3">
+        <v>722600</v>
+      </c>
+      <c r="K24" s="3">
         <v>476500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>758800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>305000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>637600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>597000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>840000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>406300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1141100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>515000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>775300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>456600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1124500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1160100</v>
+        <v>2990900</v>
       </c>
       <c r="E26" s="3">
-        <v>1928100</v>
+        <v>1105500</v>
       </c>
       <c r="F26" s="3">
-        <v>1215200</v>
+        <v>1837500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1688000</v>
+        <v>1158100</v>
       </c>
       <c r="H26" s="3">
-        <v>-242500</v>
+        <v>-1608700</v>
       </c>
       <c r="I26" s="3">
-        <v>2289500</v>
+        <v>-231100</v>
       </c>
       <c r="J26" s="3">
+        <v>2181900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1272800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2443400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1007200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2782200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1552900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2702200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1102400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1495600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1227500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2352800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1043500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2024800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>820700</v>
+        <v>2269400</v>
       </c>
       <c r="E27" s="3">
-        <v>1275200</v>
+        <v>782200</v>
       </c>
       <c r="F27" s="3">
-        <v>900400</v>
+        <v>1215300</v>
       </c>
       <c r="G27" s="3">
-        <v>-2339700</v>
+        <v>858000</v>
       </c>
       <c r="H27" s="3">
-        <v>-594100</v>
+        <v>-2229800</v>
       </c>
       <c r="I27" s="3">
-        <v>1412400</v>
+        <v>-566200</v>
       </c>
       <c r="J27" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="K27" s="3">
         <v>825600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1627000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>623200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1915100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1239400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1957700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>821300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>885300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>939100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1740200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>727800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1452000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2000400</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5064100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2973100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>1557300</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1906400</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4826100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2833300</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>2670400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>2423800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>3027200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>2053200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>2355100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>1122200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>820700</v>
+        <v>2269400</v>
       </c>
       <c r="E33" s="3">
-        <v>1275200</v>
+        <v>782200</v>
       </c>
       <c r="F33" s="3">
-        <v>900400</v>
+        <v>1215300</v>
       </c>
       <c r="G33" s="3">
-        <v>-2339700</v>
+        <v>858000</v>
       </c>
       <c r="H33" s="3">
-        <v>-594100</v>
+        <v>-2229800</v>
       </c>
       <c r="I33" s="3">
-        <v>1412400</v>
+        <v>-566200</v>
       </c>
       <c r="J33" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="K33" s="3">
         <v>825600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1627000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>623200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1915100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1239400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1957700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>821300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>885300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>939100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1740200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>727800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1452000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>820700</v>
+        <v>2269400</v>
       </c>
       <c r="E35" s="3">
-        <v>1275200</v>
+        <v>782200</v>
       </c>
       <c r="F35" s="3">
-        <v>900400</v>
+        <v>1215300</v>
       </c>
       <c r="G35" s="3">
-        <v>-2339700</v>
+        <v>858000</v>
       </c>
       <c r="H35" s="3">
-        <v>-594100</v>
+        <v>-2229800</v>
       </c>
       <c r="I35" s="3">
-        <v>1412400</v>
+        <v>-566200</v>
       </c>
       <c r="J35" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="K35" s="3">
         <v>825600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1627000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>623200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1915100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1239400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1957700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>821300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>885300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>939100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1740200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>727800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1452000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,132 +2559,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>295008200</v>
+        <v>240112900</v>
       </c>
       <c r="E41" s="3">
-        <v>257559000</v>
+        <v>281141500</v>
       </c>
       <c r="F41" s="3">
-        <v>266232000</v>
+        <v>245452600</v>
       </c>
       <c r="G41" s="3">
-        <v>227859200</v>
+        <v>253717900</v>
       </c>
       <c r="H41" s="3">
-        <v>239650900</v>
+        <v>217148800</v>
       </c>
       <c r="I41" s="3">
-        <v>172085400</v>
+        <v>228386300</v>
       </c>
       <c r="J41" s="3">
+        <v>163996600</v>
+      </c>
+      <c r="K41" s="3">
         <v>194104600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>171349700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>197168400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>164605300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>178050000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144180600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171178200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>170037600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>183782000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>179666500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>204477700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>167576600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40112300</v>
+        <v>585509800</v>
       </c>
       <c r="E42" s="3">
-        <v>595263100</v>
+        <v>38226800</v>
       </c>
       <c r="F42" s="3">
-        <v>45019600</v>
+        <v>567283000</v>
       </c>
       <c r="G42" s="3">
-        <v>589584000</v>
+        <v>42903500</v>
       </c>
       <c r="H42" s="3">
-        <v>40479800</v>
+        <v>561870900</v>
       </c>
       <c r="I42" s="3">
-        <v>555150800</v>
+        <v>38577100</v>
       </c>
       <c r="J42" s="3">
+        <v>529056200</v>
+      </c>
+      <c r="K42" s="3">
         <v>42058800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>579304100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31521100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>513271000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25238900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>488778000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25473600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>484036600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16268900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>595802500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19015700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>651761500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2752,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,194 +2947,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>126200</v>
+        <v>112100</v>
       </c>
       <c r="E47" s="3">
-        <v>122500</v>
+        <v>120200</v>
       </c>
       <c r="F47" s="3">
-        <v>122500</v>
+        <v>116700</v>
       </c>
       <c r="G47" s="3">
-        <v>129800</v>
+        <v>116700</v>
       </c>
       <c r="H47" s="3">
-        <v>140900</v>
+        <v>123700</v>
       </c>
       <c r="I47" s="3">
-        <v>137200</v>
+        <v>134300</v>
       </c>
       <c r="J47" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K47" s="3">
         <v>317300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>285900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>311000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>294500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>737700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>719200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>768600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>785400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>897600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>817900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1408600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1286500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37199300</v>
+        <v>35939900</v>
       </c>
       <c r="E48" s="3">
-        <v>36857500</v>
+        <v>35450700</v>
       </c>
       <c r="F48" s="3">
-        <v>36247500</v>
+        <v>35125000</v>
       </c>
       <c r="G48" s="3">
-        <v>36519400</v>
+        <v>34543700</v>
       </c>
       <c r="H48" s="3">
-        <v>36995900</v>
+        <v>34802800</v>
       </c>
       <c r="I48" s="3">
-        <v>34653700</v>
+        <v>35256900</v>
       </c>
       <c r="J48" s="3">
+        <v>33024900</v>
+      </c>
+      <c r="K48" s="3">
         <v>36724000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31480500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34927800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31643800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28864100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28039600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27120600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52821000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26030200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>25510700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>26176000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23553700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4680700</v>
+        <v>4460700</v>
       </c>
       <c r="E49" s="3">
-        <v>4953900</v>
+        <v>4460700</v>
       </c>
       <c r="F49" s="3">
-        <v>4956300</v>
+        <v>4721000</v>
       </c>
       <c r="G49" s="3">
-        <v>4955100</v>
+        <v>4723300</v>
       </c>
       <c r="H49" s="3">
-        <v>5790500</v>
+        <v>4722200</v>
       </c>
       <c r="I49" s="3">
-        <v>8562700</v>
+        <v>5518300</v>
       </c>
       <c r="J49" s="3">
+        <v>8160200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5747700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8087800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5457100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5502900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5385200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5351700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5490000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7786600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5497800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5452900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5282100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7338700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6829300</v>
+        <v>5099200</v>
       </c>
       <c r="E52" s="3">
-        <v>5037200</v>
+        <v>6508300</v>
       </c>
       <c r="F52" s="3">
-        <v>10580200</v>
+        <v>4800400</v>
       </c>
       <c r="G52" s="3">
-        <v>10019200</v>
+        <v>10082900</v>
       </c>
       <c r="H52" s="3">
-        <v>11322600</v>
+        <v>9548200</v>
       </c>
       <c r="I52" s="3">
-        <v>11328700</v>
+        <v>10790400</v>
       </c>
       <c r="J52" s="3">
+        <v>10796200</v>
+      </c>
+      <c r="K52" s="3">
         <v>12949400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16134300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20145200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22854800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11710700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10751600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6807600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7068500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6956300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7286200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12677100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12528100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1841137900</v>
+        <v>1742486700</v>
       </c>
       <c r="E54" s="3">
-        <v>1790876600</v>
+        <v>1754596200</v>
       </c>
       <c r="F54" s="3">
-        <v>1803598100</v>
+        <v>1706697400</v>
       </c>
       <c r="G54" s="3">
-        <v>1780366200</v>
+        <v>1718820900</v>
       </c>
       <c r="H54" s="3">
-        <v>1846924800</v>
+        <v>1696681000</v>
       </c>
       <c r="I54" s="3">
-        <v>1661457600</v>
+        <v>1760111100</v>
       </c>
       <c r="J54" s="3">
+        <v>1583361700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,70 +3519,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>23687600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>25846100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>30148200</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>23528000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>22503000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>24503900</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>25886100</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>30259400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>26338500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>24286700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>22786500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>37729200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>25001000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,70 +3647,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2476900</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2038400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2895900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>3318900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2360500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1942600</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2759800</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>2592800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>2834200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>2290400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>2852100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>2472900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>3005000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,132 +3777,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>201151900</v>
+        <v>58550300</v>
       </c>
       <c r="E61" s="3">
-        <v>67106200</v>
+        <v>191696900</v>
       </c>
       <c r="F61" s="3">
-        <v>196318100</v>
+        <v>63951900</v>
       </c>
       <c r="G61" s="3">
-        <v>67058400</v>
+        <v>187090300</v>
       </c>
       <c r="H61" s="3">
-        <v>203372800</v>
+        <v>63906400</v>
       </c>
       <c r="I61" s="3">
-        <v>62153500</v>
+        <v>193813400</v>
       </c>
       <c r="J61" s="3">
+        <v>61859900</v>
+      </c>
+      <c r="K61" s="3">
         <v>177461900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43963200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>168898700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>54097600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>140870100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41046500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>129673800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>41008700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>126560500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>41101900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>138392200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>41775900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7532500</v>
+        <v>6369400</v>
       </c>
       <c r="E62" s="3">
-        <v>7347500</v>
+        <v>7178400</v>
       </c>
       <c r="F62" s="3">
-        <v>8006500</v>
+        <v>7002100</v>
       </c>
       <c r="G62" s="3">
-        <v>7980800</v>
+        <v>7630200</v>
       </c>
       <c r="H62" s="3">
-        <v>7559400</v>
+        <v>7605700</v>
       </c>
       <c r="I62" s="3">
-        <v>8733000</v>
+        <v>7204100</v>
       </c>
       <c r="J62" s="3">
+        <v>8322500</v>
+      </c>
+      <c r="K62" s="3">
         <v>12323400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15154400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17011200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19181900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12837100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11585000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9003600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8863700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8078300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7775400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13029300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12610200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1764061500</v>
+        <v>1668781100</v>
       </c>
       <c r="E66" s="3">
-        <v>1715314300</v>
+        <v>1681142800</v>
       </c>
       <c r="F66" s="3">
-        <v>1729372300</v>
+        <v>1634686900</v>
       </c>
       <c r="G66" s="3">
-        <v>1706059500</v>
+        <v>1648084100</v>
       </c>
       <c r="H66" s="3">
-        <v>1770263700</v>
+        <v>1625867100</v>
       </c>
       <c r="I66" s="3">
-        <v>1583637700</v>
+        <v>1687053400</v>
       </c>
       <c r="J66" s="3">
+        <v>1509199600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39763200</v>
+        <v>38774400</v>
       </c>
       <c r="E72" s="3">
-        <v>38976700</v>
+        <v>37894100</v>
       </c>
       <c r="F72" s="3">
-        <v>38751300</v>
+        <v>37144700</v>
       </c>
       <c r="G72" s="3">
-        <v>37811800</v>
+        <v>36929800</v>
       </c>
       <c r="H72" s="3">
-        <v>39525500</v>
+        <v>36034400</v>
       </c>
       <c r="I72" s="3">
-        <v>40187000</v>
+        <v>37667700</v>
       </c>
       <c r="J72" s="3">
+        <v>38298100</v>
+      </c>
+      <c r="K72" s="3">
         <v>39706800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37388300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39071500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38096500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35056600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33541700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>34225200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>33549700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>34846900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77076400</v>
+        <v>73705600</v>
       </c>
       <c r="E76" s="3">
-        <v>75562300</v>
+        <v>73453400</v>
       </c>
       <c r="F76" s="3">
-        <v>74225800</v>
+        <v>72010500</v>
       </c>
       <c r="G76" s="3">
-        <v>74306700</v>
+        <v>70736900</v>
       </c>
       <c r="H76" s="3">
-        <v>76661100</v>
+        <v>70813900</v>
       </c>
       <c r="I76" s="3">
-        <v>77819900</v>
+        <v>73057700</v>
       </c>
       <c r="J76" s="3">
+        <v>74162100</v>
+      </c>
+      <c r="K76" s="3">
         <v>78050200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73515600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73961000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72187700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>66621000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64737000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>64672200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>65555600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67656000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67443900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73011000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>72721100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>820700</v>
+        <v>2269400</v>
       </c>
       <c r="E81" s="3">
-        <v>1275200</v>
+        <v>782200</v>
       </c>
       <c r="F81" s="3">
-        <v>900400</v>
+        <v>1215300</v>
       </c>
       <c r="G81" s="3">
-        <v>-2339700</v>
+        <v>858000</v>
       </c>
       <c r="H81" s="3">
-        <v>-594100</v>
+        <v>-2229800</v>
       </c>
       <c r="I81" s="3">
-        <v>1412400</v>
+        <v>-566200</v>
       </c>
       <c r="J81" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="K81" s="3">
         <v>825600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1627000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>623200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1915100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1239400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1957700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>821300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>885300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>939100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1740200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>727800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1452000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3213100</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3234000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3151900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>3096000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3062100</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3082000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3003700</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>3068100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>2769200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>2468300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>2504300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>2301200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>2340600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>31662300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>67305900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>9211900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>-4700000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>30174000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>64142200</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>8778900</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>3392700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>21205800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>9214900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>22647400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-4368300</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2476900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4853400</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-4015900</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4163000</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2360500</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4625300</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-2736600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-5670500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-5334800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-7448100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2608000</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-5403900</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5084100</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +5769,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5564,11 +5797,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5576,11 +5809,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5588,19 +5821,22 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,114 +6027,120 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>3018400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-405500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>187400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>407400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2876500</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-386400</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>178600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>2184600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-900200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-953700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>2384000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-3452000</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>271900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>817100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-3289800</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>259200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>778700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>845800</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>947500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>1513000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5909,66 +6157,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>28492000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>61501800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>4881600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-11849200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>27152800</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>58611000</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4652100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>3339800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>14449100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>3766500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>16455100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>11377600</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>11543400</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12646600</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11004200</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11164500</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12231500</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>13838500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>13949800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>13909700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>11989100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>12963500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>13604100</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>14341600</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,73 +1177,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-928100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-1000500</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-872100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-897600</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-967600</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-843400</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>-889600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>-852900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>-611600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-534700</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>-589000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>-539700</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>-567000</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6027300</v>
+        <v>221300</v>
       </c>
       <c r="E17" s="3">
-        <v>322200</v>
+        <v>5829500</v>
       </c>
       <c r="F17" s="3">
-        <v>7108400</v>
+        <v>311600</v>
       </c>
       <c r="G17" s="3">
-        <v>604700</v>
+        <v>6875100</v>
       </c>
       <c r="H17" s="3">
-        <v>8714700</v>
+        <v>584900</v>
       </c>
       <c r="I17" s="3">
-        <v>957300</v>
+        <v>8428700</v>
       </c>
       <c r="J17" s="3">
+        <v>925900</v>
+      </c>
+      <c r="K17" s="3">
         <v>8100700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>403000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8077200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>315800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8066200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>292400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5419700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>228400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8273600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>574500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8121000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>736000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10070100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>5350200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4435000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3931800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5174700</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4289500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3802800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>5737800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>5872600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>5843500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6569300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>4689900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>5483200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>4271500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,138 +1432,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1557300</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1906400</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4826100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1506200</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1843800</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4667700</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2833300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>6888900</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>5590700</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>2187700</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>5908300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>6270200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>6188900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6010500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>5141000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>5429300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>5489900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,138 +1634,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3792900</v>
+        <v>2801300</v>
       </c>
       <c r="E23" s="3">
-        <v>1435900</v>
+        <v>3668400</v>
       </c>
       <c r="F23" s="3">
-        <v>2528600</v>
+        <v>1388800</v>
       </c>
       <c r="G23" s="3">
-        <v>1703300</v>
+        <v>2445600</v>
       </c>
       <c r="H23" s="3">
-        <v>-894200</v>
+        <v>1647400</v>
       </c>
       <c r="I23" s="3">
-        <v>-284800</v>
+        <v>-864900</v>
       </c>
       <c r="J23" s="3">
+        <v>-275500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2904500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1749300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3202200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1312200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3419800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2149900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3542100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1508700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2636700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1742500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3128100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1500100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3149300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>802000</v>
+        <v>789200</v>
       </c>
       <c r="E24" s="3">
-        <v>330400</v>
+        <v>775700</v>
       </c>
       <c r="F24" s="3">
-        <v>691100</v>
+        <v>319500</v>
       </c>
       <c r="G24" s="3">
-        <v>545200</v>
+        <v>668400</v>
       </c>
       <c r="H24" s="3">
-        <v>714500</v>
+        <v>527300</v>
       </c>
       <c r="I24" s="3">
-        <v>-53700</v>
+        <v>691000</v>
       </c>
       <c r="J24" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K24" s="3">
         <v>722600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>476500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>758800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>305000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>637600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>597000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>840000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>406300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1141100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>515000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>775300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>456600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1124500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2990900</v>
+        <v>2012100</v>
       </c>
       <c r="E26" s="3">
-        <v>1105500</v>
+        <v>2892800</v>
       </c>
       <c r="F26" s="3">
-        <v>1837500</v>
+        <v>1069300</v>
       </c>
       <c r="G26" s="3">
-        <v>1158100</v>
+        <v>1777200</v>
       </c>
       <c r="H26" s="3">
-        <v>-1608700</v>
+        <v>1120100</v>
       </c>
       <c r="I26" s="3">
-        <v>-231100</v>
+        <v>-1555900</v>
       </c>
       <c r="J26" s="3">
+        <v>-223600</v>
+      </c>
+      <c r="K26" s="3">
         <v>2181900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1272800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2443400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1007200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2782200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1552900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2702200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1102400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1495600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1227500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2352800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1043500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2024800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2269400</v>
+        <v>1660900</v>
       </c>
       <c r="E27" s="3">
-        <v>782200</v>
+        <v>2195000</v>
       </c>
       <c r="F27" s="3">
-        <v>1215300</v>
+        <v>756500</v>
       </c>
       <c r="G27" s="3">
-        <v>858000</v>
+        <v>1175400</v>
       </c>
       <c r="H27" s="3">
-        <v>-2229800</v>
+        <v>829900</v>
       </c>
       <c r="I27" s="3">
-        <v>-566200</v>
+        <v>-2156600</v>
       </c>
       <c r="J27" s="3">
+        <v>-547600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1346000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>825600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1627000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>623200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1915100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1239400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1957700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>821300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>885300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>939100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1740200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>727800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1452000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>1557300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1906400</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4826100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1506200</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1843800</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4667700</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>2833300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>2670400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>2423800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3027200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>2053200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>2355100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>1122200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2269400</v>
+        <v>1660900</v>
       </c>
       <c r="E33" s="3">
-        <v>782200</v>
+        <v>2195000</v>
       </c>
       <c r="F33" s="3">
-        <v>1215300</v>
+        <v>756500</v>
       </c>
       <c r="G33" s="3">
-        <v>858000</v>
+        <v>1175400</v>
       </c>
       <c r="H33" s="3">
-        <v>-2229800</v>
+        <v>829900</v>
       </c>
       <c r="I33" s="3">
-        <v>-566200</v>
+        <v>-2156600</v>
       </c>
       <c r="J33" s="3">
+        <v>-547600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1346000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>825600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1627000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>623200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1915100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1239400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1957700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>821300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>885300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>939100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1740200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>727800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1452000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2269400</v>
+        <v>1660900</v>
       </c>
       <c r="E35" s="3">
-        <v>782200</v>
+        <v>2195000</v>
       </c>
       <c r="F35" s="3">
-        <v>1215300</v>
+        <v>756500</v>
       </c>
       <c r="G35" s="3">
-        <v>858000</v>
+        <v>1175400</v>
       </c>
       <c r="H35" s="3">
-        <v>-2229800</v>
+        <v>829900</v>
       </c>
       <c r="I35" s="3">
-        <v>-566200</v>
+        <v>-2156600</v>
       </c>
       <c r="J35" s="3">
+        <v>-547600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1346000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>825600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1627000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>623200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1915100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1239400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1957700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>821300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>885300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>939100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1740200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>727800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1452000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,138 +2645,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>240112900</v>
+        <v>274004300</v>
       </c>
       <c r="E41" s="3">
-        <v>281141500</v>
+        <v>232233300</v>
       </c>
       <c r="F41" s="3">
-        <v>245452600</v>
+        <v>271915500</v>
       </c>
       <c r="G41" s="3">
-        <v>253717900</v>
+        <v>237397800</v>
       </c>
       <c r="H41" s="3">
-        <v>217148800</v>
+        <v>245391800</v>
       </c>
       <c r="I41" s="3">
-        <v>228386300</v>
+        <v>210022800</v>
       </c>
       <c r="J41" s="3">
+        <v>220891500</v>
+      </c>
+      <c r="K41" s="3">
         <v>163996600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>194104600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171349700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>197168400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>164605300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>178050000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>144180600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>171178200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>170037600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>183782000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>179666500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>204477700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>167576600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>585509800</v>
+        <v>36930600</v>
       </c>
       <c r="E42" s="3">
-        <v>38226800</v>
+        <v>566295600</v>
       </c>
       <c r="F42" s="3">
-        <v>567283000</v>
+        <v>36972400</v>
       </c>
       <c r="G42" s="3">
-        <v>42903500</v>
+        <v>548667000</v>
       </c>
       <c r="H42" s="3">
-        <v>561870900</v>
+        <v>41495600</v>
       </c>
       <c r="I42" s="3">
-        <v>38577100</v>
+        <v>543432400</v>
       </c>
       <c r="J42" s="3">
+        <v>37311100</v>
+      </c>
+      <c r="K42" s="3">
         <v>529056200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42058800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>579304100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>31521100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>513271000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25238900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>488778000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25473600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>484036600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16268900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>595802500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19015700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>651761500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2755,8 +2847,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,203 +3051,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>112100</v>
+        <v>107300</v>
       </c>
       <c r="E47" s="3">
-        <v>120200</v>
+        <v>108400</v>
       </c>
       <c r="F47" s="3">
-        <v>116700</v>
+        <v>116300</v>
       </c>
       <c r="G47" s="3">
-        <v>116700</v>
+        <v>112900</v>
       </c>
       <c r="H47" s="3">
-        <v>123700</v>
+        <v>112900</v>
       </c>
       <c r="I47" s="3">
-        <v>134300</v>
+        <v>119700</v>
       </c>
       <c r="J47" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K47" s="3">
         <v>130700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>317300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>285900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>311000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>294500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>737700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>719200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>768600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>785400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>897600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>817900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1408600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1286500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35939900</v>
+        <v>35205300</v>
       </c>
       <c r="E48" s="3">
-        <v>35450700</v>
+        <v>34760500</v>
       </c>
       <c r="F48" s="3">
-        <v>35125000</v>
+        <v>34287400</v>
       </c>
       <c r="G48" s="3">
-        <v>34543700</v>
+        <v>33972400</v>
       </c>
       <c r="H48" s="3">
-        <v>34802800</v>
+        <v>33410100</v>
       </c>
       <c r="I48" s="3">
-        <v>35256900</v>
+        <v>33660700</v>
       </c>
       <c r="J48" s="3">
+        <v>34099900</v>
+      </c>
+      <c r="K48" s="3">
         <v>33024900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36724000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31480500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34927800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31643800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28864100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28039600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27120600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52821000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26030200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>25510700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>26176000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23553700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4460700</v>
+        <v>4314300</v>
       </c>
       <c r="E49" s="3">
-        <v>4460700</v>
+        <v>4314300</v>
       </c>
       <c r="F49" s="3">
-        <v>4721000</v>
+        <v>4314300</v>
       </c>
       <c r="G49" s="3">
-        <v>4723300</v>
+        <v>4566100</v>
       </c>
       <c r="H49" s="3">
-        <v>4722200</v>
+        <v>4568300</v>
       </c>
       <c r="I49" s="3">
-        <v>5518300</v>
+        <v>4567200</v>
       </c>
       <c r="J49" s="3">
+        <v>5337300</v>
+      </c>
+      <c r="K49" s="3">
         <v>8160200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5747700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8087800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5457100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5502900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5385200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5351700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5490000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7786600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5497800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5452900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5282100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7338700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5099200</v>
+        <v>5303400</v>
       </c>
       <c r="E52" s="3">
-        <v>6508300</v>
+        <v>4931900</v>
       </c>
       <c r="F52" s="3">
-        <v>4800400</v>
+        <v>6294700</v>
       </c>
       <c r="G52" s="3">
-        <v>10082900</v>
+        <v>4642900</v>
       </c>
       <c r="H52" s="3">
-        <v>9548200</v>
+        <v>9752000</v>
       </c>
       <c r="I52" s="3">
-        <v>10790400</v>
+        <v>9234900</v>
       </c>
       <c r="J52" s="3">
+        <v>10436300</v>
+      </c>
+      <c r="K52" s="3">
         <v>10796200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12949400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16134300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20145200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22854800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11710700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10751600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6807600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7068500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6956300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7286200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12677100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12528100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1742486700</v>
+        <v>1723406300</v>
       </c>
       <c r="E54" s="3">
-        <v>1754596200</v>
+        <v>1685304800</v>
       </c>
       <c r="F54" s="3">
-        <v>1706697400</v>
+        <v>1697017000</v>
       </c>
       <c r="G54" s="3">
-        <v>1718820900</v>
+        <v>1650690000</v>
       </c>
       <c r="H54" s="3">
-        <v>1696681000</v>
+        <v>1662415700</v>
       </c>
       <c r="I54" s="3">
-        <v>1760111100</v>
+        <v>1641002300</v>
       </c>
       <c r="J54" s="3">
+        <v>1702350800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1583361700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,73 +3649,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>23528000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>22503000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>24503900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>22755900</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>21764500</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>23699800</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>25886100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>30259400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>26338500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>24286700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>22786500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>37729200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>25001000</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,73 +3783,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>3318900</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2360500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1942600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3210000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2283000</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1878800</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>2759800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>2592800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>2834200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2290400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>2852100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>2472900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>3005000</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,138 +3919,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58550300</v>
+        <v>179070700</v>
       </c>
       <c r="E61" s="3">
-        <v>191696900</v>
+        <v>56628900</v>
       </c>
       <c r="F61" s="3">
-        <v>63951900</v>
+        <v>185406100</v>
       </c>
       <c r="G61" s="3">
-        <v>187090300</v>
+        <v>61853200</v>
       </c>
       <c r="H61" s="3">
-        <v>63906400</v>
+        <v>180950700</v>
       </c>
       <c r="I61" s="3">
-        <v>193813400</v>
+        <v>61809200</v>
       </c>
       <c r="J61" s="3">
+        <v>187453200</v>
+      </c>
+      <c r="K61" s="3">
         <v>61859900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>177461900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43963200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>168898700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54097600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>140870100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>41046500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>129673800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>41008700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>126560500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>41101900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>138392200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>41775900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6369400</v>
+        <v>7112200</v>
       </c>
       <c r="E62" s="3">
-        <v>7178400</v>
+        <v>6160400</v>
       </c>
       <c r="F62" s="3">
-        <v>7002100</v>
+        <v>6942800</v>
       </c>
       <c r="G62" s="3">
-        <v>7630200</v>
+        <v>6772300</v>
       </c>
       <c r="H62" s="3">
-        <v>7605700</v>
+        <v>7379800</v>
       </c>
       <c r="I62" s="3">
-        <v>7204100</v>
+        <v>7356100</v>
       </c>
       <c r="J62" s="3">
+        <v>6967700</v>
+      </c>
+      <c r="K62" s="3">
         <v>8322500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12323400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15154400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17011200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19181900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12837100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11585000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9003600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8863700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8078300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7775400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13029300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12610200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1668781100</v>
+        <v>1651552600</v>
       </c>
       <c r="E66" s="3">
-        <v>1681142800</v>
+        <v>1614018000</v>
       </c>
       <c r="F66" s="3">
-        <v>1634686900</v>
+        <v>1625974000</v>
       </c>
       <c r="G66" s="3">
-        <v>1648084100</v>
+        <v>1581042600</v>
       </c>
       <c r="H66" s="3">
-        <v>1625867100</v>
+        <v>1594000200</v>
       </c>
       <c r="I66" s="3">
-        <v>1687053400</v>
+        <v>1572512200</v>
       </c>
       <c r="J66" s="3">
+        <v>1631690600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1509199600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38774400</v>
+        <v>39202400</v>
       </c>
       <c r="E72" s="3">
-        <v>37894100</v>
+        <v>37501900</v>
       </c>
       <c r="F72" s="3">
-        <v>37144700</v>
+        <v>36650600</v>
       </c>
       <c r="G72" s="3">
-        <v>36929800</v>
+        <v>35925700</v>
       </c>
       <c r="H72" s="3">
-        <v>36034400</v>
+        <v>35717900</v>
       </c>
       <c r="I72" s="3">
-        <v>37667700</v>
+        <v>34851900</v>
       </c>
       <c r="J72" s="3">
+        <v>36431500</v>
+      </c>
+      <c r="K72" s="3">
         <v>38298100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39706800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37388300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39071500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38096500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35056600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33541700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>34225200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>33549700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>34846900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73705600</v>
+        <v>71853700</v>
       </c>
       <c r="E76" s="3">
-        <v>73453400</v>
+        <v>71286900</v>
       </c>
       <c r="F76" s="3">
-        <v>72010500</v>
+        <v>71043000</v>
       </c>
       <c r="G76" s="3">
-        <v>70736900</v>
+        <v>69647400</v>
       </c>
       <c r="H76" s="3">
-        <v>70813900</v>
+        <v>68415600</v>
       </c>
       <c r="I76" s="3">
-        <v>73057700</v>
+        <v>68490100</v>
       </c>
       <c r="J76" s="3">
+        <v>70660200</v>
+      </c>
+      <c r="K76" s="3">
         <v>74162100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78050200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73515600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>73961000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72187700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66621000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>64737000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>64672200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>65555600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67656000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>67443900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>73011000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>72721100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2269400</v>
+        <v>1660900</v>
       </c>
       <c r="E81" s="3">
-        <v>782200</v>
+        <v>2195000</v>
       </c>
       <c r="F81" s="3">
-        <v>1215300</v>
+        <v>756500</v>
       </c>
       <c r="G81" s="3">
-        <v>858000</v>
+        <v>1175400</v>
       </c>
       <c r="H81" s="3">
-        <v>-2229800</v>
+        <v>829900</v>
       </c>
       <c r="I81" s="3">
-        <v>-566200</v>
+        <v>-2156600</v>
       </c>
       <c r="J81" s="3">
+        <v>-547600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1346000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>825600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1627000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>623200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1915100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1239400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1957700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>821300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>885300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>939100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1740200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>727800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1452000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3096000</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>3062100</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>3082000</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>3003700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>3068100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>2769200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2468300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>2504300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>2301200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>2340600</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-4700000</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>30174000</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
-        <v>64142200</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>8778900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>3392700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>21205800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>9214900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>22647400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-4015900</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>-4163000</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2360500</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4625300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-7448100</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2608000</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>-5403900</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5084100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,8 +6002,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5800,11 +6033,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5812,11 +6045,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5824,19 +6057,22 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,120 +6272,126 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>407400</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>2876500</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>-386400</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>178600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>2184600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-900200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-953700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>2384000</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-108600</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>-3289800</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>259200</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>778700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>845800</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>947500</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1513000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6160,69 +6408,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-11849200</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>27152800</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
-        <v>58611000</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>4652100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>3339800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>14449100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>3766500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>16455100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>11004200</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11164500</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>12231500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>11829800</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10632000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10786900</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11817800</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>13838500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>13949800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>13909700</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>11989100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>12963500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>13604100</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>14341600</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,76 +1199,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-897600</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-967600</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-843400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>-927300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-867300</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-934900</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-814900</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>-889600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>-852900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>-611600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>-534700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>-589000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>-539700</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3">
         <v>-567000</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>221300</v>
+        <v>5900700</v>
       </c>
       <c r="E17" s="3">
-        <v>5829500</v>
+        <v>213800</v>
       </c>
       <c r="F17" s="3">
-        <v>311600</v>
+        <v>5632400</v>
       </c>
       <c r="G17" s="3">
-        <v>6875100</v>
+        <v>301100</v>
       </c>
       <c r="H17" s="3">
-        <v>584900</v>
+        <v>6642600</v>
       </c>
       <c r="I17" s="3">
-        <v>8428700</v>
+        <v>565100</v>
       </c>
       <c r="J17" s="3">
+        <v>8143600</v>
+      </c>
+      <c r="K17" s="3">
         <v>925900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8100700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>403000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8077200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>315800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8066200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>292400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5419700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>228400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8273600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>574500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8121000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>736000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10070100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5174700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4289500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3802800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>5929100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4999600</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4144400</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3674200</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>5737800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>5872600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>5843500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>6569300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>4689900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>5483200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>4271500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,76 +1465,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1506200</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1843800</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4667700</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-708000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1455300</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1781500</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4509800</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2833300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1527,50 +1563,53 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>5908300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>6270200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>6188900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>6010500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>5141000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>5429300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>5489900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1676,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2801300</v>
+        <v>5221100</v>
       </c>
       <c r="E23" s="3">
-        <v>3668400</v>
+        <v>2706500</v>
       </c>
       <c r="F23" s="3">
-        <v>1388800</v>
+        <v>3544400</v>
       </c>
       <c r="G23" s="3">
-        <v>2445600</v>
+        <v>1341800</v>
       </c>
       <c r="H23" s="3">
-        <v>1647400</v>
+        <v>2362900</v>
       </c>
       <c r="I23" s="3">
-        <v>-864900</v>
+        <v>1591600</v>
       </c>
       <c r="J23" s="3">
+        <v>-835600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-275500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2904500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1749300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3202200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1312200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3419800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2149900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3542100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1508700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2636700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1742500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3128100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1500100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3149300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>789200</v>
+        <v>1101800</v>
       </c>
       <c r="E24" s="3">
-        <v>775700</v>
+        <v>762500</v>
       </c>
       <c r="F24" s="3">
-        <v>319500</v>
+        <v>749500</v>
       </c>
       <c r="G24" s="3">
-        <v>668400</v>
+        <v>308700</v>
       </c>
       <c r="H24" s="3">
-        <v>527300</v>
+        <v>645800</v>
       </c>
       <c r="I24" s="3">
-        <v>691000</v>
+        <v>509500</v>
       </c>
       <c r="J24" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-51900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>722600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>476500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>758800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>305000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>637600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>597000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>840000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>406300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1141100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>515000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>775300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>456600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1124500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2012100</v>
+        <v>4119300</v>
       </c>
       <c r="E26" s="3">
-        <v>2892800</v>
+        <v>1944000</v>
       </c>
       <c r="F26" s="3">
-        <v>1069300</v>
+        <v>2794900</v>
       </c>
       <c r="G26" s="3">
-        <v>1777200</v>
+        <v>1033100</v>
       </c>
       <c r="H26" s="3">
-        <v>1120100</v>
+        <v>1717100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1555900</v>
+        <v>1082200</v>
       </c>
       <c r="J26" s="3">
+        <v>-1503300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-223600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2181900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1272800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2443400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1007200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2782200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1552900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2702200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1102400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1495600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1227500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2352800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1043500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2024800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1660900</v>
+        <v>3389500</v>
       </c>
       <c r="E27" s="3">
-        <v>2195000</v>
+        <v>1604700</v>
       </c>
       <c r="F27" s="3">
-        <v>756500</v>
+        <v>2120700</v>
       </c>
       <c r="G27" s="3">
-        <v>1175400</v>
+        <v>730900</v>
       </c>
       <c r="H27" s="3">
-        <v>829900</v>
+        <v>1135600</v>
       </c>
       <c r="I27" s="3">
-        <v>-2156600</v>
+        <v>801800</v>
       </c>
       <c r="J27" s="3">
+        <v>-2083600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-547600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1346000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>825600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1627000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>623200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1915100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1239400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1957700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>821300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>885300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>939100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1740200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>727800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1452000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1506200</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1843800</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4667700</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1455300</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1781500</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4509800</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>2833300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>2670400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>2423800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>3027200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>2053200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>2355100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>1122200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1660900</v>
+        <v>3389500</v>
       </c>
       <c r="E33" s="3">
-        <v>2195000</v>
+        <v>1604700</v>
       </c>
       <c r="F33" s="3">
-        <v>756500</v>
+        <v>2120700</v>
       </c>
       <c r="G33" s="3">
-        <v>1175400</v>
+        <v>730900</v>
       </c>
       <c r="H33" s="3">
-        <v>829900</v>
+        <v>1135600</v>
       </c>
       <c r="I33" s="3">
-        <v>-2156600</v>
+        <v>801800</v>
       </c>
       <c r="J33" s="3">
+        <v>-2083600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-547600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1346000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>825600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1627000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>623200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1915100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1239400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1957700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>821300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>885300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>939100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1740200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>727800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1452000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1660900</v>
+        <v>3389500</v>
       </c>
       <c r="E35" s="3">
-        <v>2195000</v>
+        <v>1604700</v>
       </c>
       <c r="F35" s="3">
-        <v>756500</v>
+        <v>2120700</v>
       </c>
       <c r="G35" s="3">
-        <v>1175400</v>
+        <v>730900</v>
       </c>
       <c r="H35" s="3">
-        <v>829900</v>
+        <v>1135600</v>
       </c>
       <c r="I35" s="3">
-        <v>-2156600</v>
+        <v>801800</v>
       </c>
       <c r="J35" s="3">
+        <v>-2083600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-547600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1346000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>825600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1627000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>623200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1915100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1239400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1957700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>821300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>885300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>939100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1740200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>727800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1452000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,144 +2731,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>274004300</v>
+        <v>246258800</v>
       </c>
       <c r="E41" s="3">
-        <v>232233300</v>
+        <v>264736600</v>
       </c>
       <c r="F41" s="3">
-        <v>271915500</v>
+        <v>224378400</v>
       </c>
       <c r="G41" s="3">
-        <v>237397800</v>
+        <v>262718400</v>
       </c>
       <c r="H41" s="3">
-        <v>245391800</v>
+        <v>229368200</v>
       </c>
       <c r="I41" s="3">
-        <v>210022800</v>
+        <v>237091800</v>
       </c>
       <c r="J41" s="3">
+        <v>202919100</v>
+      </c>
+      <c r="K41" s="3">
         <v>220891500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>163996600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>194104600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171349700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>197168400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>164605300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>178050000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>144180600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>171178200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>170037600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>183782000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>179666500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>204477700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>167576600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36930600</v>
+        <v>430457800</v>
       </c>
       <c r="E42" s="3">
-        <v>566295600</v>
+        <v>35681500</v>
       </c>
       <c r="F42" s="3">
-        <v>36972400</v>
+        <v>547141500</v>
       </c>
       <c r="G42" s="3">
-        <v>548667000</v>
+        <v>35721800</v>
       </c>
       <c r="H42" s="3">
-        <v>41495600</v>
+        <v>510972400</v>
       </c>
       <c r="I42" s="3">
-        <v>543432400</v>
+        <v>40092000</v>
       </c>
       <c r="J42" s="3">
+        <v>525051700</v>
+      </c>
+      <c r="K42" s="3">
         <v>37311100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>529056200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>42058800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>579304100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>31521100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>513271000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25238900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>488778000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>25473600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>484036600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16268900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>595802500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19015700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>651761500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,8 +2942,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,212 +3155,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>107300</v>
+        <v>103600</v>
       </c>
       <c r="E47" s="3">
-        <v>108400</v>
+        <v>103600</v>
       </c>
       <c r="F47" s="3">
-        <v>116300</v>
+        <v>104700</v>
       </c>
       <c r="G47" s="3">
-        <v>112900</v>
+        <v>112400</v>
       </c>
       <c r="H47" s="3">
-        <v>112900</v>
+        <v>109100</v>
       </c>
       <c r="I47" s="3">
-        <v>119700</v>
+        <v>109100</v>
       </c>
       <c r="J47" s="3">
+        <v>115600</v>
+      </c>
+      <c r="K47" s="3">
         <v>129800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>130700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>317300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>285900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>311000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>294500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>737700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>719200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>768600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>785400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>897600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>817900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1408600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1286500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35205300</v>
+        <v>34874200</v>
       </c>
       <c r="E48" s="3">
-        <v>34760500</v>
+        <v>34014600</v>
       </c>
       <c r="F48" s="3">
-        <v>34287400</v>
+        <v>33584800</v>
       </c>
       <c r="G48" s="3">
-        <v>33972400</v>
+        <v>33127700</v>
       </c>
       <c r="H48" s="3">
-        <v>33410100</v>
+        <v>32823300</v>
       </c>
       <c r="I48" s="3">
-        <v>33660700</v>
+        <v>32280000</v>
       </c>
       <c r="J48" s="3">
+        <v>32522200</v>
+      </c>
+      <c r="K48" s="3">
         <v>34099900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33024900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36724000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31480500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34927800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31643800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28864100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28039600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27120600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>52821000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>26030200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>25510700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>26176000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23553700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4314300</v>
+        <v>4081100</v>
       </c>
       <c r="E49" s="3">
-        <v>4314300</v>
+        <v>4168400</v>
       </c>
       <c r="F49" s="3">
-        <v>4314300</v>
+        <v>4168400</v>
       </c>
       <c r="G49" s="3">
-        <v>4566100</v>
+        <v>4168400</v>
       </c>
       <c r="H49" s="3">
-        <v>4568300</v>
+        <v>4411600</v>
       </c>
       <c r="I49" s="3">
-        <v>4567200</v>
+        <v>4413800</v>
       </c>
       <c r="J49" s="3">
+        <v>4412700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5337300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8160200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5747700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8087800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5457100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5502900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5385200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5351700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5490000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7786600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5497800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5452900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5282100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7338700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5303400</v>
+        <v>4207600</v>
       </c>
       <c r="E52" s="3">
-        <v>4931900</v>
+        <v>5124000</v>
       </c>
       <c r="F52" s="3">
-        <v>6294700</v>
+        <v>4765100</v>
       </c>
       <c r="G52" s="3">
-        <v>4642900</v>
+        <v>6081800</v>
       </c>
       <c r="H52" s="3">
-        <v>9752000</v>
+        <v>4479300</v>
       </c>
       <c r="I52" s="3">
-        <v>9234900</v>
+        <v>9422200</v>
       </c>
       <c r="J52" s="3">
+        <v>8922600</v>
+      </c>
+      <c r="K52" s="3">
         <v>10436300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10796200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12949400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16134300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20145200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22854800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11710700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10751600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6807600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7068500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6956300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7286200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12677100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12528100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1723406300</v>
+        <v>1597582100</v>
       </c>
       <c r="E54" s="3">
-        <v>1685304800</v>
+        <v>1665114800</v>
       </c>
       <c r="F54" s="3">
-        <v>1697017000</v>
+        <v>1628302100</v>
       </c>
       <c r="G54" s="3">
-        <v>1650690000</v>
+        <v>1639618100</v>
       </c>
       <c r="H54" s="3">
-        <v>1662415700</v>
+        <v>1575714800</v>
       </c>
       <c r="I54" s="3">
-        <v>1641002300</v>
+        <v>1606187200</v>
       </c>
       <c r="J54" s="3">
+        <v>1585498000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1702350800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1583361700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,76 +3779,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>22755900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>21764500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>23699800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>23491700</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>21986200</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>21028400</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>22898200</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>25886100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>30259400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>26338500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>24286700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>22786500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>37729200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
         <v>25001000</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3786,76 +3919,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3210000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2283000</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1878800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>3004400</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3101500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2205800</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1815300</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>2759800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>2592800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>2834200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>2290400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>2852100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>2472900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>3005000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,144 +4061,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>179070700</v>
+        <v>55862200</v>
       </c>
       <c r="E61" s="3">
-        <v>56628900</v>
+        <v>173014000</v>
       </c>
       <c r="F61" s="3">
-        <v>185406100</v>
+        <v>54713500</v>
       </c>
       <c r="G61" s="3">
-        <v>61853200</v>
+        <v>179135100</v>
       </c>
       <c r="H61" s="3">
-        <v>180950700</v>
+        <v>59761100</v>
       </c>
       <c r="I61" s="3">
-        <v>61809200</v>
+        <v>174830300</v>
       </c>
       <c r="J61" s="3">
+        <v>59718600</v>
+      </c>
+      <c r="K61" s="3">
         <v>187453200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>61859900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>177461900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43963200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>168898700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54097600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>140870100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>41046500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>129673800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>41008700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>126560500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>41101900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>138392200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>41775900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7112200</v>
+        <v>7012400</v>
       </c>
       <c r="E62" s="3">
-        <v>6160400</v>
+        <v>6871600</v>
       </c>
       <c r="F62" s="3">
-        <v>6942800</v>
+        <v>5952000</v>
       </c>
       <c r="G62" s="3">
-        <v>6772300</v>
+        <v>6708000</v>
       </c>
       <c r="H62" s="3">
-        <v>7379800</v>
+        <v>6500700</v>
       </c>
       <c r="I62" s="3">
-        <v>7356100</v>
+        <v>7130200</v>
       </c>
       <c r="J62" s="3">
+        <v>7107300</v>
+      </c>
+      <c r="K62" s="3">
         <v>6967700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8322500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12323400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15154400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17011200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19181900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12837100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11585000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9003600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8863700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8078300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7775400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13029300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12610200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1651552600</v>
+        <v>1526599800</v>
       </c>
       <c r="E66" s="3">
-        <v>1614018000</v>
+        <v>1595691500</v>
       </c>
       <c r="F66" s="3">
-        <v>1625974000</v>
+        <v>1559426400</v>
       </c>
       <c r="G66" s="3">
-        <v>1581042600</v>
+        <v>1570978000</v>
       </c>
       <c r="H66" s="3">
-        <v>1594000200</v>
+        <v>1508394700</v>
       </c>
       <c r="I66" s="3">
-        <v>1572512200</v>
+        <v>1540085600</v>
       </c>
       <c r="J66" s="3">
+        <v>1519324500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1631690600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1509199600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39202400</v>
+        <v>39569500</v>
       </c>
       <c r="E72" s="3">
-        <v>37501900</v>
+        <v>37876400</v>
       </c>
       <c r="F72" s="3">
-        <v>36650600</v>
+        <v>36233500</v>
       </c>
       <c r="G72" s="3">
-        <v>35925700</v>
+        <v>35410900</v>
       </c>
       <c r="H72" s="3">
-        <v>35717900</v>
+        <v>34738900</v>
       </c>
       <c r="I72" s="3">
-        <v>34851900</v>
+        <v>34509800</v>
       </c>
       <c r="J72" s="3">
+        <v>33673100</v>
+      </c>
+      <c r="K72" s="3">
         <v>36431500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38298100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39706800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37388300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39071500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>38096500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35056600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33541700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>34225200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>33549700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>34846900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71853700</v>
+        <v>70982200</v>
       </c>
       <c r="E76" s="3">
-        <v>71286900</v>
+        <v>69423300</v>
       </c>
       <c r="F76" s="3">
-        <v>71043000</v>
+        <v>68875700</v>
       </c>
       <c r="G76" s="3">
-        <v>69647400</v>
+        <v>68640100</v>
       </c>
       <c r="H76" s="3">
-        <v>68415600</v>
+        <v>67320100</v>
       </c>
       <c r="I76" s="3">
-        <v>68490100</v>
+        <v>66101500</v>
       </c>
       <c r="J76" s="3">
+        <v>66173500</v>
+      </c>
+      <c r="K76" s="3">
         <v>70660200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74162100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78050200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>73515600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73961000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72187700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66621000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>64737000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>64672200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>65555600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>67656000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>67443900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>73011000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>72721100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1660900</v>
+        <v>3389500</v>
       </c>
       <c r="E81" s="3">
-        <v>2195000</v>
+        <v>1604700</v>
       </c>
       <c r="F81" s="3">
-        <v>756500</v>
+        <v>2120700</v>
       </c>
       <c r="G81" s="3">
-        <v>1175400</v>
+        <v>730900</v>
       </c>
       <c r="H81" s="3">
-        <v>829900</v>
+        <v>1135600</v>
       </c>
       <c r="I81" s="3">
-        <v>-2156600</v>
+        <v>801800</v>
       </c>
       <c r="J81" s="3">
+        <v>-2083600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-547600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1346000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>825600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1627000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>623200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1915100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1239400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1957700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>821300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>885300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>939100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1740200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>727800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1452000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>3003700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>3068100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>2769200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>2468300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>2504300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>2301200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>2340600</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>8778900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>3392700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>21205800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>9214900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>22647400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4625300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5084100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,8 +6235,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6036,11 +6269,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6048,11 +6281,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6060,19 +6293,22 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,126 +6517,132 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>178600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>2184600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-900200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-953700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>2384000</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>778700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>845800</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>947500</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>1513000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6411,72 +6659,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>4652100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>3339800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>14449100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>3766500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>16455100</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,169 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>11829800</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10632000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10786900</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11255000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10115400</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10262800</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>11817800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>13838500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>13949800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13909700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>11989100</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>12963500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>13604100</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>14341600</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,8 +897,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +971,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1147,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,79 +1221,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-927300</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-867300</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-934900</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-882200</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-825100</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-889500</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>-814900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>-889600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>-852900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-611600</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>-534700</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>-589000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>-539700</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-567000</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5900700</v>
+        <v>582300</v>
       </c>
       <c r="E17" s="3">
-        <v>213800</v>
+        <v>5614000</v>
       </c>
       <c r="F17" s="3">
-        <v>5632400</v>
+        <v>203400</v>
       </c>
       <c r="G17" s="3">
-        <v>301100</v>
+        <v>5358700</v>
       </c>
       <c r="H17" s="3">
-        <v>6642600</v>
+        <v>286500</v>
       </c>
       <c r="I17" s="3">
-        <v>565100</v>
+        <v>6319800</v>
       </c>
       <c r="J17" s="3">
+        <v>537600</v>
+      </c>
+      <c r="K17" s="3">
         <v>8143600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>925900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8100700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>403000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8077200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>315800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8066200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>292400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5419700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>228400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8273600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>574500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8121000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>736000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10070100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>5929100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4999600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4144400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5641000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4756700</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3943000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>3674200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>5737800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>5872600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>5843500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>6569300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>4689900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>5483200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>4271500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,99 +1498,103 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-708000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1455300</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1781500</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-673600</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1384600</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1694900</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4509800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2833300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>10617700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>6124600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>7710600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1566,50 +1602,53 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>5908300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>6270200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6188900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>6010500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>5141000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>5429300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5489900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,150 +1718,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5221100</v>
+        <v>1445800</v>
       </c>
       <c r="E23" s="3">
-        <v>2706500</v>
+        <v>4967400</v>
       </c>
       <c r="F23" s="3">
-        <v>3544400</v>
+        <v>2575000</v>
       </c>
       <c r="G23" s="3">
-        <v>1341800</v>
+        <v>3372100</v>
       </c>
       <c r="H23" s="3">
-        <v>2362900</v>
+        <v>1276600</v>
       </c>
       <c r="I23" s="3">
-        <v>1591600</v>
+        <v>2248100</v>
       </c>
       <c r="J23" s="3">
+        <v>1514300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-835600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-275500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2904500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1749300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3202200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1312200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3419800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2149900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3542100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1508700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2636700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1742500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3128100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1500100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3149300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1101800</v>
+        <v>366400</v>
       </c>
       <c r="E24" s="3">
-        <v>762500</v>
+        <v>1048300</v>
       </c>
       <c r="F24" s="3">
-        <v>749500</v>
+        <v>725500</v>
       </c>
       <c r="G24" s="3">
-        <v>308700</v>
+        <v>713000</v>
       </c>
       <c r="H24" s="3">
-        <v>645800</v>
+        <v>293700</v>
       </c>
       <c r="I24" s="3">
-        <v>509500</v>
+        <v>614400</v>
       </c>
       <c r="J24" s="3">
+        <v>484700</v>
+      </c>
+      <c r="K24" s="3">
         <v>667600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-51900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>722600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>476500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>758800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>305000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>637600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>597000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>840000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>406300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1141100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>515000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>775300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>456600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1124500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4119300</v>
+        <v>1079400</v>
       </c>
       <c r="E26" s="3">
-        <v>1944000</v>
+        <v>3919100</v>
       </c>
       <c r="F26" s="3">
-        <v>2794900</v>
+        <v>1849500</v>
       </c>
       <c r="G26" s="3">
-        <v>1033100</v>
+        <v>2659100</v>
       </c>
       <c r="H26" s="3">
-        <v>1717100</v>
+        <v>982900</v>
       </c>
       <c r="I26" s="3">
-        <v>1082200</v>
+        <v>1633700</v>
       </c>
       <c r="J26" s="3">
+        <v>1029600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1503300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-223600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2181900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1272800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2443400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1007200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2782200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1552900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2702200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1102400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1495600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1227500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2352800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1043500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2024800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3389500</v>
+        <v>750400</v>
       </c>
       <c r="E27" s="3">
-        <v>1604700</v>
+        <v>3224800</v>
       </c>
       <c r="F27" s="3">
-        <v>2120700</v>
+        <v>1526800</v>
       </c>
       <c r="G27" s="3">
-        <v>730900</v>
+        <v>2017700</v>
       </c>
       <c r="H27" s="3">
-        <v>1135600</v>
+        <v>695400</v>
       </c>
       <c r="I27" s="3">
-        <v>801800</v>
+        <v>1080500</v>
       </c>
       <c r="J27" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2083600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-547600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1346000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>825600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1627000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>623200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1915100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1239400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1957700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>821300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>885300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>939100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1740200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>727800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1452000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2176,8 +2236,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>708000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1455300</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1781500</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>673600</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1384600</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1694900</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>4509800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>2833300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>2670400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2423800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>3027200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>2053200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>2355100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1122200</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3389500</v>
+        <v>750400</v>
       </c>
       <c r="E33" s="3">
-        <v>1604700</v>
+        <v>3224800</v>
       </c>
       <c r="F33" s="3">
-        <v>2120700</v>
+        <v>1526800</v>
       </c>
       <c r="G33" s="3">
-        <v>730900</v>
+        <v>2017700</v>
       </c>
       <c r="H33" s="3">
-        <v>1135600</v>
+        <v>695400</v>
       </c>
       <c r="I33" s="3">
-        <v>801800</v>
+        <v>1080500</v>
       </c>
       <c r="J33" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2083600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-547600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1346000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>825600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1627000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>623200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1915100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1239400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1957700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>821300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>885300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>939100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1740200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>727800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1452000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3389500</v>
+        <v>750400</v>
       </c>
       <c r="E35" s="3">
-        <v>1604700</v>
+        <v>3224800</v>
       </c>
       <c r="F35" s="3">
-        <v>2120700</v>
+        <v>1526800</v>
       </c>
       <c r="G35" s="3">
-        <v>730900</v>
+        <v>2017700</v>
       </c>
       <c r="H35" s="3">
-        <v>1135600</v>
+        <v>695400</v>
       </c>
       <c r="I35" s="3">
-        <v>801800</v>
+        <v>1080500</v>
       </c>
       <c r="J35" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2083600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-547600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1346000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>825600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1627000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>623200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1915100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1239400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1957700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>821300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>885300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>939100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1740200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>727800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1452000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,150 +2817,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>246258800</v>
+        <v>316119400</v>
       </c>
       <c r="E41" s="3">
-        <v>264736600</v>
+        <v>234292400</v>
       </c>
       <c r="F41" s="3">
-        <v>224378400</v>
+        <v>251872400</v>
       </c>
       <c r="G41" s="3">
-        <v>262718400</v>
+        <v>213475300</v>
       </c>
       <c r="H41" s="3">
-        <v>229368200</v>
+        <v>249952300</v>
       </c>
       <c r="I41" s="3">
-        <v>237091800</v>
+        <v>218222600</v>
       </c>
       <c r="J41" s="3">
+        <v>225571000</v>
+      </c>
+      <c r="K41" s="3">
         <v>202919100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>220891500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>163996600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>194104600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>171349700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>197168400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>164605300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>178050000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>144180600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>171178200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>170037600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>183782000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>179666500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>204477700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>167576600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>430457800</v>
+        <v>34698000</v>
       </c>
       <c r="E42" s="3">
-        <v>35681500</v>
+        <v>409540800</v>
       </c>
       <c r="F42" s="3">
-        <v>547141500</v>
+        <v>33947600</v>
       </c>
       <c r="G42" s="3">
-        <v>35721800</v>
+        <v>520554600</v>
       </c>
       <c r="H42" s="3">
-        <v>510972400</v>
+        <v>33986000</v>
       </c>
       <c r="I42" s="3">
-        <v>40092000</v>
+        <v>486143000</v>
       </c>
       <c r="J42" s="3">
+        <v>38143900</v>
+      </c>
+      <c r="K42" s="3">
         <v>525051700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>37311100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>529056200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42058800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>579304100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>31521100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>513271000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25238900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>488778000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>25473600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>484036600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16268900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>595802500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19015700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>651761500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,8 +3037,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3111,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3185,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,221 +3259,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103600</v>
+        <v>119400</v>
       </c>
       <c r="E47" s="3">
-        <v>103600</v>
+        <v>98600</v>
       </c>
       <c r="F47" s="3">
-        <v>104700</v>
+        <v>98600</v>
       </c>
       <c r="G47" s="3">
-        <v>112400</v>
+        <v>99600</v>
       </c>
       <c r="H47" s="3">
-        <v>109100</v>
+        <v>106900</v>
       </c>
       <c r="I47" s="3">
-        <v>109100</v>
+        <v>103800</v>
       </c>
       <c r="J47" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K47" s="3">
         <v>115600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>129800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>130700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>317300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>285900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>311000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>294500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>737700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>719200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>768600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>785400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>897600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>817900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1408600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1286500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34874200</v>
+        <v>33357100</v>
       </c>
       <c r="E48" s="3">
-        <v>34014600</v>
+        <v>33179600</v>
       </c>
       <c r="F48" s="3">
-        <v>33584800</v>
+        <v>32361700</v>
       </c>
       <c r="G48" s="3">
-        <v>33127700</v>
+        <v>31952800</v>
       </c>
       <c r="H48" s="3">
-        <v>32823300</v>
+        <v>31517900</v>
       </c>
       <c r="I48" s="3">
-        <v>32280000</v>
+        <v>31228300</v>
       </c>
       <c r="J48" s="3">
+        <v>30711500</v>
+      </c>
+      <c r="K48" s="3">
         <v>32522200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34099900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33024900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36724000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31480500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34927800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31643800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28864100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28039600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27120600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>52821000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>26030200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>25510700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>26176000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>23553700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4081100</v>
+        <v>3880700</v>
       </c>
       <c r="E49" s="3">
-        <v>4168400</v>
+        <v>3882800</v>
       </c>
       <c r="F49" s="3">
-        <v>4168400</v>
+        <v>3965800</v>
       </c>
       <c r="G49" s="3">
-        <v>4168400</v>
+        <v>3965800</v>
       </c>
       <c r="H49" s="3">
-        <v>4411600</v>
+        <v>3965800</v>
       </c>
       <c r="I49" s="3">
-        <v>4413800</v>
+        <v>4197300</v>
       </c>
       <c r="J49" s="3">
+        <v>4199300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4412700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5337300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8160200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5747700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8087800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5457100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5502900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5385200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5351700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5490000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7786600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5497800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5452900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5282100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7338700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4207600</v>
+        <v>4839700</v>
       </c>
       <c r="E52" s="3">
-        <v>5124000</v>
+        <v>4003200</v>
       </c>
       <c r="F52" s="3">
-        <v>4765100</v>
+        <v>4875000</v>
       </c>
       <c r="G52" s="3">
-        <v>6081800</v>
+        <v>4533500</v>
       </c>
       <c r="H52" s="3">
-        <v>4479300</v>
+        <v>5786300</v>
       </c>
       <c r="I52" s="3">
-        <v>9422200</v>
+        <v>4261600</v>
       </c>
       <c r="J52" s="3">
+        <v>8964300</v>
+      </c>
+      <c r="K52" s="3">
         <v>8922600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10436300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10796200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12949400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16134300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20145200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22854800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11710700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10751600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6807600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7068500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6956300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7286200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12677100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12528100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1597582100</v>
+        <v>1670190800</v>
       </c>
       <c r="E54" s="3">
-        <v>1665114800</v>
+        <v>1519951600</v>
       </c>
       <c r="F54" s="3">
-        <v>1628302100</v>
+        <v>1584202800</v>
       </c>
       <c r="G54" s="3">
-        <v>1639618100</v>
+        <v>1549178900</v>
       </c>
       <c r="H54" s="3">
-        <v>1575714800</v>
+        <v>1559945000</v>
       </c>
       <c r="I54" s="3">
-        <v>1606187200</v>
+        <v>1499146900</v>
       </c>
       <c r="J54" s="3">
+        <v>1528138600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1585498000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1702350800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1583361700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,79 +3909,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>23491700</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>21986200</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>21028400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>22350100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>20917800</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>20006600</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>22898200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>25886100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>30259400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>26338500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>24286700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>22786500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>37729200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>25001000</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3922,79 +4055,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>3004400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3101500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2205800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2858400</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2950700</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2098600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>1815300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>2759800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>2592800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2834200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>2290400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>2852100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>2472900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3005000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,150 +4203,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55862200</v>
+        <v>175741400</v>
       </c>
       <c r="E61" s="3">
-        <v>173014000</v>
+        <v>53147700</v>
       </c>
       <c r="F61" s="3">
-        <v>54713500</v>
+        <v>164606800</v>
       </c>
       <c r="G61" s="3">
-        <v>179135100</v>
+        <v>52054800</v>
       </c>
       <c r="H61" s="3">
-        <v>59761100</v>
+        <v>170430400</v>
       </c>
       <c r="I61" s="3">
-        <v>174830300</v>
+        <v>56857200</v>
       </c>
       <c r="J61" s="3">
+        <v>166334900</v>
+      </c>
+      <c r="K61" s="3">
         <v>59718600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>187453200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>61859900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>177461900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43963200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>168898700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>54097600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>140870100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>41046500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>129673800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>41008700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>126560500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>41101900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>138392200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>41775900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7012400</v>
+        <v>6985100</v>
       </c>
       <c r="E62" s="3">
-        <v>6871600</v>
+        <v>6671600</v>
       </c>
       <c r="F62" s="3">
-        <v>5952000</v>
+        <v>6537700</v>
       </c>
       <c r="G62" s="3">
-        <v>6708000</v>
+        <v>5662800</v>
       </c>
       <c r="H62" s="3">
-        <v>6500700</v>
+        <v>6382000</v>
       </c>
       <c r="I62" s="3">
-        <v>7130200</v>
+        <v>6184800</v>
       </c>
       <c r="J62" s="3">
+        <v>6783700</v>
+      </c>
+      <c r="K62" s="3">
         <v>7107300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6967700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8322500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12323400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15154400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17011200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19181900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12837100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11585000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9003600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8863700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8078300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7775400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13029300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12610200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1526599800</v>
+        <v>1601843000</v>
       </c>
       <c r="E66" s="3">
-        <v>1595691500</v>
+        <v>1452418600</v>
       </c>
       <c r="F66" s="3">
-        <v>1559426400</v>
+        <v>1518152900</v>
       </c>
       <c r="G66" s="3">
-        <v>1570978000</v>
+        <v>1483650000</v>
       </c>
       <c r="H66" s="3">
-        <v>1508394700</v>
+        <v>1494640300</v>
       </c>
       <c r="I66" s="3">
-        <v>1540085600</v>
+        <v>1435098100</v>
       </c>
       <c r="J66" s="3">
+        <v>1465249100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1519324500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1631690600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1509199600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39569500</v>
+        <v>38518500</v>
       </c>
       <c r="E72" s="3">
-        <v>37876400</v>
+        <v>37646700</v>
       </c>
       <c r="F72" s="3">
-        <v>36233500</v>
+        <v>36035900</v>
       </c>
       <c r="G72" s="3">
-        <v>35410900</v>
+        <v>34472800</v>
       </c>
       <c r="H72" s="3">
-        <v>34738900</v>
+        <v>33690200</v>
       </c>
       <c r="I72" s="3">
-        <v>34509800</v>
+        <v>33050900</v>
       </c>
       <c r="J72" s="3">
+        <v>32832900</v>
+      </c>
+      <c r="K72" s="3">
         <v>33673100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36431500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38298100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39706800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37388300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39071500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>38096500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35056600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33541700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>34225200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>33549700</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>34846900</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70982200</v>
+        <v>68347800</v>
       </c>
       <c r="E76" s="3">
-        <v>69423300</v>
+        <v>67533000</v>
       </c>
       <c r="F76" s="3">
-        <v>68875700</v>
+        <v>66049900</v>
       </c>
       <c r="G76" s="3">
-        <v>68640100</v>
+        <v>65528900</v>
       </c>
       <c r="H76" s="3">
-        <v>67320100</v>
+        <v>65304700</v>
       </c>
       <c r="I76" s="3">
-        <v>66101500</v>
+        <v>64048800</v>
       </c>
       <c r="J76" s="3">
+        <v>62889500</v>
+      </c>
+      <c r="K76" s="3">
         <v>66173500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>70660200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74162100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78050200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73515600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73961000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72187700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>66621000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>64737000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>64672200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>65555600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>67656000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>67443900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>73011000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>72721100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3389500</v>
+        <v>750400</v>
       </c>
       <c r="E81" s="3">
-        <v>1604700</v>
+        <v>3224800</v>
       </c>
       <c r="F81" s="3">
-        <v>2120700</v>
+        <v>1526800</v>
       </c>
       <c r="G81" s="3">
-        <v>730900</v>
+        <v>2017700</v>
       </c>
       <c r="H81" s="3">
-        <v>1135600</v>
+        <v>695400</v>
       </c>
       <c r="I81" s="3">
-        <v>801800</v>
+        <v>1080500</v>
       </c>
       <c r="J81" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2083600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-547600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1346000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>825600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1627000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>623200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1915100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1239400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1957700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>821300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>885300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>939100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1740200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>727800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1452000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+        <v>5650300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>2752500</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+        <v>5462500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>3003700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>3068100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2769200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>2468300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>2504300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>2301200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2340600</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>21063100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>-4178600</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+        <v>83853000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>8778900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>3392700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>21205800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>9214900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>22647400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+        <v>-6711100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-3570400</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+        <v>-5799800</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4625300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-10501500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-6621800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+        <v>-7123100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5084100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,8 +6468,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6272,11 +6505,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6284,11 +6517,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6296,19 +6529,22 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,132 +6762,138 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>-3763400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>362200</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+        <v>2248100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>178600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>2184600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-900200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-953700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>2384000</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+        <v>2235600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>-96500</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+        <v>-2694400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>778700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>845800</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>947500</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>1513000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6662,75 +6910,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>9033900</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>-10534700</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+        <v>76249300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>4652100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>3339800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>14449100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>3766500</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>16455100</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>11255000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10115400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10262800</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>12410600</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10815800</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9720700</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9862300</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>11817800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>13838500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>13949800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>13909700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>11989100</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>12963500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>13604100</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>14341600</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1166,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,82 +1243,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-882200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-825100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-889500</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>-768000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-847800</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-792900</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-854800</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>-814900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>-889600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>-852900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>-611600</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>-534700</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>-589000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3">
         <v>-539700</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3">
         <v>-567000</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>582300</v>
+        <v>7792700</v>
       </c>
       <c r="E17" s="3">
-        <v>5614000</v>
+        <v>559500</v>
       </c>
       <c r="F17" s="3">
-        <v>203400</v>
+        <v>5394900</v>
       </c>
       <c r="G17" s="3">
-        <v>5358700</v>
+        <v>195500</v>
       </c>
       <c r="H17" s="3">
-        <v>286500</v>
+        <v>5149600</v>
       </c>
       <c r="I17" s="3">
-        <v>6319800</v>
+        <v>275300</v>
       </c>
       <c r="J17" s="3">
+        <v>6073200</v>
+      </c>
+      <c r="K17" s="3">
         <v>537600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8143600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>925900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8100700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>403000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8077200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>315800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8066200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>292400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5419700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>228400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8273600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>574500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8121000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>736000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10070100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5641000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4756700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3943000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>4618000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5420900</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4571100</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3789100</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>3674200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>5737800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>5872600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>5843500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>6569300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>4689900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>5483200</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>4271500</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,105 +1531,109 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-673600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1384600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1694900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-4124200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-647300</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1330500</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1628800</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4509800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2833300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10617700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>6124600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>7710600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>3225600</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10203400</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5885700</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7409700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1605,50 +1641,53 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>5908300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>6270200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>6188900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>6010500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>5141000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>5429300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>5489900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,156 +1760,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1445800</v>
+        <v>493700</v>
       </c>
       <c r="E23" s="3">
-        <v>4967400</v>
+        <v>1389400</v>
       </c>
       <c r="F23" s="3">
-        <v>2575000</v>
+        <v>4773600</v>
       </c>
       <c r="G23" s="3">
-        <v>3372100</v>
+        <v>2474500</v>
       </c>
       <c r="H23" s="3">
-        <v>1276600</v>
+        <v>3240600</v>
       </c>
       <c r="I23" s="3">
-        <v>2248100</v>
+        <v>1226800</v>
       </c>
       <c r="J23" s="3">
+        <v>2160400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1514300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-835600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-275500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2904500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1749300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3202200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1312200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3419800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2149900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3542100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1508700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2636700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1742500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3128100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1500100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3149300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>366400</v>
+        <v>678200</v>
       </c>
       <c r="E24" s="3">
-        <v>1048300</v>
+        <v>352100</v>
       </c>
       <c r="F24" s="3">
-        <v>725500</v>
+        <v>1007400</v>
       </c>
       <c r="G24" s="3">
-        <v>713000</v>
+        <v>697200</v>
       </c>
       <c r="H24" s="3">
-        <v>293700</v>
+        <v>685200</v>
       </c>
       <c r="I24" s="3">
-        <v>614400</v>
+        <v>282300</v>
       </c>
       <c r="J24" s="3">
+        <v>590500</v>
+      </c>
+      <c r="K24" s="3">
         <v>484700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>667600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-51900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>722600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>476500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>758800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>305000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>637600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>597000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>840000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>406300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1141100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>515000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>775300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>456600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1124500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1079400</v>
+        <v>-184500</v>
       </c>
       <c r="E26" s="3">
-        <v>3919100</v>
+        <v>1037300</v>
       </c>
       <c r="F26" s="3">
-        <v>1849500</v>
+        <v>3766200</v>
       </c>
       <c r="G26" s="3">
-        <v>2659100</v>
+        <v>1777400</v>
       </c>
       <c r="H26" s="3">
-        <v>982900</v>
+        <v>2555300</v>
       </c>
       <c r="I26" s="3">
-        <v>1633700</v>
+        <v>944500</v>
       </c>
       <c r="J26" s="3">
+        <v>1569900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1029600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1503300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-223600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2181900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1272800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2443400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1007200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2782200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1552900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2702200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1102400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1495600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1227500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2352800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1043500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2024800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>750400</v>
+        <v>-915600</v>
       </c>
       <c r="E27" s="3">
-        <v>3224800</v>
+        <v>721100</v>
       </c>
       <c r="F27" s="3">
-        <v>1526800</v>
+        <v>3098900</v>
       </c>
       <c r="G27" s="3">
-        <v>2017700</v>
+        <v>1467200</v>
       </c>
       <c r="H27" s="3">
-        <v>695400</v>
+        <v>1938900</v>
       </c>
       <c r="I27" s="3">
-        <v>1080500</v>
+        <v>668300</v>
       </c>
       <c r="J27" s="3">
+        <v>1038300</v>
+      </c>
+      <c r="K27" s="3">
         <v>762900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2083600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-547600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1346000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>825600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1627000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>623200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1915100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1239400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1957700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>821300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>885300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>939100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1740200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>727800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1452000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>673600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1384600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1694900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>4124200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>647300</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1330500</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1628800</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>4509800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>2833300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>2670400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>2423800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>3027200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>2053200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>2355100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1122200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>750400</v>
+        <v>-915600</v>
       </c>
       <c r="E33" s="3">
-        <v>3224800</v>
+        <v>721100</v>
       </c>
       <c r="F33" s="3">
-        <v>1526800</v>
+        <v>3098900</v>
       </c>
       <c r="G33" s="3">
-        <v>2017700</v>
+        <v>1467200</v>
       </c>
       <c r="H33" s="3">
-        <v>695400</v>
+        <v>1938900</v>
       </c>
       <c r="I33" s="3">
-        <v>1080500</v>
+        <v>668300</v>
       </c>
       <c r="J33" s="3">
+        <v>1038300</v>
+      </c>
+      <c r="K33" s="3">
         <v>762900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2083600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-547600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1346000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>825600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1627000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>623200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1915100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1239400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1957700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>821300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>885300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>939100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1740200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>727800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1452000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>750400</v>
+        <v>-915600</v>
       </c>
       <c r="E35" s="3">
-        <v>3224800</v>
+        <v>721100</v>
       </c>
       <c r="F35" s="3">
-        <v>1526800</v>
+        <v>3098900</v>
       </c>
       <c r="G35" s="3">
-        <v>2017700</v>
+        <v>1467200</v>
       </c>
       <c r="H35" s="3">
-        <v>695400</v>
+        <v>1938900</v>
       </c>
       <c r="I35" s="3">
-        <v>1080500</v>
+        <v>668300</v>
       </c>
       <c r="J35" s="3">
+        <v>1038300</v>
+      </c>
+      <c r="K35" s="3">
         <v>762900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2083600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-547600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1346000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>825600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1627000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>623200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1915100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1239400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1957700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>821300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>885300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>939100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1740200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>727800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1452000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,156 +2903,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>316119400</v>
+        <v>237538800</v>
       </c>
       <c r="E41" s="3">
-        <v>234292400</v>
+        <v>303784100</v>
       </c>
       <c r="F41" s="3">
-        <v>251872400</v>
+        <v>225150100</v>
       </c>
       <c r="G41" s="3">
-        <v>213475300</v>
+        <v>242044000</v>
       </c>
       <c r="H41" s="3">
-        <v>249952300</v>
+        <v>205145200</v>
       </c>
       <c r="I41" s="3">
-        <v>218222600</v>
+        <v>240198900</v>
       </c>
       <c r="J41" s="3">
+        <v>209707300</v>
+      </c>
+      <c r="K41" s="3">
         <v>225571000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>202919100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>220891500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>163996600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>194104600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>171349700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>197168400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>164605300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>178050000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>144180600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>171178200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>170037600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>183782000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>179666500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>204477700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>167576600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34698000</v>
+        <v>453487900</v>
       </c>
       <c r="E42" s="3">
-        <v>409540800</v>
+        <v>33344100</v>
       </c>
       <c r="F42" s="3">
-        <v>33947600</v>
+        <v>393560100</v>
       </c>
       <c r="G42" s="3">
-        <v>520554600</v>
+        <v>32623000</v>
       </c>
       <c r="H42" s="3">
-        <v>33986000</v>
+        <v>500242000</v>
       </c>
       <c r="I42" s="3">
-        <v>486143000</v>
+        <v>32659900</v>
       </c>
       <c r="J42" s="3">
+        <v>467173200</v>
+      </c>
+      <c r="K42" s="3">
         <v>38143900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>525051700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>37311100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>529056200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>42058800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>579304100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>31521100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>513271000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>25238900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>488778000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>25473600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>484036600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>16268900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>595802500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>19015700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>651761500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3040,8 +3132,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3209,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3286,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3262,230 +3363,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>119400</v>
+        <v>110700</v>
       </c>
       <c r="E47" s="3">
-        <v>98600</v>
+        <v>114700</v>
       </c>
       <c r="F47" s="3">
-        <v>98600</v>
+        <v>94800</v>
       </c>
       <c r="G47" s="3">
-        <v>99600</v>
+        <v>94800</v>
       </c>
       <c r="H47" s="3">
-        <v>106900</v>
+        <v>95800</v>
       </c>
       <c r="I47" s="3">
+        <v>102700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>99700</v>
+      </c>
+      <c r="K47" s="3">
         <v>103800</v>
       </c>
-      <c r="J47" s="3">
-        <v>103800</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>115600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>129800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>130700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>317300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>285900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>311000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>294500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>737700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>719200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>768600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>785400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>897600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>817900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1408600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1286500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33357100</v>
+        <v>32530200</v>
       </c>
       <c r="E48" s="3">
-        <v>33179600</v>
+        <v>32055400</v>
       </c>
       <c r="F48" s="3">
-        <v>32361700</v>
+        <v>31884900</v>
       </c>
       <c r="G48" s="3">
-        <v>31952800</v>
+        <v>31098900</v>
       </c>
       <c r="H48" s="3">
-        <v>31517900</v>
+        <v>30706000</v>
       </c>
       <c r="I48" s="3">
-        <v>31228300</v>
+        <v>30288000</v>
       </c>
       <c r="J48" s="3">
+        <v>30009800</v>
+      </c>
+      <c r="K48" s="3">
         <v>30711500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32522200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34099900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33024900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36724000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31480500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34927800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31643800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28864100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28039600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27120600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>52821000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>26030200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>25510700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>26176000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>23553700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3880700</v>
+        <v>3784100</v>
       </c>
       <c r="E49" s="3">
-        <v>3882800</v>
+        <v>3729300</v>
       </c>
       <c r="F49" s="3">
-        <v>3965800</v>
+        <v>3731300</v>
       </c>
       <c r="G49" s="3">
-        <v>3965800</v>
+        <v>3811100</v>
       </c>
       <c r="H49" s="3">
-        <v>3965800</v>
+        <v>3811100</v>
       </c>
       <c r="I49" s="3">
-        <v>4197300</v>
+        <v>3811100</v>
       </c>
       <c r="J49" s="3">
+        <v>4033500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4199300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4412700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5337300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8160200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5747700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8087800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5457100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5502900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5385200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5351700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5490000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7786600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5497800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5452900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5282100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7338700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4839700</v>
+        <v>3858900</v>
       </c>
       <c r="E52" s="3">
-        <v>4003200</v>
+        <v>4650900</v>
       </c>
       <c r="F52" s="3">
-        <v>4875000</v>
+        <v>3847000</v>
       </c>
       <c r="G52" s="3">
-        <v>4533500</v>
+        <v>4684800</v>
       </c>
       <c r="H52" s="3">
-        <v>5786300</v>
+        <v>4356600</v>
       </c>
       <c r="I52" s="3">
-        <v>4261600</v>
+        <v>5560500</v>
       </c>
       <c r="J52" s="3">
+        <v>4095300</v>
+      </c>
+      <c r="K52" s="3">
         <v>8964300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8922600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10436300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10796200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12949400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16134300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20145200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22854800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11710700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10751600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6807600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7068500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6956300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7286200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12677100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>12528100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1670190800</v>
+        <v>1534623600</v>
       </c>
       <c r="E54" s="3">
-        <v>1519951600</v>
+        <v>1605018100</v>
       </c>
       <c r="F54" s="3">
-        <v>1584202800</v>
+        <v>1460641400</v>
       </c>
       <c r="G54" s="3">
-        <v>1549178900</v>
+        <v>1522385500</v>
       </c>
       <c r="H54" s="3">
-        <v>1559945000</v>
+        <v>1488728200</v>
       </c>
       <c r="I54" s="3">
-        <v>1499146900</v>
+        <v>1499074200</v>
       </c>
       <c r="J54" s="3">
+        <v>1440648500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1528138600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1585498000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1702350800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1583361700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,82 +4039,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>22350100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>20917800</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>20006600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>21478000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>20101600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>19225900</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>22898200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>25886100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>30259400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>26338500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>24286700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>22786500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
         <v>37729200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
         <v>25001000</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4058,82 +4191,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>2858400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2950700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2098600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2746800</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2835600</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2016700</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>1815300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>2759800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>2592800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>2834200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>2290400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>2852100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>2472900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>3005000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4206,156 +4345,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>175741400</v>
+        <v>70009500</v>
       </c>
       <c r="E61" s="3">
-        <v>53147700</v>
+        <v>168883800</v>
       </c>
       <c r="F61" s="3">
-        <v>164606800</v>
+        <v>51073900</v>
       </c>
       <c r="G61" s="3">
-        <v>52054800</v>
+        <v>158183700</v>
       </c>
       <c r="H61" s="3">
-        <v>170430400</v>
+        <v>50023600</v>
       </c>
       <c r="I61" s="3">
-        <v>56857200</v>
+        <v>163780100</v>
       </c>
       <c r="J61" s="3">
+        <v>54638600</v>
+      </c>
+      <c r="K61" s="3">
         <v>166334900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>59718600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>187453200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>61859900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>177461900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43963200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>168898700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>54097600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>140870100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>41046500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>129673800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>41008700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>126560500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>41101900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>138392200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>41775900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6985100</v>
+        <v>6506000</v>
       </c>
       <c r="E62" s="3">
-        <v>6671600</v>
+        <v>6712500</v>
       </c>
       <c r="F62" s="3">
-        <v>6537700</v>
+        <v>6411300</v>
       </c>
       <c r="G62" s="3">
-        <v>5662800</v>
+        <v>6282600</v>
       </c>
       <c r="H62" s="3">
-        <v>6382000</v>
+        <v>5441800</v>
       </c>
       <c r="I62" s="3">
-        <v>6184800</v>
+        <v>6133000</v>
       </c>
       <c r="J62" s="3">
+        <v>5943500</v>
+      </c>
+      <c r="K62" s="3">
         <v>6783700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7107300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6967700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8322500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12323400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15154400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17011200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19181900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12837100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11585000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9003600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8863700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8078300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7775400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13029300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12610200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1601843000</v>
+        <v>1470209500</v>
       </c>
       <c r="E66" s="3">
-        <v>1452418600</v>
+        <v>1539337300</v>
       </c>
       <c r="F66" s="3">
-        <v>1518152900</v>
+        <v>1395743600</v>
       </c>
       <c r="G66" s="3">
-        <v>1483650000</v>
+        <v>1458912900</v>
       </c>
       <c r="H66" s="3">
-        <v>1494640300</v>
+        <v>1425756400</v>
       </c>
       <c r="I66" s="3">
-        <v>1435098100</v>
+        <v>1436317800</v>
       </c>
       <c r="J66" s="3">
+        <v>1379099000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1465249100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1519324500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1631690600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1509199600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38518500</v>
+        <v>33947500</v>
       </c>
       <c r="E72" s="3">
-        <v>37646700</v>
+        <v>37015500</v>
       </c>
       <c r="F72" s="3">
-        <v>36035900</v>
+        <v>36177700</v>
       </c>
       <c r="G72" s="3">
-        <v>34472800</v>
+        <v>34629700</v>
       </c>
       <c r="H72" s="3">
-        <v>33690200</v>
+        <v>33127600</v>
       </c>
       <c r="I72" s="3">
-        <v>33050900</v>
+        <v>32375600</v>
       </c>
       <c r="J72" s="3">
+        <v>31761200</v>
+      </c>
+      <c r="K72" s="3">
         <v>32832900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33673100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>36431500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38298100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39706800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>37388300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>39071500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>38096500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35056600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>33541700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>34225200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>33549700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>34846900</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68347800</v>
+        <v>64414100</v>
       </c>
       <c r="E76" s="3">
-        <v>67533000</v>
+        <v>65680800</v>
       </c>
       <c r="F76" s="3">
-        <v>66049900</v>
+        <v>64897800</v>
       </c>
       <c r="G76" s="3">
-        <v>65528900</v>
+        <v>63472500</v>
       </c>
       <c r="H76" s="3">
-        <v>65304700</v>
+        <v>62971800</v>
       </c>
       <c r="I76" s="3">
-        <v>64048800</v>
+        <v>62756400</v>
       </c>
       <c r="J76" s="3">
+        <v>61549600</v>
+      </c>
+      <c r="K76" s="3">
         <v>62889500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66173500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70660200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74162100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78050200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73515600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>73961000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>72187700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>66621000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>64737000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>64672200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>65555600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>67656000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>67443900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>73011000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>72721100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>750400</v>
+        <v>-915600</v>
       </c>
       <c r="E81" s="3">
-        <v>3224800</v>
+        <v>721100</v>
       </c>
       <c r="F81" s="3">
-        <v>1526800</v>
+        <v>3098900</v>
       </c>
       <c r="G81" s="3">
-        <v>2017700</v>
+        <v>1467200</v>
       </c>
       <c r="H81" s="3">
-        <v>695400</v>
+        <v>1938900</v>
       </c>
       <c r="I81" s="3">
-        <v>1080500</v>
+        <v>668300</v>
       </c>
       <c r="J81" s="3">
+        <v>1038300</v>
+      </c>
+      <c r="K81" s="3">
         <v>762900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2083600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-547600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1346000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>825600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1627000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>623200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1915100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1239400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1957700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>821300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>885300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>939100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1740200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>727800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1452000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5650300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2752500</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5462500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="D83" s="3">
+        <v>2731900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5429800</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2645100</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5249300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>3003700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>3068100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>2769200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>2468300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>2504300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>2301200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3">
         <v>2340600</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>21063100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-4178600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>83853000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="D89" s="3">
+        <v>7130400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>20241200</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-4015500</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>80580900</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>8778900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>3392700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>21205800</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>9214900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
         <v>22647400</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-6711100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3570400</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5799800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="D91" s="3">
+        <v>-6483100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-6449200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3431100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5573500</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4625300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-10501500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-6621800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-7123100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="D94" s="3">
+        <v>-2961300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-10091700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-6363400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6845200</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5084100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,8 +6701,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6508,11 +6741,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6520,11 +6753,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6532,19 +6765,22 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,138 +7007,144 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-3763400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>362200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2248100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="D100" s="3">
+        <v>-284300</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3616600</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>348100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2160400</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>178600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>2184600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-900200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>-953700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
         <v>2384000</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>2235600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-96500</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-2694400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="D101" s="3">
+        <v>2284000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2148400</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-92800</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2589300</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>778700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>845800</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>947500</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
         <v>1513000</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6913,78 +7161,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>9033900</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-10534700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>76249300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="D102" s="3">
+        <v>6168900</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>8681400</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-10123600</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>73274000</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>4652100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>3339800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>14449100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>3766500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>16455100</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,181 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>12410600</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10815800</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>9720700</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12701800</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11069600</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9948700</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>9862300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>11817800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>13838500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13949800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>13909700</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>11989100</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>12963500</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>13604100</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>14341600</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,8 +915,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,85 +1265,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-768000</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-847800</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-792900</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-786000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-867700</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-811500</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>-854800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>-814900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>-889600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-852900</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>-611600</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>-534700</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>-589000</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-539700</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3">
         <v>-567000</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7792700</v>
+        <v>465500</v>
       </c>
       <c r="E17" s="3">
-        <v>559500</v>
+        <v>7975500</v>
       </c>
       <c r="F17" s="3">
-        <v>5394900</v>
+        <v>572700</v>
       </c>
       <c r="G17" s="3">
-        <v>195500</v>
+        <v>5521500</v>
       </c>
       <c r="H17" s="3">
-        <v>5149600</v>
+        <v>200100</v>
       </c>
       <c r="I17" s="3">
-        <v>275300</v>
+        <v>5270400</v>
       </c>
       <c r="J17" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6073200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>537600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8143600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>925900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8100700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>403000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8077200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>315800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8066200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>292400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5419700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>228400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8273600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>574500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8121000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>736000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10070100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>4618000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5420900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4571100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4726300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5548000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4678300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>3789100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>3674200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>5737800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>5872600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>5843500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>6569300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>4689900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>5483200</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>4271500</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,162 +1564,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-4124200</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-647300</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1330500</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4221000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-662500</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1361700</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1628800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-4509800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2833300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>3225600</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>10203400</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>5885700</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>7409700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>5908300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6270200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>6188900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>6010500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>5141000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5429300</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5489900</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,162 +1802,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>493700</v>
+        <v>2183500</v>
       </c>
       <c r="E23" s="3">
-        <v>1389400</v>
+        <v>505300</v>
       </c>
       <c r="F23" s="3">
-        <v>4773600</v>
+        <v>1422000</v>
       </c>
       <c r="G23" s="3">
-        <v>2474500</v>
+        <v>4885500</v>
       </c>
       <c r="H23" s="3">
-        <v>3240600</v>
+        <v>2532600</v>
       </c>
       <c r="I23" s="3">
-        <v>1226800</v>
+        <v>3316600</v>
       </c>
       <c r="J23" s="3">
+        <v>1255600</v>
+      </c>
+      <c r="K23" s="3">
         <v>2160400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1514300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-835600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-275500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2904500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1749300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3202200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1312200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3419800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2149900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3542100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1508700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2636700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1742500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3128100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1500100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3149300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>678200</v>
+        <v>404200</v>
       </c>
       <c r="E24" s="3">
-        <v>352100</v>
+        <v>694100</v>
       </c>
       <c r="F24" s="3">
-        <v>1007400</v>
+        <v>360300</v>
       </c>
       <c r="G24" s="3">
-        <v>697200</v>
+        <v>1031000</v>
       </c>
       <c r="H24" s="3">
-        <v>685200</v>
+        <v>713500</v>
       </c>
       <c r="I24" s="3">
-        <v>282300</v>
+        <v>701300</v>
       </c>
       <c r="J24" s="3">
+        <v>288900</v>
+      </c>
+      <c r="K24" s="3">
         <v>590500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>484700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>667600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-51900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>722600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>476500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>758800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>305000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>637600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>597000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>840000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>406300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1141100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>515000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>775300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>456600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1124500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-184500</v>
+        <v>1779300</v>
       </c>
       <c r="E26" s="3">
-        <v>1037300</v>
+        <v>-188800</v>
       </c>
       <c r="F26" s="3">
-        <v>3766200</v>
+        <v>1061600</v>
       </c>
       <c r="G26" s="3">
-        <v>1777400</v>
+        <v>3854500</v>
       </c>
       <c r="H26" s="3">
-        <v>2555300</v>
+        <v>1819100</v>
       </c>
       <c r="I26" s="3">
-        <v>944500</v>
+        <v>2615300</v>
       </c>
       <c r="J26" s="3">
+        <v>966700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1569900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1029600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1503300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-223600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2181900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1272800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2443400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1007200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2782200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1552900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2702200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1102400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1495600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1227500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2352800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1043500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2024800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-915600</v>
+        <v>1401600</v>
       </c>
       <c r="E27" s="3">
-        <v>721100</v>
+        <v>-937100</v>
       </c>
       <c r="F27" s="3">
-        <v>3098900</v>
+        <v>738000</v>
       </c>
       <c r="G27" s="3">
-        <v>1467200</v>
+        <v>3171600</v>
       </c>
       <c r="H27" s="3">
-        <v>1938900</v>
+        <v>1501600</v>
       </c>
       <c r="I27" s="3">
-        <v>668300</v>
+        <v>1984400</v>
       </c>
       <c r="J27" s="3">
+        <v>683900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1038300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>762900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2083600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-547600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1346000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>825600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>623200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1915100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1239400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1957700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>821300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>885300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>939100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1740200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>727800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1452000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>4124200</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>647300</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1330500</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4221000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>662500</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1361700</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>1628800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>4509800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>2833300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2670400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>2423800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>3027200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>2053200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>2355100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1122200</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-915600</v>
+        <v>1401600</v>
       </c>
       <c r="E33" s="3">
-        <v>721100</v>
+        <v>-937100</v>
       </c>
       <c r="F33" s="3">
-        <v>3098900</v>
+        <v>738000</v>
       </c>
       <c r="G33" s="3">
-        <v>1467200</v>
+        <v>3171600</v>
       </c>
       <c r="H33" s="3">
-        <v>1938900</v>
+        <v>1501600</v>
       </c>
       <c r="I33" s="3">
-        <v>668300</v>
+        <v>1984400</v>
       </c>
       <c r="J33" s="3">
+        <v>683900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1038300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>762900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2083600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-547600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1346000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>825600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>623200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1915100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1239400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1957700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>821300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>885300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>939100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1740200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>727800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1452000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-915600</v>
+        <v>1401600</v>
       </c>
       <c r="E35" s="3">
-        <v>721100</v>
+        <v>-937100</v>
       </c>
       <c r="F35" s="3">
-        <v>3098900</v>
+        <v>738000</v>
       </c>
       <c r="G35" s="3">
-        <v>1467200</v>
+        <v>3171600</v>
       </c>
       <c r="H35" s="3">
-        <v>1938900</v>
+        <v>1501600</v>
       </c>
       <c r="I35" s="3">
-        <v>668300</v>
+        <v>1984400</v>
       </c>
       <c r="J35" s="3">
+        <v>683900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1038300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>762900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2083600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-547600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1346000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>825600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>623200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1915100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1239400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1957700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>821300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>885300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>939100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1740200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>727800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1452000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,162 +2989,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>237538800</v>
+        <v>284364300</v>
       </c>
       <c r="E41" s="3">
-        <v>303784100</v>
+        <v>243111700</v>
       </c>
       <c r="F41" s="3">
-        <v>225150100</v>
+        <v>310911200</v>
       </c>
       <c r="G41" s="3">
-        <v>242044000</v>
+        <v>230432300</v>
       </c>
       <c r="H41" s="3">
-        <v>205145200</v>
+        <v>247722600</v>
       </c>
       <c r="I41" s="3">
-        <v>240198900</v>
+        <v>209958100</v>
       </c>
       <c r="J41" s="3">
+        <v>245834200</v>
+      </c>
+      <c r="K41" s="3">
         <v>209707300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>225571000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>202919100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>220891500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>163996600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>194104600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171349700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>197168400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>164605300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>178050000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>144180600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>171178200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>170037600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>183782000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>179666500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>204477700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>167576600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>453487900</v>
+        <v>52345600</v>
       </c>
       <c r="E42" s="3">
-        <v>33344100</v>
+        <v>464127100</v>
       </c>
       <c r="F42" s="3">
-        <v>393560100</v>
+        <v>34126400</v>
       </c>
       <c r="G42" s="3">
-        <v>32623000</v>
+        <v>402793400</v>
       </c>
       <c r="H42" s="3">
-        <v>500242000</v>
+        <v>33388300</v>
       </c>
       <c r="I42" s="3">
-        <v>32659900</v>
+        <v>511978200</v>
       </c>
       <c r="J42" s="3">
+        <v>33426100</v>
+      </c>
+      <c r="K42" s="3">
         <v>467173200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38143900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>525051700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>37311100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>529056200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>42058800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>579304100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>31521100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>513271000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>25238900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>488778000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>25473600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>484036600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>16268900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>595802500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>19015700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>651761500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3135,8 +3227,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3307,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3387,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,239 +3467,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>110700</v>
+        <v>117400</v>
       </c>
       <c r="E47" s="3">
-        <v>114700</v>
+        <v>113300</v>
       </c>
       <c r="F47" s="3">
-        <v>94800</v>
+        <v>117400</v>
       </c>
       <c r="G47" s="3">
-        <v>94800</v>
+        <v>97000</v>
       </c>
       <c r="H47" s="3">
-        <v>95800</v>
+        <v>97000</v>
       </c>
       <c r="I47" s="3">
-        <v>102700</v>
+        <v>98000</v>
       </c>
       <c r="J47" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K47" s="3">
         <v>99700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>103800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>115600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>129800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>130700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>317300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>285900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>311000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>294500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>737700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>719200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>768600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>785400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>897600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>817900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1408600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1286500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32530200</v>
+        <v>33735400</v>
       </c>
       <c r="E48" s="3">
-        <v>32055400</v>
+        <v>33293400</v>
       </c>
       <c r="F48" s="3">
-        <v>31884900</v>
+        <v>32807500</v>
       </c>
       <c r="G48" s="3">
-        <v>31098900</v>
+        <v>32632900</v>
       </c>
       <c r="H48" s="3">
-        <v>30706000</v>
+        <v>31828500</v>
       </c>
       <c r="I48" s="3">
-        <v>30288000</v>
+        <v>31426300</v>
       </c>
       <c r="J48" s="3">
+        <v>30998600</v>
+      </c>
+      <c r="K48" s="3">
         <v>30009800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30711500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32522200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34099900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33024900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36724000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31480500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34927800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31643800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28864100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28039600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27120600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>52821000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>26030200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>25510700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>26176000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>23553700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3784100</v>
+        <v>3872900</v>
       </c>
       <c r="E49" s="3">
-        <v>3729300</v>
+        <v>3872900</v>
       </c>
       <c r="F49" s="3">
-        <v>3731300</v>
+        <v>3816800</v>
       </c>
       <c r="G49" s="3">
-        <v>3811100</v>
+        <v>3818800</v>
       </c>
       <c r="H49" s="3">
-        <v>3811100</v>
+        <v>3900500</v>
       </c>
       <c r="I49" s="3">
-        <v>3811100</v>
+        <v>3900500</v>
       </c>
       <c r="J49" s="3">
+        <v>3900500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4033500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4199300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4412700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5337300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8160200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5747700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8087800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5457100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5502900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5385200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5351700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5490000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7786600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5497800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5452900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5282100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7338700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3858900</v>
+        <v>4599700</v>
       </c>
       <c r="E52" s="3">
-        <v>4650900</v>
+        <v>3949500</v>
       </c>
       <c r="F52" s="3">
-        <v>3847000</v>
+        <v>4760000</v>
       </c>
       <c r="G52" s="3">
-        <v>4684800</v>
+        <v>3937200</v>
       </c>
       <c r="H52" s="3">
-        <v>4356600</v>
+        <v>4794700</v>
       </c>
       <c r="I52" s="3">
-        <v>5560500</v>
+        <v>4458900</v>
       </c>
       <c r="J52" s="3">
+        <v>5691000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4095300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8964300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8922600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10436300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10796200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12949400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16134300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20145200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22854800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11710700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10751600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6807600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7068500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6956300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7286200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>12677100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>12528100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1534623600</v>
+        <v>1626686700</v>
       </c>
       <c r="E54" s="3">
-        <v>1605018100</v>
+        <v>1570627400</v>
       </c>
       <c r="F54" s="3">
-        <v>1460641400</v>
+        <v>1642673400</v>
       </c>
       <c r="G54" s="3">
-        <v>1522385500</v>
+        <v>1494909500</v>
       </c>
       <c r="H54" s="3">
-        <v>1488728200</v>
+        <v>1558102200</v>
       </c>
       <c r="I54" s="3">
-        <v>1499074200</v>
+        <v>1523655300</v>
       </c>
       <c r="J54" s="3">
+        <v>1534244000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1440648500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1528138600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1585498000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1702350800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1583361700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,8 +4169,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4051,74 +4181,77 @@
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
-        <v>21478000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>20101600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>21981900</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>20573200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>19225900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>22898200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>25886100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>30259400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>26338500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>24286700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>22786500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>37729200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>25001000</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4194,8 +4327,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4205,74 +4341,77 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>2746800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2835600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2811300</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2902100</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>2016700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>1815300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>2759800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2592800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>2834200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>2290400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>2852100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>2472900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>3005000</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,162 +4487,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70009500</v>
+        <v>191329600</v>
       </c>
       <c r="E61" s="3">
-        <v>168883800</v>
+        <v>71652000</v>
       </c>
       <c r="F61" s="3">
-        <v>51073900</v>
+        <v>172845900</v>
       </c>
       <c r="G61" s="3">
-        <v>158183700</v>
+        <v>52272100</v>
       </c>
       <c r="H61" s="3">
-        <v>50023600</v>
+        <v>161894800</v>
       </c>
       <c r="I61" s="3">
-        <v>163780100</v>
+        <v>51197200</v>
       </c>
       <c r="J61" s="3">
+        <v>167622500</v>
+      </c>
+      <c r="K61" s="3">
         <v>54638600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>166334900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>59718600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>187453200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>61859900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>177461900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43963200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>168898700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>54097600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>140870100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>41046500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>129673800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>41008700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>126560500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>41101900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>138392200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>41775900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6506000</v>
+        <v>6780200</v>
       </c>
       <c r="E62" s="3">
-        <v>6712500</v>
+        <v>6658700</v>
       </c>
       <c r="F62" s="3">
-        <v>6411300</v>
+        <v>6870000</v>
       </c>
       <c r="G62" s="3">
-        <v>6282600</v>
+        <v>6561700</v>
       </c>
       <c r="H62" s="3">
-        <v>5441800</v>
+        <v>6430000</v>
       </c>
       <c r="I62" s="3">
-        <v>6133000</v>
+        <v>5569500</v>
       </c>
       <c r="J62" s="3">
+        <v>6276900</v>
+      </c>
+      <c r="K62" s="3">
         <v>5943500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6783700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7107300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6967700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8322500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12323400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15154400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17011200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19181900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12837100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11585000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9003600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8863700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8078300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7775400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13029300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12610200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1470209500</v>
+        <v>1558996400</v>
       </c>
       <c r="E66" s="3">
-        <v>1539337300</v>
+        <v>1504702100</v>
       </c>
       <c r="F66" s="3">
-        <v>1395743600</v>
+        <v>1575451700</v>
       </c>
       <c r="G66" s="3">
-        <v>1458912900</v>
+        <v>1428489100</v>
       </c>
       <c r="H66" s="3">
-        <v>1425756400</v>
+        <v>1493140500</v>
       </c>
       <c r="I66" s="3">
-        <v>1436317800</v>
+        <v>1459206000</v>
       </c>
       <c r="J66" s="3">
+        <v>1470015300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1379099000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1465249100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1519324500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1631690600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1509199600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33947500</v>
+        <v>36218000</v>
       </c>
       <c r="E72" s="3">
-        <v>37015500</v>
+        <v>34743900</v>
       </c>
       <c r="F72" s="3">
-        <v>36177700</v>
+        <v>37883900</v>
       </c>
       <c r="G72" s="3">
-        <v>34629700</v>
+        <v>37026500</v>
       </c>
       <c r="H72" s="3">
-        <v>33127600</v>
+        <v>35442200</v>
       </c>
       <c r="I72" s="3">
-        <v>32375600</v>
+        <v>33904900</v>
       </c>
       <c r="J72" s="3">
+        <v>33135200</v>
+      </c>
+      <c r="K72" s="3">
         <v>31761200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32832900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33673100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36431500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38298100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39706800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>37388300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>39071500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>38096500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35056600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>33541700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>34225200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>33549700</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>34846900</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64414100</v>
+        <v>67690300</v>
       </c>
       <c r="E76" s="3">
-        <v>65680800</v>
+        <v>65925300</v>
       </c>
       <c r="F76" s="3">
-        <v>64897800</v>
+        <v>67221700</v>
       </c>
       <c r="G76" s="3">
-        <v>63472500</v>
+        <v>66420400</v>
       </c>
       <c r="H76" s="3">
-        <v>62971800</v>
+        <v>64961700</v>
       </c>
       <c r="I76" s="3">
-        <v>62756400</v>
+        <v>64449200</v>
       </c>
       <c r="J76" s="3">
+        <v>64228700</v>
+      </c>
+      <c r="K76" s="3">
         <v>61549600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62889500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66173500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>70660200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74162100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78050200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>73515600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>73961000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>72187700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>66621000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>64737000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>64672200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>65555600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>67656000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>67443900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>73011000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>72721100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-915600</v>
+        <v>1401600</v>
       </c>
       <c r="E81" s="3">
-        <v>721100</v>
+        <v>-937100</v>
       </c>
       <c r="F81" s="3">
-        <v>3098900</v>
+        <v>738000</v>
       </c>
       <c r="G81" s="3">
-        <v>1467200</v>
+        <v>3171600</v>
       </c>
       <c r="H81" s="3">
-        <v>1938900</v>
+        <v>1501600</v>
       </c>
       <c r="I81" s="3">
-        <v>668300</v>
+        <v>1984400</v>
       </c>
       <c r="J81" s="3">
+        <v>683900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1038300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>762900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2083600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-547600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1346000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>825600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>623200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1915100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1239400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1957700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>821300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>885300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>939100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1740200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>727800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1452000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2731900</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>5429800</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>2645100</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>5249300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>3003700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3068100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>2769200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>2468300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>2504300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2301200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3">
         <v>2340600</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>7130400</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>20241200</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
-        <v>-4015500</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>80580900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>8778900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>3392700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>21205800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>9214900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>22647400</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-6483100</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6449200</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3431100</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5573500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4625300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2961300</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>-10091700</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>-6363400</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6845200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5084100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,8 +6934,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6744,11 +6977,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6756,11 +6989,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6768,19 +7001,22 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,144 +7252,150 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-284300</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>-3616600</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>348100</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>2160400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>178600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2184600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-900200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>-953700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>2384000</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>2284000</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>2148400</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>-92800</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2589300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>778700</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>845800</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>947500</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>1513000</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -7164,81 +7412,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>6168900</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>8681400</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
-        <v>-10123600</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>73274000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>4652100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>3339800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>14449100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>3766500</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>16455100</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -767,19 +767,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>12701800</v>
+        <v>13164700</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>11069600</v>
+        <v>11473000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3">
-        <v>9948700</v>
+        <v>10311300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -1277,19 +1277,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>-786000</v>
+        <v>-814700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>-867700</v>
+        <v>-899300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>-811500</v>
+        <v>-841100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1381,25 +1381,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>465500</v>
+        <v>482400</v>
       </c>
       <c r="E17" s="3">
-        <v>7975500</v>
+        <v>8266200</v>
       </c>
       <c r="F17" s="3">
-        <v>572700</v>
+        <v>593500</v>
       </c>
       <c r="G17" s="3">
-        <v>5521500</v>
+        <v>5722700</v>
       </c>
       <c r="H17" s="3">
-        <v>200100</v>
+        <v>207400</v>
       </c>
       <c r="I17" s="3">
-        <v>5270400</v>
+        <v>5462500</v>
       </c>
       <c r="J17" s="3">
-        <v>281700</v>
+        <v>292000</v>
       </c>
       <c r="K17" s="3">
         <v>6073200</v>
@@ -1464,19 +1464,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>4726300</v>
+        <v>4898500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>5548000</v>
+        <v>5750200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>4678300</v>
+        <v>4848800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -1574,19 +1574,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-4221000</v>
+        <v>-4374800</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>-662500</v>
+        <v>-686600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3">
-        <v>-1361700</v>
+        <v>-1411400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1811,25 +1811,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2183500</v>
+        <v>2263100</v>
       </c>
       <c r="E23" s="3">
-        <v>505300</v>
+        <v>523700</v>
       </c>
       <c r="F23" s="3">
-        <v>1422000</v>
+        <v>1473800</v>
       </c>
       <c r="G23" s="3">
-        <v>4885500</v>
+        <v>5063600</v>
       </c>
       <c r="H23" s="3">
-        <v>2532600</v>
+        <v>2624900</v>
       </c>
       <c r="I23" s="3">
-        <v>3316600</v>
+        <v>3437400</v>
       </c>
       <c r="J23" s="3">
-        <v>1255600</v>
+        <v>1301300</v>
       </c>
       <c r="K23" s="3">
         <v>2160400</v>
@@ -1891,25 +1891,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>404200</v>
+        <v>419000</v>
       </c>
       <c r="E24" s="3">
-        <v>694100</v>
+        <v>719400</v>
       </c>
       <c r="F24" s="3">
-        <v>360300</v>
+        <v>373500</v>
       </c>
       <c r="G24" s="3">
-        <v>1031000</v>
+        <v>1068600</v>
       </c>
       <c r="H24" s="3">
-        <v>713500</v>
+        <v>739500</v>
       </c>
       <c r="I24" s="3">
-        <v>701300</v>
+        <v>726800</v>
       </c>
       <c r="J24" s="3">
-        <v>288900</v>
+        <v>299400</v>
       </c>
       <c r="K24" s="3">
         <v>590500</v>
@@ -2051,25 +2051,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1779300</v>
+        <v>1844100</v>
       </c>
       <c r="E26" s="3">
-        <v>-188800</v>
+        <v>-195700</v>
       </c>
       <c r="F26" s="3">
-        <v>1061600</v>
+        <v>1100300</v>
       </c>
       <c r="G26" s="3">
-        <v>3854500</v>
+        <v>3995000</v>
       </c>
       <c r="H26" s="3">
-        <v>1819100</v>
+        <v>1885400</v>
       </c>
       <c r="I26" s="3">
-        <v>2615300</v>
+        <v>2710600</v>
       </c>
       <c r="J26" s="3">
-        <v>966700</v>
+        <v>1001900</v>
       </c>
       <c r="K26" s="3">
         <v>1569900</v>
@@ -2131,25 +2131,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1401600</v>
+        <v>1452600</v>
       </c>
       <c r="E27" s="3">
-        <v>-937100</v>
+        <v>-971200</v>
       </c>
       <c r="F27" s="3">
-        <v>738000</v>
+        <v>764900</v>
       </c>
       <c r="G27" s="3">
-        <v>3171600</v>
+        <v>3287200</v>
       </c>
       <c r="H27" s="3">
-        <v>1501600</v>
+        <v>1556300</v>
       </c>
       <c r="I27" s="3">
-        <v>1984400</v>
+        <v>2056800</v>
       </c>
       <c r="J27" s="3">
-        <v>683900</v>
+        <v>708900</v>
       </c>
       <c r="K27" s="3">
         <v>1038300</v>
@@ -2534,19 +2534,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>4221000</v>
+        <v>4374800</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>662500</v>
+        <v>686600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3">
-        <v>1361700</v>
+        <v>1411400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -2611,25 +2611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1401600</v>
+        <v>1452600</v>
       </c>
       <c r="E33" s="3">
-        <v>-937100</v>
+        <v>-971200</v>
       </c>
       <c r="F33" s="3">
-        <v>738000</v>
+        <v>764900</v>
       </c>
       <c r="G33" s="3">
-        <v>3171600</v>
+        <v>3287200</v>
       </c>
       <c r="H33" s="3">
-        <v>1501600</v>
+        <v>1556300</v>
       </c>
       <c r="I33" s="3">
-        <v>1984400</v>
+        <v>2056800</v>
       </c>
       <c r="J33" s="3">
-        <v>683900</v>
+        <v>708900</v>
       </c>
       <c r="K33" s="3">
         <v>1038300</v>
@@ -2771,25 +2771,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1401600</v>
+        <v>1452600</v>
       </c>
       <c r="E35" s="3">
-        <v>-937100</v>
+        <v>-971200</v>
       </c>
       <c r="F35" s="3">
-        <v>738000</v>
+        <v>764900</v>
       </c>
       <c r="G35" s="3">
-        <v>3171600</v>
+        <v>3287200</v>
       </c>
       <c r="H35" s="3">
-        <v>1501600</v>
+        <v>1556300</v>
       </c>
       <c r="I35" s="3">
-        <v>1984400</v>
+        <v>2056800</v>
       </c>
       <c r="J35" s="3">
-        <v>683900</v>
+        <v>708900</v>
       </c>
       <c r="K35" s="3">
         <v>1038300</v>
@@ -2996,25 +2996,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>284364300</v>
+        <v>294727100</v>
       </c>
       <c r="E41" s="3">
-        <v>243111700</v>
+        <v>251971200</v>
       </c>
       <c r="F41" s="3">
-        <v>310911200</v>
+        <v>322241400</v>
       </c>
       <c r="G41" s="3">
-        <v>230432300</v>
+        <v>238829700</v>
       </c>
       <c r="H41" s="3">
-        <v>247722600</v>
+        <v>256750200</v>
       </c>
       <c r="I41" s="3">
-        <v>209958100</v>
+        <v>217609400</v>
       </c>
       <c r="J41" s="3">
-        <v>245834200</v>
+        <v>254792900</v>
       </c>
       <c r="K41" s="3">
         <v>209707300</v>
@@ -3076,25 +3076,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52345600</v>
+        <v>54253200</v>
       </c>
       <c r="E42" s="3">
-        <v>464127100</v>
+        <v>481040900</v>
       </c>
       <c r="F42" s="3">
-        <v>34126400</v>
+        <v>35370000</v>
       </c>
       <c r="G42" s="3">
-        <v>402793400</v>
+        <v>417472000</v>
       </c>
       <c r="H42" s="3">
-        <v>33388300</v>
+        <v>34605100</v>
       </c>
       <c r="I42" s="3">
-        <v>511978200</v>
+        <v>530635700</v>
       </c>
       <c r="J42" s="3">
-        <v>33426100</v>
+        <v>34644200</v>
       </c>
       <c r="K42" s="3">
         <v>467173200</v>
@@ -3476,25 +3476,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E47" s="3">
         <v>117400</v>
       </c>
-      <c r="E47" s="3">
-        <v>113300</v>
-      </c>
       <c r="F47" s="3">
-        <v>117400</v>
+        <v>121700</v>
       </c>
       <c r="G47" s="3">
-        <v>97000</v>
+        <v>100500</v>
       </c>
       <c r="H47" s="3">
-        <v>97000</v>
+        <v>100500</v>
       </c>
       <c r="I47" s="3">
-        <v>98000</v>
+        <v>101600</v>
       </c>
       <c r="J47" s="3">
-        <v>105100</v>
+        <v>109000</v>
       </c>
       <c r="K47" s="3">
         <v>99700</v>
@@ -3556,25 +3556,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33735400</v>
+        <v>34964800</v>
       </c>
       <c r="E48" s="3">
-        <v>33293400</v>
+        <v>34506700</v>
       </c>
       <c r="F48" s="3">
-        <v>32807500</v>
+        <v>34003100</v>
       </c>
       <c r="G48" s="3">
-        <v>32632900</v>
+        <v>33822100</v>
       </c>
       <c r="H48" s="3">
-        <v>31828500</v>
+        <v>32988400</v>
       </c>
       <c r="I48" s="3">
-        <v>31426300</v>
+        <v>32571600</v>
       </c>
       <c r="J48" s="3">
-        <v>30998600</v>
+        <v>32128300</v>
       </c>
       <c r="K48" s="3">
         <v>30009800</v>
@@ -3636,25 +3636,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3872900</v>
+        <v>4014100</v>
       </c>
       <c r="E49" s="3">
-        <v>3872900</v>
+        <v>4014100</v>
       </c>
       <c r="F49" s="3">
-        <v>3816800</v>
+        <v>3955900</v>
       </c>
       <c r="G49" s="3">
-        <v>3818800</v>
+        <v>3958000</v>
       </c>
       <c r="H49" s="3">
-        <v>3900500</v>
+        <v>4042600</v>
       </c>
       <c r="I49" s="3">
-        <v>3900500</v>
+        <v>4042600</v>
       </c>
       <c r="J49" s="3">
-        <v>3900500</v>
+        <v>4042600</v>
       </c>
       <c r="K49" s="3">
         <v>4033500</v>
@@ -3876,25 +3876,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4599700</v>
+        <v>4767300</v>
       </c>
       <c r="E52" s="3">
-        <v>3949500</v>
+        <v>4093400</v>
       </c>
       <c r="F52" s="3">
-        <v>4760000</v>
+        <v>4933500</v>
       </c>
       <c r="G52" s="3">
-        <v>3937200</v>
+        <v>4080700</v>
       </c>
       <c r="H52" s="3">
-        <v>4794700</v>
+        <v>4969400</v>
       </c>
       <c r="I52" s="3">
-        <v>4458900</v>
+        <v>4621300</v>
       </c>
       <c r="J52" s="3">
-        <v>5691000</v>
+        <v>5898400</v>
       </c>
       <c r="K52" s="3">
         <v>4095300</v>
@@ -4036,25 +4036,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1626686700</v>
+        <v>1685966400</v>
       </c>
       <c r="E54" s="3">
-        <v>1570627400</v>
+        <v>1627864200</v>
       </c>
       <c r="F54" s="3">
-        <v>1642673400</v>
+        <v>1702535700</v>
       </c>
       <c r="G54" s="3">
-        <v>1494909500</v>
+        <v>1549387000</v>
       </c>
       <c r="H54" s="3">
-        <v>1558102200</v>
+        <v>1614882500</v>
       </c>
       <c r="I54" s="3">
-        <v>1523655300</v>
+        <v>1579180300</v>
       </c>
       <c r="J54" s="3">
-        <v>1534244000</v>
+        <v>1590155000</v>
       </c>
       <c r="K54" s="3">
         <v>1440648500</v>
@@ -4185,13 +4185,13 @@
         <v>4</v>
       </c>
       <c r="G57" s="3">
-        <v>21981900</v>
+        <v>22783000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I57" s="3">
-        <v>20573200</v>
+        <v>21322900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -4345,13 +4345,13 @@
         <v>4</v>
       </c>
       <c r="G59" s="3">
-        <v>2811300</v>
+        <v>2913700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3">
-        <v>2902100</v>
+        <v>3007900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4496,25 +4496,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>191329600</v>
+        <v>198302000</v>
       </c>
       <c r="E61" s="3">
-        <v>71652000</v>
+        <v>74263100</v>
       </c>
       <c r="F61" s="3">
-        <v>172845900</v>
+        <v>179144800</v>
       </c>
       <c r="G61" s="3">
-        <v>52272100</v>
+        <v>54177000</v>
       </c>
       <c r="H61" s="3">
-        <v>161894800</v>
+        <v>167794600</v>
       </c>
       <c r="I61" s="3">
-        <v>51197200</v>
+        <v>53062900</v>
       </c>
       <c r="J61" s="3">
-        <v>167622500</v>
+        <v>173731000</v>
       </c>
       <c r="K61" s="3">
         <v>54638600</v>
@@ -4576,25 +4576,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6780200</v>
+        <v>7027200</v>
       </c>
       <c r="E62" s="3">
-        <v>6658700</v>
+        <v>6901300</v>
       </c>
       <c r="F62" s="3">
-        <v>6870000</v>
+        <v>7120300</v>
       </c>
       <c r="G62" s="3">
-        <v>6561700</v>
+        <v>6800800</v>
       </c>
       <c r="H62" s="3">
-        <v>6430000</v>
+        <v>6664300</v>
       </c>
       <c r="I62" s="3">
-        <v>5569500</v>
+        <v>5772400</v>
       </c>
       <c r="J62" s="3">
-        <v>6276900</v>
+        <v>6505600</v>
       </c>
       <c r="K62" s="3">
         <v>5943500</v>
@@ -4896,25 +4896,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1558996400</v>
+        <v>1615809300</v>
       </c>
       <c r="E66" s="3">
-        <v>1504702100</v>
+        <v>1559536400</v>
       </c>
       <c r="F66" s="3">
-        <v>1575451700</v>
+        <v>1632864300</v>
       </c>
       <c r="G66" s="3">
-        <v>1428489100</v>
+        <v>1480546200</v>
       </c>
       <c r="H66" s="3">
-        <v>1493140500</v>
+        <v>1547553500</v>
       </c>
       <c r="I66" s="3">
-        <v>1459206000</v>
+        <v>1512382400</v>
       </c>
       <c r="J66" s="3">
-        <v>1470015300</v>
+        <v>1523585600</v>
       </c>
       <c r="K66" s="3">
         <v>1379099000</v>
@@ -5326,25 +5326,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36218000</v>
+        <v>37537800</v>
       </c>
       <c r="E72" s="3">
-        <v>34743900</v>
+        <v>36010100</v>
       </c>
       <c r="F72" s="3">
-        <v>37883900</v>
+        <v>39264500</v>
       </c>
       <c r="G72" s="3">
-        <v>37026500</v>
+        <v>38375800</v>
       </c>
       <c r="H72" s="3">
-        <v>35442200</v>
+        <v>36733800</v>
       </c>
       <c r="I72" s="3">
-        <v>33904900</v>
+        <v>35140400</v>
       </c>
       <c r="J72" s="3">
-        <v>33135200</v>
+        <v>34342700</v>
       </c>
       <c r="K72" s="3">
         <v>31761200</v>
@@ -5646,25 +5646,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67690300</v>
+        <v>70157000</v>
       </c>
       <c r="E76" s="3">
-        <v>65925300</v>
+        <v>68327800</v>
       </c>
       <c r="F76" s="3">
-        <v>67221700</v>
+        <v>69671400</v>
       </c>
       <c r="G76" s="3">
-        <v>66420400</v>
+        <v>68840900</v>
       </c>
       <c r="H76" s="3">
-        <v>64961700</v>
+        <v>67329000</v>
       </c>
       <c r="I76" s="3">
-        <v>64449200</v>
+        <v>66797900</v>
       </c>
       <c r="J76" s="3">
-        <v>64228700</v>
+        <v>66569400</v>
       </c>
       <c r="K76" s="3">
         <v>61549600</v>
@@ -5891,25 +5891,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1401600</v>
+        <v>1452600</v>
       </c>
       <c r="E81" s="3">
-        <v>-937100</v>
+        <v>-971200</v>
       </c>
       <c r="F81" s="3">
-        <v>738000</v>
+        <v>764900</v>
       </c>
       <c r="G81" s="3">
-        <v>3171600</v>
+        <v>3287200</v>
       </c>
       <c r="H81" s="3">
-        <v>1501600</v>
+        <v>1556300</v>
       </c>
       <c r="I81" s="3">
-        <v>1984400</v>
+        <v>2056800</v>
       </c>
       <c r="J81" s="3">
-        <v>683900</v>
+        <v>708900</v>
       </c>
       <c r="K81" s="3">
         <v>1038300</v>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,107 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,79 +773,85 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>13164700</v>
+        <v>17655800</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>11473000</v>
+        <v>13399900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3">
+        <v>11677900</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>10311300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>9862300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>11817800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13838500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>13949800</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>13909700</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>11989100</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>12963500</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>13604100</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
         <v>14341600</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -918,8 +930,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,8 +1016,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1052,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1134,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1220,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,8 +1306,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,79 +1321,85 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>-814700</v>
+        <v>-860400</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>-899300</v>
+        <v>-829200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="3">
+        <v>-915400</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>-841100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>-854800</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>-814900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-889600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>-852900</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>-611600</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>-534700</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-589000</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3">
         <v>-539700</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="3">
         <v>-567000</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,88 +1425,96 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>482400</v>
+        <v>196000</v>
       </c>
       <c r="E17" s="3">
-        <v>8266200</v>
+        <v>12261600</v>
       </c>
       <c r="F17" s="3">
-        <v>593500</v>
+        <v>491100</v>
       </c>
       <c r="G17" s="3">
-        <v>5722700</v>
+        <v>8413800</v>
       </c>
       <c r="H17" s="3">
-        <v>207400</v>
+        <v>604100</v>
       </c>
       <c r="I17" s="3">
+        <v>5825000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>211100</v>
+      </c>
+      <c r="K17" s="3">
         <v>5462500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>292000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6073200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>537600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8143600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>925900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8100700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>403000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8077200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>315800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8066200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>292400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5419700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>228400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8273600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>574500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8121000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>736000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>10070100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1464,79 +1522,85 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>4898500</v>
+        <v>5394200</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>5750200</v>
+        <v>4986000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="3">
+        <v>5853000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>4848800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>3789100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>3674200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>5737800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>5872600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>5843500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>6569300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>4689900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>5483200</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
         <v>4271500</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,8 +1629,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1574,159 +1640,171 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-4374800</v>
+        <v>-1073700</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>-686600</v>
+        <v>-4453000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3">
+        <v>-698900</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1411400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1628800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-4509800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2833300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>10091600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>3482700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>11016700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>7409700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>5908300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>6270200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>6188900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>6010500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5141000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5429300</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>5489900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1805,168 +1883,186 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2263100</v>
+        <v>1529200</v>
       </c>
       <c r="E23" s="3">
-        <v>523700</v>
+        <v>4320500</v>
       </c>
       <c r="F23" s="3">
-        <v>1473800</v>
+        <v>2307800</v>
       </c>
       <c r="G23" s="3">
-        <v>5063600</v>
+        <v>533100</v>
       </c>
       <c r="H23" s="3">
-        <v>2624900</v>
+        <v>1457000</v>
       </c>
       <c r="I23" s="3">
+        <v>5154000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2671800</v>
+      </c>
+      <c r="K23" s="3">
         <v>3437400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1301300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2160400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1514300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-835600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-275500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2904500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1749300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3202200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1312200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3419800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2149900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3542100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1508700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2636700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1742500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>3128100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1500100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>3149300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>419000</v>
+        <v>353200</v>
       </c>
       <c r="E24" s="3">
-        <v>719400</v>
+        <v>947700</v>
       </c>
       <c r="F24" s="3">
-        <v>373500</v>
+        <v>426500</v>
       </c>
       <c r="G24" s="3">
-        <v>1068600</v>
+        <v>732300</v>
       </c>
       <c r="H24" s="3">
-        <v>739500</v>
+        <v>358600</v>
       </c>
       <c r="I24" s="3">
+        <v>1087700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>752800</v>
+      </c>
+      <c r="K24" s="3">
         <v>726800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>299400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>590500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>484700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>667600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-51900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>722600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>476500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>758800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>305000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>637600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>597000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>840000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>406300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1141100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>515000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>775300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>456600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1124500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2141,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1844100</v>
+        <v>1176000</v>
       </c>
       <c r="E26" s="3">
-        <v>-195700</v>
+        <v>3372900</v>
       </c>
       <c r="F26" s="3">
-        <v>1100300</v>
+        <v>1881300</v>
       </c>
       <c r="G26" s="3">
-        <v>3995000</v>
+        <v>-199200</v>
       </c>
       <c r="H26" s="3">
-        <v>1885400</v>
+        <v>1098400</v>
       </c>
       <c r="I26" s="3">
+        <v>4066400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2710600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1001900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1569900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1029600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1503300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-223600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2181900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1272800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2443400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1007200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2782200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1552900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2702200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1102400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1495600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1227500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2352800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1043500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2024800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1452600</v>
+        <v>759200</v>
       </c>
       <c r="E27" s="3">
-        <v>-971200</v>
+        <v>2519900</v>
       </c>
       <c r="F27" s="3">
-        <v>764900</v>
+        <v>1478600</v>
       </c>
       <c r="G27" s="3">
-        <v>3287200</v>
+        <v>-988600</v>
       </c>
       <c r="H27" s="3">
-        <v>1556300</v>
+        <v>758100</v>
       </c>
       <c r="I27" s="3">
+        <v>3345900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1584100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2056800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>708900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1038300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>762900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2083600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-547600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1346000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>825600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1627000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>623200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1915100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1239400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1957700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>821300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>885300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>939100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1740200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>727800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1452000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2399,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2365,8 +2485,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2571,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,8 +2657,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2534,159 +2672,171 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>4374800</v>
+        <v>1073700</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>686600</v>
+        <v>4453000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3">
+        <v>698900</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>1411400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>1628800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>4509800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2833300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>2670400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>2423800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>3027200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>2053200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>2355100</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1122200</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1452600</v>
+        <v>759200</v>
       </c>
       <c r="E33" s="3">
-        <v>-971200</v>
+        <v>2519900</v>
       </c>
       <c r="F33" s="3">
-        <v>764900</v>
+        <v>1478600</v>
       </c>
       <c r="G33" s="3">
-        <v>3287200</v>
+        <v>-988600</v>
       </c>
       <c r="H33" s="3">
-        <v>1556300</v>
+        <v>758100</v>
       </c>
       <c r="I33" s="3">
+        <v>3345900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1584100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2056800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>708900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1038300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>762900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2083600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-547600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1346000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>825600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1627000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>623200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1915100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1239400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1957700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>821300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>885300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>939100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1740200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>727800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1452000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2915,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1452600</v>
+        <v>759200</v>
       </c>
       <c r="E35" s="3">
-        <v>-971200</v>
+        <v>2519900</v>
       </c>
       <c r="F35" s="3">
-        <v>764900</v>
+        <v>1478600</v>
       </c>
       <c r="G35" s="3">
-        <v>3287200</v>
+        <v>-988600</v>
       </c>
       <c r="H35" s="3">
-        <v>1556300</v>
+        <v>758100</v>
       </c>
       <c r="I35" s="3">
+        <v>3345900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1584100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2056800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>708900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1038300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>762900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2083600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-547600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1346000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>825600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1627000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>623200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1915100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1239400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1957700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>821300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>885300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>939100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1740200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>727800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1452000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3128,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,168 +3160,182 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>294727100</v>
+        <v>325404700</v>
       </c>
       <c r="E41" s="3">
-        <v>251971200</v>
+        <v>349446500</v>
       </c>
       <c r="F41" s="3">
-        <v>322241400</v>
+        <v>299992000</v>
       </c>
       <c r="G41" s="3">
-        <v>238829700</v>
+        <v>256472400</v>
       </c>
       <c r="H41" s="3">
-        <v>256750200</v>
+        <v>327997900</v>
       </c>
       <c r="I41" s="3">
+        <v>243096200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>261336700</v>
+      </c>
+      <c r="K41" s="3">
         <v>217609400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>254792900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>209707300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>225571000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>202919100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>220891500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>163996600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>194104600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>171349700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>197168400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>164605300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>178050000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>144180600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>171178200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>170037600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>183782000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>179666500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>204477700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>167576600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54253200</v>
+        <v>62672300</v>
       </c>
       <c r="E42" s="3">
-        <v>481040900</v>
+        <v>447977500</v>
       </c>
       <c r="F42" s="3">
-        <v>35370000</v>
+        <v>55222400</v>
       </c>
       <c r="G42" s="3">
-        <v>417472000</v>
+        <v>489634100</v>
       </c>
       <c r="H42" s="3">
-        <v>34605100</v>
+        <v>36001800</v>
       </c>
       <c r="I42" s="3">
+        <v>424929700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>35223200</v>
+      </c>
+      <c r="K42" s="3">
         <v>530635700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>34644200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>467173200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>38143900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>525051700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>37311100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>529056200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>42058800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>579304100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>31521100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>513271000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>25238900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>488778000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>25473600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>484036600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>16268900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>595802500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>19015700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>651761500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3230,8 +3414,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3310,8 +3500,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3390,8 +3586,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3470,248 +3672,272 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>121700</v>
+        <v>168000</v>
       </c>
       <c r="E47" s="3">
-        <v>117400</v>
+        <v>157200</v>
       </c>
       <c r="F47" s="3">
-        <v>121700</v>
+        <v>123800</v>
       </c>
       <c r="G47" s="3">
-        <v>100500</v>
+        <v>119500</v>
       </c>
       <c r="H47" s="3">
-        <v>100500</v>
+        <v>123800</v>
       </c>
       <c r="I47" s="3">
+        <v>102300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>102300</v>
+      </c>
+      <c r="K47" s="3">
         <v>101600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>109000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>99700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>103800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>115600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>129800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>130700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>317300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>285900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>311000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>294500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>737700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>719200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>768600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>785400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>897600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>817900</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>1408600</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>1286500</v>
       </c>
       <c r="AB47" s="3">
         <v>1408600</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>1286500</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>1408600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34964800</v>
+        <v>37106700</v>
       </c>
       <c r="E48" s="3">
-        <v>34506700</v>
+        <v>36569400</v>
       </c>
       <c r="F48" s="3">
-        <v>34003100</v>
+        <v>35589400</v>
       </c>
       <c r="G48" s="3">
-        <v>33822100</v>
+        <v>35123100</v>
       </c>
       <c r="H48" s="3">
-        <v>32988400</v>
+        <v>34610500</v>
       </c>
       <c r="I48" s="3">
+        <v>34426300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>33577700</v>
+      </c>
+      <c r="K48" s="3">
         <v>32571600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>32128300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>30009800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>30711500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>32522200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>34099900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>33024900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>36724000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>31480500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>34927800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>31643800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>28864100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>28039600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>27120600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>52821000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>26030200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>25510700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>26176000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>23553700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4014100</v>
+        <v>4075000</v>
       </c>
       <c r="E49" s="3">
-        <v>4014100</v>
+        <v>4071800</v>
       </c>
       <c r="F49" s="3">
-        <v>3955900</v>
+        <v>4085800</v>
       </c>
       <c r="G49" s="3">
-        <v>3958000</v>
+        <v>4085800</v>
       </c>
       <c r="H49" s="3">
+        <v>4026500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4028700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4114800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4042600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>4042600</v>
       </c>
-      <c r="J49" s="3">
-        <v>4042600</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4033500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4199300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4412700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5337300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8160200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5747700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8087800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5457100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5502900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5385200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5351700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5490000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>7786600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5497800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5452900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>5282100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>7338700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +4016,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +4102,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4767300</v>
+        <v>5885300</v>
       </c>
       <c r="E52" s="3">
-        <v>4093400</v>
+        <v>10168100</v>
       </c>
       <c r="F52" s="3">
-        <v>4933500</v>
+        <v>4852500</v>
       </c>
       <c r="G52" s="3">
-        <v>4080700</v>
+        <v>4166500</v>
       </c>
       <c r="H52" s="3">
-        <v>4969400</v>
+        <v>5021600</v>
       </c>
       <c r="I52" s="3">
+        <v>4153600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5058200</v>
+      </c>
+      <c r="K52" s="3">
         <v>4621300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5898400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4095300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8964300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8922600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>10436300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>10796200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>12949400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>16134300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>20145200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>22854800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>11710700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>10751600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>6807600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>7068500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>6956300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>7286200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>12677100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>12528100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4274,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1685966400</v>
+        <v>1673097700</v>
       </c>
       <c r="E54" s="3">
-        <v>1627864200</v>
+        <v>1599088800</v>
       </c>
       <c r="F54" s="3">
-        <v>1702535700</v>
+        <v>1716084300</v>
       </c>
       <c r="G54" s="3">
-        <v>1549387000</v>
+        <v>1656944200</v>
       </c>
       <c r="H54" s="3">
-        <v>1614882500</v>
+        <v>1732949600</v>
       </c>
       <c r="I54" s="3">
+        <v>1577065100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1643730600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1579180300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1590155000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1440648500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1528138600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1585498000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1702350800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1583361700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4396,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,111 +4428,119 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>24205500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>22783000</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I57" s="3">
+        <v>23190000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>21322900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>19225900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>22898200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>25886100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>30259400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>26338500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>24286700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>22786500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>37729200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3">
         <v>25001000</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+        <v>74001300</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>120563300</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4330,88 +4596,100 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>2810700</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>2913700</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3">
+        <v>2965800</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>3007900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>2016700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>1815300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2759800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>2592800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>2834200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>2290400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>2852100</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>2472900</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3">
         <v>3005000</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4490,168 +4768,186 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>198302000</v>
+        <v>166147400</v>
       </c>
       <c r="E61" s="3">
-        <v>74263100</v>
+        <v>160591600</v>
       </c>
       <c r="F61" s="3">
-        <v>179144800</v>
+        <v>153770600</v>
       </c>
       <c r="G61" s="3">
-        <v>54177000</v>
+        <v>40985700</v>
       </c>
       <c r="H61" s="3">
-        <v>167794600</v>
+        <v>163134200</v>
       </c>
       <c r="I61" s="3">
+        <v>55746800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>160479600</v>
+      </c>
+      <c r="K61" s="3">
         <v>53062900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>173731000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>54638600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>166334900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>59718600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>187453200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>61859900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>177461900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>43963200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>168898700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>54097600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>140870100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>41046500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>129673800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>41008700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>126560500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>41101900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>138392200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>41775900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7027200</v>
+        <v>6894300</v>
       </c>
       <c r="E62" s="3">
-        <v>6901300</v>
+        <v>11870700</v>
       </c>
       <c r="F62" s="3">
-        <v>7120300</v>
+        <v>7152800</v>
       </c>
       <c r="G62" s="3">
-        <v>6800800</v>
+        <v>7024600</v>
       </c>
       <c r="H62" s="3">
-        <v>6664300</v>
+        <v>7247500</v>
       </c>
       <c r="I62" s="3">
+        <v>6922300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6783400</v>
+      </c>
+      <c r="K62" s="3">
         <v>5772400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>6505600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5943500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6783700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7107300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6967700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8322500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>12323400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>15154400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>17011200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>19181900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>12837100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11585000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9003600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>8863700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>8078300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>7775400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>13029300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>12610200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +5026,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +5112,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5198,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1615809300</v>
+        <v>1599064000</v>
       </c>
       <c r="E66" s="3">
-        <v>1559536400</v>
+        <v>1526968800</v>
       </c>
       <c r="F66" s="3">
-        <v>1632864300</v>
+        <v>1644674000</v>
       </c>
       <c r="G66" s="3">
-        <v>1480546200</v>
+        <v>1587395800</v>
       </c>
       <c r="H66" s="3">
-        <v>1547553500</v>
+        <v>1662033600</v>
       </c>
       <c r="I66" s="3">
+        <v>1506994500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1575198900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1512382400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1523585600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1379099000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1465249100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1519324500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1631690600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1509199600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5320,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5402,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5488,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5574,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5660,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37537800</v>
+        <v>39964800</v>
       </c>
       <c r="E72" s="3">
-        <v>36010100</v>
+        <v>39095800</v>
       </c>
       <c r="F72" s="3">
-        <v>39264500</v>
+        <v>38208400</v>
       </c>
       <c r="G72" s="3">
-        <v>38375800</v>
+        <v>36653400</v>
       </c>
       <c r="H72" s="3">
-        <v>36733800</v>
+        <v>39965900</v>
       </c>
       <c r="I72" s="3">
+        <v>39061300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>37390000</v>
+      </c>
+      <c r="K72" s="3">
         <v>35140400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>34342700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>31761200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>32832900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>33673100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>36431500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>38298100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>39706800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>37388300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>39071500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>38096500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>35056600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>33541700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>34225200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>33549700</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="3">
         <v>34846900</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5832,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5918,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +6004,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70157000</v>
+        <v>74033600</v>
       </c>
       <c r="E76" s="3">
-        <v>68327800</v>
+        <v>72120000</v>
       </c>
       <c r="F76" s="3">
-        <v>69671400</v>
+        <v>71410300</v>
       </c>
       <c r="G76" s="3">
-        <v>68840900</v>
+        <v>69548400</v>
       </c>
       <c r="H76" s="3">
-        <v>67329000</v>
+        <v>70916000</v>
       </c>
       <c r="I76" s="3">
+        <v>70070700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>68531800</v>
+      </c>
+      <c r="K76" s="3">
         <v>66797900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>66569400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>61549600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>62889500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>66173500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>70660200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>74162100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>78050200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>73515600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>73961000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>72187700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>66621000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>64737000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>64672200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>65555600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>67656000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>67443900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>73011000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>72721100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +6176,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1452600</v>
+        <v>759200</v>
       </c>
       <c r="E81" s="3">
-        <v>-971200</v>
+        <v>2519900</v>
       </c>
       <c r="F81" s="3">
-        <v>764900</v>
+        <v>1478600</v>
       </c>
       <c r="G81" s="3">
-        <v>3287200</v>
+        <v>-988600</v>
       </c>
       <c r="H81" s="3">
-        <v>1556300</v>
+        <v>758100</v>
       </c>
       <c r="I81" s="3">
+        <v>3345900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1584100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2056800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>708900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1038300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>762900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2083600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-547600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1346000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>825600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1627000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>623200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1915100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1239400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1957700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>821300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>885300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>939100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1740200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>727800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1452000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6389,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>5771100</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>2949600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>5862600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>5249300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3003700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>3068100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>2769200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>2468300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2504300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3">
         <v>2301200</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="3">
         <v>2340600</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6557,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6643,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6729,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6815,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6901,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="E89" s="3">
+        <v>42098200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
+      <c r="G89" s="3">
+        <v>7698800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
+      <c r="I89" s="3">
+        <v>22621400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>80580900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>8778900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>3392700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>21205800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>9214900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="3">
         <v>22647400</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +7023,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-3094000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6500000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3026000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3440000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3566000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2022000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-5573500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4625300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +7191,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7277,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>-9705000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>-3197300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>-10766800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-6845200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-5084100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,8 +7399,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6980,43 +7446,49 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7567,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7653,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,153 +7739,165 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>-230500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>-306900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>-3904800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>2160400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>178600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>2184600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-900200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-953700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC100" s="3">
         <v>2384000</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>2535000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>2466100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>2319600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>-2589300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>778700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>845800</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>947500</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
         <v>1513000</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -7415,84 +7911,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="E102" s="3">
+        <v>34697700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
+      <c r="G102" s="3">
+        <v>6660600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
+      <c r="I102" s="3">
+        <v>9373300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>73274000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>4652100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>3339800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>14449100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>3766500</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3">
         <v>16455100</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,199 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>17655800</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>13399900</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>11677900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>28522700</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>18725700</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14597400</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11756000</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>10311300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>9862300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>11817800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>13838500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>13949800</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>13909700</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>11989100</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>12963500</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="3">
         <v>13604100</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3">
         <v>14341600</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,94 +1331,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-860400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-829200</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-915400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>-899800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-866200</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-834800</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-921500</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>-841100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>-854800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>-814900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>-889600</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>-852900</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>-611600</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3">
         <v>-534700</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3">
         <v>-589000</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3">
         <v>-539700</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="3">
         <v>-567000</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196000</v>
+        <v>22732500</v>
       </c>
       <c r="E17" s="3">
-        <v>12261600</v>
+        <v>197300</v>
       </c>
       <c r="F17" s="3">
-        <v>491100</v>
+        <v>12532200</v>
       </c>
       <c r="G17" s="3">
-        <v>8413800</v>
+        <v>494300</v>
       </c>
       <c r="H17" s="3">
-        <v>604100</v>
+        <v>8655500</v>
       </c>
       <c r="I17" s="3">
-        <v>5825000</v>
+        <v>608200</v>
       </c>
       <c r="J17" s="3">
+        <v>5863900</v>
+      </c>
+      <c r="K17" s="3">
         <v>211100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5462500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>292000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6073200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>537600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8143600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>925900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8100700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>403000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8077200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>315800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8066200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>292400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5419700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>228400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8273600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>574500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8121000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>736000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10070100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5394200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4986000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5853000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>5790200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6193500</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5942000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5892100</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>4848800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>3789100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>3674200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>5737800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>5872600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>5843500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>6569300</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>4689900</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3">
         <v>5483200</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3">
         <v>4271500</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,117 +1663,121 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1073700</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4453000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-698900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-2509700</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2057600</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-5482300</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-703600</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1411400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1628800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4509800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2833300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10091600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3482700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>11016700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>6554500</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9927100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3420300</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>11090300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1749,62 +1785,65 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>7409700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>5908300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>6270200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>6188900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>6010500</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>5141000</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>5429300</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
         <v>5489900</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1889,180 +1928,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1529200</v>
+        <v>3280500</v>
       </c>
       <c r="E23" s="3">
-        <v>4320500</v>
+        <v>1539400</v>
       </c>
       <c r="F23" s="3">
-        <v>2307800</v>
+        <v>4135800</v>
       </c>
       <c r="G23" s="3">
-        <v>533100</v>
+        <v>2323200</v>
       </c>
       <c r="H23" s="3">
-        <v>1457000</v>
+        <v>459700</v>
       </c>
       <c r="I23" s="3">
-        <v>5154000</v>
+        <v>1466800</v>
       </c>
       <c r="J23" s="3">
+        <v>5188500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2671800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3437400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1301300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2160400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1514300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-835600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-275500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2904500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1749300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3202200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1312200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3419800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2149900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3542100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1508700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2636700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1742500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3128100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1500100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3149300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>353200</v>
+        <v>816300</v>
       </c>
       <c r="E24" s="3">
-        <v>947700</v>
+        <v>355600</v>
       </c>
       <c r="F24" s="3">
-        <v>426500</v>
+        <v>892200</v>
       </c>
       <c r="G24" s="3">
-        <v>732300</v>
+        <v>429300</v>
       </c>
       <c r="H24" s="3">
-        <v>358600</v>
+        <v>715500</v>
       </c>
       <c r="I24" s="3">
-        <v>1087700</v>
+        <v>361000</v>
       </c>
       <c r="J24" s="3">
+        <v>1094900</v>
+      </c>
+      <c r="K24" s="3">
         <v>752800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>726800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>299400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>590500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>484700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>667600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>722600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>476500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>758800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>305000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>637600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>597000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>840000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>406300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1141100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>515000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>775300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>456600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1124500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1176000</v>
+        <v>2464200</v>
       </c>
       <c r="E26" s="3">
-        <v>3372900</v>
+        <v>1183800</v>
       </c>
       <c r="F26" s="3">
-        <v>1881300</v>
+        <v>3243600</v>
       </c>
       <c r="G26" s="3">
-        <v>-199200</v>
+        <v>1893900</v>
       </c>
       <c r="H26" s="3">
-        <v>1098400</v>
+        <v>-255800</v>
       </c>
       <c r="I26" s="3">
-        <v>4066400</v>
+        <v>1105800</v>
       </c>
       <c r="J26" s="3">
+        <v>4093600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1919000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2710600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1001900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1569900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1029600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1503300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-223600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2181900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1272800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2443400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1007200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2782200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1552900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2702200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1102400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1495600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1227500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2352800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1043500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2024800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>759200</v>
+        <v>1506900</v>
       </c>
       <c r="E27" s="3">
-        <v>2519900</v>
+        <v>764300</v>
       </c>
       <c r="F27" s="3">
-        <v>1478600</v>
+        <v>2381800</v>
       </c>
       <c r="G27" s="3">
-        <v>-988600</v>
+        <v>1488500</v>
       </c>
       <c r="H27" s="3">
-        <v>758100</v>
+        <v>-1049400</v>
       </c>
       <c r="I27" s="3">
-        <v>3345900</v>
+        <v>763200</v>
       </c>
       <c r="J27" s="3">
+        <v>3368300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1584100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2056800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>708900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1038300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>762900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2083600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-547600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1346000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>825600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1627000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>623200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1915100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1239400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1957700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>821300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>885300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>939100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1740200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>727800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1452000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,8 +2462,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1073700</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4453000</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>698900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>2509700</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2057600</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5482300</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>703600</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>1411400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>1628800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>4509800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>2833300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>2670400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>2423800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>3027200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>2053200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="3">
         <v>2355100</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="3">
         <v>1122200</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>759200</v>
+        <v>1506900</v>
       </c>
       <c r="E33" s="3">
-        <v>2519900</v>
+        <v>764300</v>
       </c>
       <c r="F33" s="3">
-        <v>1478600</v>
+        <v>2381800</v>
       </c>
       <c r="G33" s="3">
-        <v>-988600</v>
+        <v>1488500</v>
       </c>
       <c r="H33" s="3">
-        <v>758100</v>
+        <v>-1049400</v>
       </c>
       <c r="I33" s="3">
-        <v>3345900</v>
+        <v>763200</v>
       </c>
       <c r="J33" s="3">
+        <v>3368300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1584100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2056800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>708900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1038300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>762900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2083600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-547600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1346000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>825600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1627000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>623200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1915100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1239400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1957700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>821300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>885300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>939100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1740200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>727800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1452000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>759200</v>
+        <v>1506900</v>
       </c>
       <c r="E35" s="3">
-        <v>2519900</v>
+        <v>764300</v>
       </c>
       <c r="F35" s="3">
-        <v>1478600</v>
+        <v>2381800</v>
       </c>
       <c r="G35" s="3">
-        <v>-988600</v>
+        <v>1488500</v>
       </c>
       <c r="H35" s="3">
-        <v>758100</v>
+        <v>-1049400</v>
       </c>
       <c r="I35" s="3">
-        <v>3345900</v>
+        <v>763200</v>
       </c>
       <c r="J35" s="3">
+        <v>3368300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1584100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2056800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>708900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1038300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>762900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2083600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-547600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1346000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>825600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1627000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>623200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1915100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1239400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1957700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>821300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>885300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>939100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1740200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>727800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1452000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,180 +3247,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>325404700</v>
+        <v>294683300</v>
       </c>
       <c r="E41" s="3">
-        <v>349446500</v>
+        <v>327580300</v>
       </c>
       <c r="F41" s="3">
-        <v>299992000</v>
+        <v>353159700</v>
       </c>
       <c r="G41" s="3">
-        <v>256472400</v>
+        <v>301997700</v>
       </c>
       <c r="H41" s="3">
-        <v>327997900</v>
+        <v>258187100</v>
       </c>
       <c r="I41" s="3">
-        <v>243096200</v>
+        <v>330190800</v>
       </c>
       <c r="J41" s="3">
+        <v>244721500</v>
+      </c>
+      <c r="K41" s="3">
         <v>261336700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>217609400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>254792900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>209707300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>225571000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>202919100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>220891500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>163996600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>194104600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>171349700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>197168400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>164605300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>178050000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>144180600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>171178200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>170037600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>183782000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>179666500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>204477700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>167576600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62672300</v>
+        <v>640773600</v>
       </c>
       <c r="E42" s="3">
-        <v>447977500</v>
+        <v>63091400</v>
       </c>
       <c r="F42" s="3">
-        <v>55222400</v>
+        <v>556902200</v>
       </c>
       <c r="G42" s="3">
-        <v>489634100</v>
+        <v>55591600</v>
       </c>
       <c r="H42" s="3">
-        <v>36001800</v>
+        <v>492907700</v>
       </c>
       <c r="I42" s="3">
-        <v>424929700</v>
+        <v>36242500</v>
       </c>
       <c r="J42" s="3">
+        <v>427770700</v>
+      </c>
+      <c r="K42" s="3">
         <v>35223200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>530635700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34644200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>467173200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38143900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>525051700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>37311100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>529056200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>42058800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>579304100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>31521100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>513271000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>25238900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>488778000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>25473600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>484036600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>16268900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>595802500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>19015700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>651761500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3420,8 +3512,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3506,8 +3601,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3592,8 +3690,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3678,266 +3779,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>168000</v>
+        <v>226600</v>
       </c>
       <c r="E47" s="3">
-        <v>157200</v>
+        <v>169100</v>
       </c>
       <c r="F47" s="3">
-        <v>123800</v>
+        <v>158300</v>
       </c>
       <c r="G47" s="3">
-        <v>119500</v>
+        <v>124700</v>
       </c>
       <c r="H47" s="3">
-        <v>123800</v>
+        <v>120300</v>
       </c>
       <c r="I47" s="3">
+        <v>124700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K47" s="3">
         <v>102300</v>
       </c>
-      <c r="J47" s="3">
-        <v>102300</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>101600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>109000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>99700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>103800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>115600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>129800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>130700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>317300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>285900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>311000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>294500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>737700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>719200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>768600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>785400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>897600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>817900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1408600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1286500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37106700</v>
+        <v>62373700</v>
       </c>
       <c r="E48" s="3">
-        <v>36569400</v>
+        <v>37354800</v>
       </c>
       <c r="F48" s="3">
-        <v>35589400</v>
+        <v>36813900</v>
       </c>
       <c r="G48" s="3">
-        <v>35123100</v>
+        <v>35827300</v>
       </c>
       <c r="H48" s="3">
-        <v>34610500</v>
+        <v>35357900</v>
       </c>
       <c r="I48" s="3">
-        <v>34426300</v>
+        <v>34841900</v>
       </c>
       <c r="J48" s="3">
+        <v>34656500</v>
+      </c>
+      <c r="K48" s="3">
         <v>33577700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32571600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32128300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30009800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30711500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32522200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34099900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33024900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>36724000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31480500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34927800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31643800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>28864100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>28039600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27120600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>52821000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>26030200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>25510700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>26176000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>23553700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4075000</v>
+        <v>5987500</v>
       </c>
       <c r="E49" s="3">
-        <v>4071800</v>
+        <v>4102200</v>
       </c>
       <c r="F49" s="3">
-        <v>4085800</v>
+        <v>4099000</v>
       </c>
       <c r="G49" s="3">
-        <v>4085800</v>
+        <v>4113100</v>
       </c>
       <c r="H49" s="3">
-        <v>4026500</v>
+        <v>4113100</v>
       </c>
       <c r="I49" s="3">
-        <v>4028700</v>
+        <v>4053400</v>
       </c>
       <c r="J49" s="3">
+        <v>4055600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4114800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4042600</v>
       </c>
       <c r="L49" s="3">
         <v>4042600</v>
       </c>
       <c r="M49" s="3">
+        <v>4042600</v>
+      </c>
+      <c r="N49" s="3">
         <v>4033500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4199300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4412700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5337300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8160200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5747700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8087800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5457100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5502900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5385200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5351700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5490000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7786600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5497800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5452900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5282100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7338700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5885300</v>
+        <v>7936700</v>
       </c>
       <c r="E52" s="3">
-        <v>10168100</v>
+        <v>5924600</v>
       </c>
       <c r="F52" s="3">
-        <v>4852500</v>
+        <v>10006200</v>
       </c>
       <c r="G52" s="3">
-        <v>4166500</v>
+        <v>4885000</v>
       </c>
       <c r="H52" s="3">
-        <v>5021600</v>
+        <v>4194400</v>
       </c>
       <c r="I52" s="3">
-        <v>4153600</v>
+        <v>5055200</v>
       </c>
       <c r="J52" s="3">
+        <v>4181400</v>
+      </c>
+      <c r="K52" s="3">
         <v>5058200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4621300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5898400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4095300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8964300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8922600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10436300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10796200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12949400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16134300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20145200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22854800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11710700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10751600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6807600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7068500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6956300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7286200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>12677100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>12528100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1673097700</v>
+        <v>1711176000</v>
       </c>
       <c r="E54" s="3">
-        <v>1599088800</v>
+        <v>1684283800</v>
       </c>
       <c r="F54" s="3">
-        <v>1716084300</v>
+        <v>1609780100</v>
       </c>
       <c r="G54" s="3">
-        <v>1656944200</v>
+        <v>1727557800</v>
       </c>
       <c r="H54" s="3">
-        <v>1732949600</v>
+        <v>1668022300</v>
       </c>
       <c r="I54" s="3">
-        <v>1577065100</v>
+        <v>1744535900</v>
       </c>
       <c r="J54" s="3">
+        <v>1587609200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1643730600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1579180300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1590155000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1440648500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1528138600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1585498000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1702350800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1583361700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,19 +4559,20 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>24205500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>27523100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>24109300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -4450,85 +4580,88 @@
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>23190000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>23345000</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>21322900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>19225900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>22898200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>25886100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>30259400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>26338500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
         <v>24286700</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
         <v>22786500</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="3">
         <v>37729200</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="3">
         <v>25001000</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>74001300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>74496100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -4536,14 +4669,14 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>120563300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>121369300</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4602,19 +4735,22 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2810700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>2395900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2829500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -4622,74 +4758,77 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>2965800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2985600</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>3007900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>2016700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>1815300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>2759800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>2592800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>2834200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>2290400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>2852100</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3">
         <v>2472900</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3">
         <v>3005000</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4774,180 +4913,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>166147400</v>
+        <v>45821700</v>
       </c>
       <c r="E61" s="3">
-        <v>160591600</v>
+        <v>167258200</v>
       </c>
       <c r="F61" s="3">
-        <v>153770600</v>
+        <v>44106600</v>
       </c>
       <c r="G61" s="3">
-        <v>40985700</v>
+        <v>154798600</v>
       </c>
       <c r="H61" s="3">
-        <v>163134200</v>
+        <v>41259800</v>
       </c>
       <c r="I61" s="3">
-        <v>55746800</v>
+        <v>164224900</v>
       </c>
       <c r="J61" s="3">
+        <v>56119500</v>
+      </c>
+      <c r="K61" s="3">
         <v>160479600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53062900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>173731000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>54638600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>166334900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>59718600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>187453200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>61859900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>177461900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>43963200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>168898700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>54097600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>140870100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>41046500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>129673800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>41008700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>126560500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>41101900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>138392200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>41775900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6894300</v>
+        <v>9914100</v>
       </c>
       <c r="E62" s="3">
-        <v>11870700</v>
+        <v>6940400</v>
       </c>
       <c r="F62" s="3">
-        <v>7152800</v>
+        <v>11950000</v>
       </c>
       <c r="G62" s="3">
-        <v>7024600</v>
+        <v>7200600</v>
       </c>
       <c r="H62" s="3">
-        <v>7247500</v>
+        <v>7071600</v>
       </c>
       <c r="I62" s="3">
-        <v>6922300</v>
+        <v>7296000</v>
       </c>
       <c r="J62" s="3">
+        <v>6968600</v>
+      </c>
+      <c r="K62" s="3">
         <v>6783400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5772400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6505600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5943500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6783700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7107300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6967700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8322500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12323400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15154400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17011200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>19181900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12837100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11585000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9003600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8863700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8078300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7775400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>13029300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>12610200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1599064000</v>
+        <v>1637449600</v>
       </c>
       <c r="E66" s="3">
-        <v>1526968800</v>
+        <v>1609755200</v>
       </c>
       <c r="F66" s="3">
-        <v>1644674000</v>
+        <v>1537177900</v>
       </c>
       <c r="G66" s="3">
-        <v>1587395800</v>
+        <v>1655670000</v>
       </c>
       <c r="H66" s="3">
-        <v>1662033600</v>
+        <v>1598008900</v>
       </c>
       <c r="I66" s="3">
-        <v>1506994500</v>
+        <v>1673145700</v>
       </c>
       <c r="J66" s="3">
+        <v>1517070000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1575198900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1512382400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1523585600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1379099000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1465249100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1519324500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1631690600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1509199600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39964800</v>
+        <v>39301900</v>
       </c>
       <c r="E72" s="3">
-        <v>39095800</v>
+        <v>40232000</v>
       </c>
       <c r="F72" s="3">
-        <v>38208400</v>
+        <v>39357200</v>
       </c>
       <c r="G72" s="3">
-        <v>36653400</v>
+        <v>38463900</v>
       </c>
       <c r="H72" s="3">
-        <v>39965900</v>
+        <v>36898400</v>
       </c>
       <c r="I72" s="3">
-        <v>39061300</v>
+        <v>40233100</v>
       </c>
       <c r="J72" s="3">
+        <v>39322500</v>
+      </c>
+      <c r="K72" s="3">
         <v>37390000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35140400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34342700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31761200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32832900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33673100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36431500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>38298100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>39706800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>37388300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>39071500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>38096500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>35056600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>33541700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>34225200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" s="3">
         <v>33549700</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD72" s="3">
         <v>34846900</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74033600</v>
+        <v>73726400</v>
       </c>
       <c r="E76" s="3">
-        <v>72120000</v>
+        <v>74528600</v>
       </c>
       <c r="F76" s="3">
-        <v>71410300</v>
+        <v>72602200</v>
       </c>
       <c r="G76" s="3">
-        <v>69548400</v>
+        <v>71887800</v>
       </c>
       <c r="H76" s="3">
-        <v>70916000</v>
+        <v>70013300</v>
       </c>
       <c r="I76" s="3">
-        <v>70070700</v>
+        <v>71390200</v>
       </c>
       <c r="J76" s="3">
+        <v>70539100</v>
+      </c>
+      <c r="K76" s="3">
         <v>68531800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66797900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66569400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61549600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>62889500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66173500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70660200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74162100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>78050200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>73515600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73961000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>72187700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>66621000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>64737000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>64672200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>65555600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>67656000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>67443900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>73011000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>72721100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>759200</v>
+        <v>1506900</v>
       </c>
       <c r="E81" s="3">
-        <v>2519900</v>
+        <v>764300</v>
       </c>
       <c r="F81" s="3">
-        <v>1478600</v>
+        <v>2381800</v>
       </c>
       <c r="G81" s="3">
-        <v>-988600</v>
+        <v>1488500</v>
       </c>
       <c r="H81" s="3">
-        <v>758100</v>
+        <v>-1049400</v>
       </c>
       <c r="I81" s="3">
-        <v>3345900</v>
+        <v>763200</v>
       </c>
       <c r="J81" s="3">
+        <v>3368300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1584100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2056800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>708900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1038300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>762900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2083600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-547600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1346000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>825600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1627000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>623200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1915100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1239400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1957700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>821300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>885300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>939100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1740200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>727800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1452000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,31 +6588,32 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5771100</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2949600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5862600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>3274000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5809700</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2969300</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5901800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -6423,62 +6621,65 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>5249300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>3003700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>3068100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>2769200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>2468300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3">
         <v>2504300</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="3">
         <v>2301200</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD83" s="3">
         <v>2340600</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,31 +7120,34 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>42098200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>7698800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>22621400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>24072400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>42379600</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7750200</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>22772600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -6939,62 +7155,65 @@
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>80580900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>8778900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>3392700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>21205800</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="3">
         <v>9214900</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB89" s="3">
         <v>22647400</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3094000</v>
+        <v>-5123000</v>
       </c>
       <c r="E91" s="3">
-        <v>-6500000</v>
+        <v>-3099000</v>
       </c>
       <c r="F91" s="3">
+        <v>-6480000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3026000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3440000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3566000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2022000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-5573500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4625300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,31 +7509,34 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-9705000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3197300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-10766800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-4245300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-9758000</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3124400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-10838800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -7315,62 +7544,65 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-6845200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-5084100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,8 +7633,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7452,11 +7685,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7464,11 +7697,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7476,19 +7709,22 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,31 +7987,34 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-230500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-306900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-3904800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>-2490200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3930900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -7777,85 +8022,88 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>2160400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>178600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>2184600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>-900200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-953700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD100" s="3">
         <v>2384000</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>2535000</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2466100</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2319600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>-2633300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2552000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2484800</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2335200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -7863,44 +8111,44 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>-2589300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>778700</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
         <v>845800</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3">
         <v>947500</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3">
         <v>1513000</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7917,31 +8165,34 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>34697700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>6660600</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>9373300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>14703600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>34929700</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>6705200</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>9436000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
@@ -7949,58 +8200,61 @@
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>73274000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>4652100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>3339800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>14449100</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3">
         <v>3766500</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB102" s="3">
         <v>16455100</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCGLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="92">
   <si>
     <t>SCGLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>28522700</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>18725700</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>14597400</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>28546400</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18741200</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14609500</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>11756000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>10311300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>9862300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>11817800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>13838500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>13949800</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>13909700</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>11989100</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>12963500</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
         <v>13604100</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
         <v>14341600</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +951,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1043,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1261,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,97 +1353,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-899800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-866200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-834800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-900600</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-866900</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-835500</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>-921500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>-841100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>-854800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-814900</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>-889600</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>-852900</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>-611600</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-534700</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3">
         <v>-589000</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="3">
         <v>-539700</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="3">
         <v>-567000</v>
       </c>
-      <c r="AE15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22732500</v>
+        <v>342900</v>
       </c>
       <c r="E17" s="3">
-        <v>197300</v>
+        <v>22751400</v>
       </c>
       <c r="F17" s="3">
-        <v>12532200</v>
+        <v>197500</v>
       </c>
       <c r="G17" s="3">
-        <v>494300</v>
+        <v>12542600</v>
       </c>
       <c r="H17" s="3">
-        <v>8655500</v>
+        <v>494800</v>
       </c>
       <c r="I17" s="3">
-        <v>608200</v>
+        <v>8662600</v>
       </c>
       <c r="J17" s="3">
+        <v>608700</v>
+      </c>
+      <c r="K17" s="3">
         <v>5863900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>211100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5462500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>292000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6073200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>537600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8143600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>925900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8100700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>403000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8077200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>315800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8066200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>292400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5419700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>228400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8273600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>574500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8121000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>736000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>10070100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>5790200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6193500</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5942000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5795000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6198600</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5946900</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>5892100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>4848800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>3789100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3674200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>5737800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>5872600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>5843500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>6569300</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>4689900</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
         <v>5483200</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3">
         <v>4271500</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1664,186 +1696,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-2509700</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2057600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-5482300</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2511800</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2059300</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5486800</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-703600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1411400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1628800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-4509800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2833300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2670400</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2423800</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-3027200</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-2053200</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-2355100</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-1122200</v>
       </c>
-      <c r="AE20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>6554500</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>9927100</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>3420300</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>11090300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>7409700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>5908300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>6270200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>6188900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>6010500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5141000</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>5429300</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3">
         <v>5489900</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1931,186 +1970,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3280500</v>
+        <v>1287900</v>
       </c>
       <c r="E23" s="3">
-        <v>1539400</v>
+        <v>3283200</v>
       </c>
       <c r="F23" s="3">
-        <v>4135800</v>
+        <v>1540700</v>
       </c>
       <c r="G23" s="3">
-        <v>2323200</v>
+        <v>4139300</v>
       </c>
       <c r="H23" s="3">
-        <v>459700</v>
+        <v>2244900</v>
       </c>
       <c r="I23" s="3">
-        <v>1466800</v>
+        <v>460000</v>
       </c>
       <c r="J23" s="3">
+        <v>1468000</v>
+      </c>
+      <c r="K23" s="3">
         <v>5188500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2671800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3437400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1301300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2160400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1514300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-835600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-275500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2904500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1749300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3202200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1312200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3419800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2149900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3542100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1508700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2636700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1742500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3128100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1500100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3149300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1962600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>816300</v>
+        <v>677000</v>
       </c>
       <c r="E24" s="3">
-        <v>355600</v>
+        <v>817000</v>
       </c>
       <c r="F24" s="3">
-        <v>892200</v>
+        <v>355900</v>
       </c>
       <c r="G24" s="3">
-        <v>429300</v>
+        <v>893000</v>
       </c>
       <c r="H24" s="3">
-        <v>715500</v>
+        <v>400400</v>
       </c>
       <c r="I24" s="3">
-        <v>361000</v>
+        <v>716100</v>
       </c>
       <c r="J24" s="3">
+        <v>361300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1094900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>752800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>726800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>299400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>590500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>484700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>667600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-51900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>722600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>476500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>758800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>305000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>637600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>597000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>840000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>406300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1141100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>515000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>775300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>456600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1124500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>528200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2464200</v>
+        <v>610900</v>
       </c>
       <c r="E26" s="3">
-        <v>1183800</v>
+        <v>2466200</v>
       </c>
       <c r="F26" s="3">
-        <v>3243600</v>
+        <v>1184800</v>
       </c>
       <c r="G26" s="3">
-        <v>1893900</v>
+        <v>3246300</v>
       </c>
       <c r="H26" s="3">
-        <v>-255800</v>
+        <v>1844500</v>
       </c>
       <c r="I26" s="3">
-        <v>1105800</v>
+        <v>-256100</v>
       </c>
       <c r="J26" s="3">
+        <v>1106700</v>
+      </c>
+      <c r="K26" s="3">
         <v>4093600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1919000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2710600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1001900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1569900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1029600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1503300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-223600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2181900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1272800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2443400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1007200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2782200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1552900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2702200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1102400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1495600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1227500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2352800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1043500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2024800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1434400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1506900</v>
+        <v>141100</v>
       </c>
       <c r="E27" s="3">
-        <v>764300</v>
+        <v>1508200</v>
       </c>
       <c r="F27" s="3">
-        <v>2381800</v>
+        <v>764900</v>
       </c>
       <c r="G27" s="3">
-        <v>1488500</v>
+        <v>2383700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1049400</v>
+        <v>1432200</v>
       </c>
       <c r="I27" s="3">
-        <v>763200</v>
+        <v>-1050300</v>
       </c>
       <c r="J27" s="3">
+        <v>763800</v>
+      </c>
+      <c r="K27" s="3">
         <v>3368300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1584100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2056800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>708900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1038300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>762900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2083600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-547600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1346000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>825600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1627000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>623200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1915100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1239400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1957700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>821300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>885300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>939100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1740200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>727800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1452000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2554,8 +2614,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,186 +2798,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>2509700</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2057600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>5482300</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2511800</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2059300</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5486800</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>703600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>1411400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>1628800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>4509800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>2833300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>2670400</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>2423800</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>3027200</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>2053200</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3">
         <v>2355100</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3">
         <v>1122200</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1506900</v>
+        <v>141100</v>
       </c>
       <c r="E33" s="3">
-        <v>764300</v>
+        <v>1508200</v>
       </c>
       <c r="F33" s="3">
-        <v>2381800</v>
+        <v>764900</v>
       </c>
       <c r="G33" s="3">
-        <v>1488500</v>
+        <v>2383700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1049400</v>
+        <v>1432200</v>
       </c>
       <c r="I33" s="3">
-        <v>763200</v>
+        <v>-1050300</v>
       </c>
       <c r="J33" s="3">
+        <v>763800</v>
+      </c>
+      <c r="K33" s="3">
         <v>3368300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1584100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2056800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>708900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1038300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>762900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2083600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-547600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1346000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>825600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1627000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>623200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1915100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1239400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1957700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>821300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>885300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>939100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1740200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>727800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1452000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1506900</v>
+        <v>141100</v>
       </c>
       <c r="E35" s="3">
-        <v>764300</v>
+        <v>1508200</v>
       </c>
       <c r="F35" s="3">
-        <v>2381800</v>
+        <v>764900</v>
       </c>
       <c r="G35" s="3">
-        <v>1488500</v>
+        <v>2383700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1049400</v>
+        <v>1432200</v>
       </c>
       <c r="I35" s="3">
-        <v>763200</v>
+        <v>-1050300</v>
       </c>
       <c r="J35" s="3">
+        <v>763800</v>
+      </c>
+      <c r="K35" s="3">
         <v>3368300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1584100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2056800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>708900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1038300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>762900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2083600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-547600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1346000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>825600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1627000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>623200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1915100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1239400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1957700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>821300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>885300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>939100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1740200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>727800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1452000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,186 +3333,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>294683300</v>
+        <v>348727700</v>
       </c>
       <c r="E41" s="3">
-        <v>327580300</v>
+        <v>294928000</v>
       </c>
       <c r="F41" s="3">
-        <v>353159700</v>
+        <v>327852300</v>
       </c>
       <c r="G41" s="3">
-        <v>301997700</v>
+        <v>353452900</v>
       </c>
       <c r="H41" s="3">
-        <v>258187100</v>
+        <v>302248500</v>
       </c>
       <c r="I41" s="3">
-        <v>330190800</v>
+        <v>258401400</v>
       </c>
       <c r="J41" s="3">
+        <v>330465000</v>
+      </c>
+      <c r="K41" s="3">
         <v>244721500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>261336700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>217609400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>254792900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>209707300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>225571000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>202919100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>220891500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>163996600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>194104600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>171349700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>197168400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>164605300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>178050000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>144180600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>171178200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>170037600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>183782000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>179666500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>204477700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>167576600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>177127900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>640773600</v>
+        <v>64577000</v>
       </c>
       <c r="E42" s="3">
-        <v>63091400</v>
+        <v>641305500</v>
       </c>
       <c r="F42" s="3">
-        <v>556902200</v>
+        <v>63143700</v>
       </c>
       <c r="G42" s="3">
-        <v>55591600</v>
+        <v>557364500</v>
       </c>
       <c r="H42" s="3">
-        <v>492907700</v>
+        <v>55637700</v>
       </c>
       <c r="I42" s="3">
-        <v>36242500</v>
+        <v>493317000</v>
       </c>
       <c r="J42" s="3">
+        <v>36272600</v>
+      </c>
+      <c r="K42" s="3">
         <v>427770700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35223200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>530635700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34644200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>467173200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38143900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>525051700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>37311100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>529056200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>42058800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>579304100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>31521100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>513271000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>25238900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>488778000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>25473600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>484036600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>16268900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>595802500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>19015700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>651761500</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>27115000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3515,8 +3607,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3604,8 +3699,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3693,8 +3791,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3782,275 +3883,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>226600</v>
+        <v>225700</v>
       </c>
       <c r="E47" s="3">
-        <v>169100</v>
+        <v>226800</v>
       </c>
       <c r="F47" s="3">
-        <v>158300</v>
+        <v>169300</v>
       </c>
       <c r="G47" s="3">
-        <v>124700</v>
+        <v>158400</v>
       </c>
       <c r="H47" s="3">
-        <v>120300</v>
+        <v>124800</v>
       </c>
       <c r="I47" s="3">
-        <v>124700</v>
+        <v>120400</v>
       </c>
       <c r="J47" s="3">
+        <v>124800</v>
+      </c>
+      <c r="K47" s="3">
         <v>103000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>101600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>109000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>103800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>115600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>129800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>130700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>317300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>285900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>311000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>294500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>737700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>719200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>768600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>785400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>897600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>817900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1408600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1286500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1408600</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>62373700</v>
+        <v>64021500</v>
       </c>
       <c r="E48" s="3">
-        <v>37354800</v>
+        <v>62425500</v>
       </c>
       <c r="F48" s="3">
-        <v>36813900</v>
+        <v>37385800</v>
       </c>
       <c r="G48" s="3">
-        <v>35827300</v>
+        <v>36844400</v>
       </c>
       <c r="H48" s="3">
-        <v>35357900</v>
+        <v>35857100</v>
       </c>
       <c r="I48" s="3">
-        <v>34841900</v>
+        <v>35387300</v>
       </c>
       <c r="J48" s="3">
+        <v>34870800</v>
+      </c>
+      <c r="K48" s="3">
         <v>34656500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33577700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32571600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32128300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30009800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30711500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32522200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34099900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33024900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36724000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31480500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34927800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31643800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>28864100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>28039600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>27120600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>52821000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>26030200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>25510700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>26176000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>23553700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>24767400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5987500</v>
+        <v>5693000</v>
       </c>
       <c r="E49" s="3">
-        <v>4102200</v>
+        <v>5992500</v>
       </c>
       <c r="F49" s="3">
-        <v>4099000</v>
+        <v>4105600</v>
       </c>
       <c r="G49" s="3">
-        <v>4113100</v>
+        <v>4102400</v>
       </c>
       <c r="H49" s="3">
-        <v>4113100</v>
+        <v>4116500</v>
       </c>
       <c r="I49" s="3">
-        <v>4053400</v>
+        <v>4116500</v>
       </c>
       <c r="J49" s="3">
+        <v>4056800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4055600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4114800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4042600</v>
       </c>
       <c r="M49" s="3">
         <v>4042600</v>
       </c>
       <c r="N49" s="3">
+        <v>4042600</v>
+      </c>
+      <c r="O49" s="3">
         <v>4033500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4199300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4412700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5337300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8160200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5747700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8087800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5457100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5502900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5385200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5351700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5490000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7786600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5497800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5452900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5282100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7338700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>5399500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,97 +4343,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7936700</v>
+        <v>6393900</v>
       </c>
       <c r="E52" s="3">
-        <v>5924600</v>
+        <v>7943300</v>
       </c>
       <c r="F52" s="3">
-        <v>10006200</v>
+        <v>5929500</v>
       </c>
       <c r="G52" s="3">
-        <v>4885000</v>
+        <v>10014600</v>
       </c>
       <c r="H52" s="3">
-        <v>4194400</v>
+        <v>4889000</v>
       </c>
       <c r="I52" s="3">
-        <v>5055200</v>
+        <v>4197900</v>
       </c>
       <c r="J52" s="3">
+        <v>5059400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4181400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5058200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4621300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5898400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4095300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8964300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8922600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10436300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10796200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12949400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16134300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20145200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22854800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11710700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10751600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6807600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7068500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>6956300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7286200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>12677100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>12528100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>8334100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1711176000</v>
+        <v>1735400000</v>
       </c>
       <c r="E54" s="3">
-        <v>1684283800</v>
+        <v>1712596600</v>
       </c>
       <c r="F54" s="3">
-        <v>1609780100</v>
+        <v>1685682000</v>
       </c>
       <c r="G54" s="3">
-        <v>1727557800</v>
+        <v>1611116500</v>
       </c>
       <c r="H54" s="3">
-        <v>1668022300</v>
+        <v>1728992000</v>
       </c>
       <c r="I54" s="3">
-        <v>1744535900</v>
+        <v>1669407000</v>
       </c>
       <c r="J54" s="3">
+        <v>1745984200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1587609200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1643730600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1579180300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1590155000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1440648500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1528138600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1585498000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1702350800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1583361700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1728623800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1633559600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1631191000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1548922400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1444169700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1425228200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1396546200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1429639700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1502008000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1514935600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1644742600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1589834100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1649085700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,22 +4689,23 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>27523100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>24109300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>27546000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>24129300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -4583,74 +4713,77 @@
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>23345000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>21322900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>19225900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>22898200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>25886100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>30259400</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>26338500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>24286700</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>22786500</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3">
         <v>37729200</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE57" s="3">
         <v>25001000</v>
       </c>
-      <c r="AE57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4660,11 +4793,11 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>74496100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>74557900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -4672,14 +4805,14 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>121369300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4738,22 +4871,25 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>2395900</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2829500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2397900</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2831900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -4761,74 +4897,77 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>2985600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>3007900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>2016700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1815300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>2759800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>2592800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>2834200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>2290400</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>2852100</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3">
         <v>2472900</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="3">
         <v>3005000</v>
       </c>
-      <c r="AE59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4916,186 +5055,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45821700</v>
+        <v>183184900</v>
       </c>
       <c r="E61" s="3">
-        <v>167258200</v>
+        <v>45859700</v>
       </c>
       <c r="F61" s="3">
-        <v>44106600</v>
+        <v>167397100</v>
       </c>
       <c r="G61" s="3">
-        <v>154798600</v>
+        <v>44143200</v>
       </c>
       <c r="H61" s="3">
-        <v>41259800</v>
+        <v>154927200</v>
       </c>
       <c r="I61" s="3">
-        <v>164224900</v>
+        <v>41294000</v>
       </c>
       <c r="J61" s="3">
+        <v>164361200</v>
+      </c>
+      <c r="K61" s="3">
         <v>56119500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>160479600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>53062900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>173731000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54638600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>166334900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>59718600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>187453200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>61859900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>177461900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>43963200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>168898700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>54097600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>140870100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>41046500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>129673800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>41008700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>126560500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>41101900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>138392200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>41775900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>129706000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9914100</v>
+        <v>9050000</v>
       </c>
       <c r="E62" s="3">
-        <v>6940400</v>
+        <v>9922300</v>
       </c>
       <c r="F62" s="3">
-        <v>11950000</v>
+        <v>6946200</v>
       </c>
       <c r="G62" s="3">
-        <v>7200600</v>
+        <v>11960000</v>
       </c>
       <c r="H62" s="3">
-        <v>7071600</v>
+        <v>7206600</v>
       </c>
       <c r="I62" s="3">
-        <v>7296000</v>
+        <v>7077500</v>
       </c>
       <c r="J62" s="3">
+        <v>7302100</v>
+      </c>
+      <c r="K62" s="3">
         <v>6968600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6783400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5772400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6505600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5943500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6783700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7107300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6967700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8322500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12323400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15154400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17011200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>19181900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12837100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11585000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9003600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8863700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>8078300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7775400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>13029300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>12610200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>9507900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1637449600</v>
+        <v>1661536500</v>
       </c>
       <c r="E66" s="3">
-        <v>1609755200</v>
+        <v>1638809000</v>
       </c>
       <c r="F66" s="3">
-        <v>1537177900</v>
+        <v>1611091500</v>
       </c>
       <c r="G66" s="3">
-        <v>1655670000</v>
+        <v>1538454100</v>
       </c>
       <c r="H66" s="3">
-        <v>1598008900</v>
+        <v>1657044600</v>
       </c>
       <c r="I66" s="3">
-        <v>1673145700</v>
+        <v>1599335600</v>
       </c>
       <c r="J66" s="3">
+        <v>1674534800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1517070000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1575198900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1512382400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1523585600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1379099000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1465249100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1519324500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1631690600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1509199600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1650573600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1560044000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1557229900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1476734700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1377548700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1360491200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1331874000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1364084000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1434352000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1447491600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1571731600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1517113000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1577600600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39301900</v>
+        <v>39554800</v>
       </c>
       <c r="E72" s="3">
-        <v>40232000</v>
+        <v>39334500</v>
       </c>
       <c r="F72" s="3">
-        <v>39357200</v>
+        <v>40265400</v>
       </c>
       <c r="G72" s="3">
-        <v>38463900</v>
+        <v>39389800</v>
       </c>
       <c r="H72" s="3">
-        <v>36898400</v>
+        <v>38495800</v>
       </c>
       <c r="I72" s="3">
-        <v>40233100</v>
+        <v>36929100</v>
       </c>
       <c r="J72" s="3">
+        <v>40266500</v>
+      </c>
+      <c r="K72" s="3">
         <v>39322500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37390000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35140400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34342700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31761200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32832900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33673100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36431500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>38298100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39706800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>37388300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>39071500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>38096500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35056600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>33541700</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>34225200</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="3">
         <v>33549700</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE72" s="3">
         <v>34846900</v>
       </c>
-      <c r="AE72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73726400</v>
+        <v>73863500</v>
       </c>
       <c r="E76" s="3">
-        <v>74528600</v>
+        <v>73787600</v>
       </c>
       <c r="F76" s="3">
-        <v>72602200</v>
+        <v>74590500</v>
       </c>
       <c r="G76" s="3">
-        <v>71887800</v>
+        <v>72662500</v>
       </c>
       <c r="H76" s="3">
-        <v>70013300</v>
+        <v>71947400</v>
       </c>
       <c r="I76" s="3">
-        <v>71390200</v>
+        <v>70071500</v>
       </c>
       <c r="J76" s="3">
+        <v>71449400</v>
+      </c>
+      <c r="K76" s="3">
         <v>70539100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68531800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66797900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66569400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61549600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>62889500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66173500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70660200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74162100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>78050200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73515600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>73961000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>72187700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>66621000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>64737000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>64672200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>65555600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>67656000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>67443900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>73011000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>72721100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>71485000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1506900</v>
+        <v>141100</v>
       </c>
       <c r="E81" s="3">
-        <v>764300</v>
+        <v>1508200</v>
       </c>
       <c r="F81" s="3">
-        <v>2381800</v>
+        <v>764900</v>
       </c>
       <c r="G81" s="3">
-        <v>1488500</v>
+        <v>2383700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1049400</v>
+        <v>1432200</v>
       </c>
       <c r="I81" s="3">
-        <v>763200</v>
+        <v>-1050300</v>
       </c>
       <c r="J81" s="3">
+        <v>763800</v>
+      </c>
+      <c r="K81" s="3">
         <v>3368300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1584100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2056800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>708900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1038300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>762900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2083600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-547600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1346000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>825600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1627000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>623200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1915100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1239400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1957700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>821300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>885300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>939100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1740200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>727800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1452000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1152700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,97 +6786,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3274000</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>5809700</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>2969300</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>5901800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>5249300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>3003700</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>3068100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>2769200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2468300</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3">
         <v>2504300</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="3">
         <v>2301200</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE83" s="3">
         <v>2340600</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>24072400</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>42379600</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
-        <v>7750200</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>22772600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>80580900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>8778900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>3392700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>21205800</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-20841100</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="3">
         <v>9214900</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC89" s="3">
         <v>22647400</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD89" s="3">
+      <c r="AD89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-13181900</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,8 +7464,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7269,73 +7489,76 @@
         <v>-3566000</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2022000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-5573500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4625300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3820900</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-4820300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-3893500</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-4770700</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-1880500</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD91" s="3">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-4015600</v>
       </c>
-      <c r="AE91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-4245300</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>-9758000</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>-3124400</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10838800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-6845200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-5084100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-3083300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-5791500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-9314300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-4494700</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-2470600</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD94" s="3">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-3732700</v>
       </c>
-      <c r="AE94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,8 +7866,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7688,11 +7921,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1036400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7700,11 +7933,11 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1936900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7712,19 +7945,22 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1976900</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,168 +8232,174 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-2490200</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>-232000</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>-309000</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3930900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>2160400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>178600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>2184600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>-900200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-2473800</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-953700</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-3721600</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE100" s="3">
         <v>2384000</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-2633300</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>2552000</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>2484800</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>2335200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>-2589300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>778700</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>845800</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
         <v>947500</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="3">
         <v>1513000</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -8168,93 +8416,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>14703600</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>34929700</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
-        <v>6705200</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>9436000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>73274000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>4652100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>3339800</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>14449100</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-32755500</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3">
         <v>3766500</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC102" s="3">
         <v>16455100</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD102" s="3">
+      <c r="AD102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-14530600</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
